--- a/combine/04_康力泉_天天.xlsx
+++ b/combine/04_康力泉_天天.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="415">
   <si>
     <t>id</t>
   </si>
@@ -232,6 +232,9 @@
     <t>2020-02-26</t>
   </si>
   <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
     <t>2020-03-09</t>
   </si>
   <si>
@@ -247,6 +250,9 @@
     <t>2020-03-19</t>
   </si>
   <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
     <t>2020-04-30</t>
   </si>
   <si>
@@ -793,708 +799,6 @@
     <t>分红</t>
   </si>
   <si>
-    <t>0.8820</t>
-  </si>
-  <si>
-    <t>1.2420</t>
-  </si>
-  <si>
-    <t>1.2270</t>
-  </si>
-  <si>
-    <t>0.8440</t>
-  </si>
-  <si>
-    <t>1.0060</t>
-  </si>
-  <si>
-    <t>0.7815</t>
-  </si>
-  <si>
-    <t>1.1070</t>
-  </si>
-  <si>
-    <t>0.9595</t>
-  </si>
-  <si>
-    <t>0.9504</t>
-  </si>
-  <si>
-    <t>0.8153</t>
-  </si>
-  <si>
-    <t>0.9977</t>
-  </si>
-  <si>
-    <t>0.9456</t>
-  </si>
-  <si>
-    <t>0.9933</t>
-  </si>
-  <si>
-    <t>0.9959</t>
-  </si>
-  <si>
-    <t>0.9354</t>
-  </si>
-  <si>
-    <t>1.1490</t>
-  </si>
-  <si>
-    <t>0.9334</t>
-  </si>
-  <si>
-    <t>1.2150</t>
-  </si>
-  <si>
-    <t>1.0920</t>
-  </si>
-  <si>
-    <t>0.9688</t>
-  </si>
-  <si>
-    <t>1.1730</t>
-  </si>
-  <si>
-    <t>1.0365</t>
-  </si>
-  <si>
-    <t>0.9440</t>
-  </si>
-  <si>
-    <t>1.0040</t>
-  </si>
-  <si>
-    <t>0.8500</t>
-  </si>
-  <si>
-    <t>1.0260</t>
-  </si>
-  <si>
-    <t>0.9997</t>
-  </si>
-  <si>
-    <t>1.0100</t>
-  </si>
-  <si>
-    <t>0.9937</t>
-  </si>
-  <si>
-    <t>1.1970</t>
-  </si>
-  <si>
-    <t>1.0019</t>
-  </si>
-  <si>
-    <t>1.2510</t>
-  </si>
-  <si>
-    <t>1.0080</t>
-  </si>
-  <si>
-    <t>0.7642</t>
-  </si>
-  <si>
-    <t>0.8976</t>
-  </si>
-  <si>
-    <t>0.8968</t>
-  </si>
-  <si>
-    <t>1.0101</t>
-  </si>
-  <si>
-    <t>1.7130</t>
-  </si>
-  <si>
-    <t>0.9302</t>
-  </si>
-  <si>
-    <t>0.9113</t>
-  </si>
-  <si>
-    <t>0.6990</t>
-  </si>
-  <si>
-    <t>0.6951</t>
-  </si>
-  <si>
-    <t>0.4769</t>
-  </si>
-  <si>
-    <t>1.2570</t>
-  </si>
-  <si>
-    <t>0.9580</t>
-  </si>
-  <si>
-    <t>1.5650</t>
-  </si>
-  <si>
-    <t>0.8037</t>
-  </si>
-  <si>
-    <t>0.9808</t>
-  </si>
-  <si>
-    <t>1.3342</t>
-  </si>
-  <si>
-    <t>1.6360</t>
-  </si>
-  <si>
-    <t>0.9920</t>
-  </si>
-  <si>
-    <t>1.1580</t>
-  </si>
-  <si>
-    <t>1.4610</t>
-  </si>
-  <si>
-    <t>1.5910</t>
-  </si>
-  <si>
-    <t>1.5180</t>
-  </si>
-  <si>
-    <t>1.4502</t>
-  </si>
-  <si>
-    <t>0.5670</t>
-  </si>
-  <si>
-    <t>1.0041</t>
-  </si>
-  <si>
-    <t>1.0790</t>
-  </si>
-  <si>
-    <t>1.0285</t>
-  </si>
-  <si>
-    <t>0.8126</t>
-  </si>
-  <si>
-    <t>0.4670</t>
-  </si>
-  <si>
-    <t>1.2001</t>
-  </si>
-  <si>
-    <t>1.2440</t>
-  </si>
-  <si>
-    <t>1.4600</t>
-  </si>
-  <si>
-    <t>1.5540</t>
-  </si>
-  <si>
-    <t>1.0520</t>
-  </si>
-  <si>
-    <t>0.5190</t>
-  </si>
-  <si>
-    <t>1.6490</t>
-  </si>
-  <si>
-    <t>0.8140</t>
-  </si>
-  <si>
-    <t>2.6780</t>
-  </si>
-  <si>
-    <t>1.6220</t>
-  </si>
-  <si>
-    <t>1.1140</t>
-  </si>
-  <si>
-    <t>1.5940</t>
-  </si>
-  <si>
-    <t>1.5820</t>
-  </si>
-  <si>
-    <t>1.0794</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>1.6450</t>
-  </si>
-  <si>
-    <t>0.8999</t>
-  </si>
-  <si>
-    <t>0.9776</t>
-  </si>
-  <si>
-    <t>1.4623</t>
-  </si>
-  <si>
-    <t>1.7296</t>
-  </si>
-  <si>
-    <t>1.9367</t>
-  </si>
-  <si>
-    <t>1.0422</t>
-  </si>
-  <si>
-    <t>0.9450</t>
-  </si>
-  <si>
-    <t>0.9822</t>
-  </si>
-  <si>
-    <t>1.0894</t>
-  </si>
-  <si>
-    <t>0.7162</t>
-  </si>
-  <si>
-    <t>0.8646</t>
-  </si>
-  <si>
-    <t>1.3190</t>
-  </si>
-  <si>
-    <t>0.9780</t>
-  </si>
-  <si>
-    <t>1.3592</t>
-  </si>
-  <si>
-    <t>0.9130</t>
-  </si>
-  <si>
-    <t>0.8670</t>
-  </si>
-  <si>
-    <t>1.4364</t>
-  </si>
-  <si>
-    <t>1.2474</t>
-  </si>
-  <si>
-    <t>1.9434</t>
-  </si>
-  <si>
-    <t>0.9777</t>
-  </si>
-  <si>
-    <t>0.9720</t>
-  </si>
-  <si>
-    <t>2.3877</t>
-  </si>
-  <si>
-    <t>1.5770</t>
-  </si>
-  <si>
-    <t>1.1545</t>
-  </si>
-  <si>
-    <t>1.2160</t>
-  </si>
-  <si>
-    <t>1.7650</t>
-  </si>
-  <si>
-    <t>1.2856</t>
-  </si>
-  <si>
-    <t>1.1710</t>
-  </si>
-  <si>
-    <t>1.3139</t>
-  </si>
-  <si>
-    <t>1.1845</t>
-  </si>
-  <si>
-    <t>1.1004</t>
-  </si>
-  <si>
-    <t>566.33</t>
-  </si>
-  <si>
-    <t>402.05</t>
-  </si>
-  <si>
-    <t>3375.67</t>
-  </si>
-  <si>
-    <t>4728.82</t>
-  </si>
-  <si>
-    <t>3571.88</t>
-  </si>
-  <si>
-    <t>4122.20</t>
-  </si>
-  <si>
-    <t>4164.58</t>
-  </si>
-  <si>
-    <t>4851.28</t>
-  </si>
-  <si>
-    <t>3964.37</t>
-  </si>
-  <si>
-    <t>4185.72</t>
-  </si>
-  <si>
-    <t>3981.93</t>
-  </si>
-  <si>
-    <t>7943.08</t>
-  </si>
-  <si>
-    <t>4231.37</t>
-  </si>
-  <si>
-    <t>3441.31</t>
-  </si>
-  <si>
-    <t>4240.43</t>
-  </si>
-  <si>
-    <t>1085.17</t>
-  </si>
-  <si>
-    <t>18287.58</t>
-  </si>
-  <si>
-    <t>4205.50</t>
-  </si>
-  <si>
-    <t>10903.47</t>
-  </si>
-  <si>
-    <t>6168.46</t>
-  </si>
-  <si>
-    <t>6771.54</t>
-  </si>
-  <si>
-    <t>6368.13</t>
-  </si>
-  <si>
-    <t>7520.39</t>
-  </si>
-  <si>
-    <t>6228.47</t>
-  </si>
-  <si>
-    <t>6394.25</t>
-  </si>
-  <si>
-    <t>6327.14</t>
-  </si>
-  <si>
-    <t>5340.29</t>
-  </si>
-  <si>
-    <t>5451.73</t>
-  </si>
-  <si>
-    <t>6339.69</t>
-  </si>
-  <si>
-    <t>8364.73</t>
-  </si>
-  <si>
-    <t>7121.58</t>
-  </si>
-  <si>
-    <t>7127.93</t>
-  </si>
-  <si>
-    <t>6329.68</t>
-  </si>
-  <si>
-    <t>3731.66</t>
-  </si>
-  <si>
-    <t>6872.00</t>
-  </si>
-  <si>
-    <t>7014.52</t>
-  </si>
-  <si>
-    <t>9144.96</t>
-  </si>
-  <si>
-    <t>9196.27</t>
-  </si>
-  <si>
-    <t>13403.92</t>
-  </si>
-  <si>
-    <t>6670.57</t>
-  </si>
-  <si>
-    <t>4084.56</t>
-  </si>
-  <si>
-    <t>7953.63</t>
-  </si>
-  <si>
-    <t>3730.54</t>
-  </si>
-  <si>
-    <t>6518.77</t>
-  </si>
-  <si>
-    <t>4791.13</t>
-  </si>
-  <si>
-    <t>3906.12</t>
-  </si>
-  <si>
-    <t>6441.95</t>
-  </si>
-  <si>
-    <t>11040.29</t>
-  </si>
-  <si>
-    <t>855.99</t>
-  </si>
-  <si>
-    <t>441.92</t>
-  </si>
-  <si>
-    <t>4209.76</t>
-  </si>
-  <si>
-    <t>4407.90</t>
-  </si>
-  <si>
-    <t>11270.56</t>
-  </si>
-  <si>
-    <t>6367.50</t>
-  </si>
-  <si>
-    <t>5924.31</t>
-  </si>
-  <si>
-    <t>4205.60</t>
-  </si>
-  <si>
-    <t>7866.51</t>
-  </si>
-  <si>
-    <t>13683.96</t>
-  </si>
-  <si>
-    <t>5328.62</t>
-  </si>
-  <si>
-    <t>4378.31</t>
-  </si>
-  <si>
-    <t>4115.11</t>
-  </si>
-  <si>
-    <t>6076.36</t>
-  </si>
-  <si>
-    <t>12312.93</t>
-  </si>
-  <si>
-    <t>87.34</t>
-  </si>
-  <si>
-    <t>7852.99</t>
-  </si>
-  <si>
-    <t>3942.59</t>
-  </si>
-  <si>
-    <t>5738.18</t>
-  </si>
-  <si>
-    <t>4011.84</t>
-  </si>
-  <si>
-    <t>4042.28</t>
-  </si>
-  <si>
-    <t>617.75</t>
-  </si>
-  <si>
-    <t>158.04</t>
-  </si>
-  <si>
-    <t>3887.47</t>
-  </si>
-  <si>
-    <t>3889.32</t>
-  </si>
-  <si>
-    <t>3580.20</t>
-  </si>
-  <si>
-    <t>2390.62</t>
-  </si>
-  <si>
-    <t>3299.64</t>
-  </si>
-  <si>
-    <t>5867.75</t>
-  </si>
-  <si>
-    <t>8925.34</t>
-  </si>
-  <si>
-    <t>5609.79</t>
-  </si>
-  <si>
-    <t>6536.12</t>
-  </si>
-  <si>
-    <t>4703.01</t>
-  </si>
-  <si>
-    <t>7001.46</t>
-  </si>
-  <si>
-    <t>7372.93</t>
-  </si>
-  <si>
-    <t>5124.52</t>
-  </si>
-  <si>
-    <t>3289.25</t>
-  </si>
-  <si>
-    <t>9457.64</t>
-  </si>
-  <si>
-    <t>6574.50</t>
-  </si>
-  <si>
-    <t>5520.14</t>
-  </si>
-  <si>
-    <t>5258.95</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>5629.17</t>
-  </si>
-  <si>
-    <t>170.62</t>
-  </si>
-  <si>
-    <t>506.04</t>
-  </si>
-  <si>
-    <t>5811.41</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>2.47</t>
-  </si>
-  <si>
-    <t>2.39</t>
-  </si>
-  <si>
-    <t>4.08</t>
-  </si>
-  <si>
-    <t>4.43</t>
-  </si>
-  <si>
-    <t>5.93</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>1.98</t>
-  </si>
-  <si>
-    <t>9.49</t>
-  </si>
-  <si>
-    <t>29.96</t>
-  </si>
-  <si>
-    <t>2.04</t>
-  </si>
-  <si>
-    <t>10.23</t>
-  </si>
-  <si>
-    <t>6.39</t>
-  </si>
-  <si>
-    <t>7.67</t>
-  </si>
-  <si>
-    <t>9.59</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>15.34</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>5.12</t>
-  </si>
-  <si>
-    <t>49.95</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>20.72</t>
-  </si>
-  <si>
-    <t>33.95</t>
-  </si>
-  <si>
-    <t>38.27</t>
-  </si>
-  <si>
-    <t>39.27</t>
-  </si>
-  <si>
-    <t>17.41</t>
-  </si>
-  <si>
-    <t>19.87</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
     <t>康力泉_天天</t>
   </si>
   <si>
@@ -1882,6 +1186,9 @@
     <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=b36036a7da5944e79820a526a93d9feb&amp;businType=22&amp;traceNo=</t>
   </si>
   <si>
+    <t>自补分红</t>
+  </si>
+  <si>
     <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=cb7d1471b713425da577fc5b604faab7&amp;businType=22&amp;traceNo=cb7d1471b713425da577fc5b604faab7</t>
   </si>
   <si>
@@ -1910,6 +1217,9 @@
   </si>
   <si>
     <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=5aa22e59af344e2f8bb90ade34c67832&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>https://query.1234567.com.cn/Query/Detail?id=340c5c12b6734d8180fcbe9ecdb3e13d&amp;businType=26&amp;traceNo=</t>
   </si>
   <si>
     <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=f2a499cb52c14779b89c59a38b2ebeb0&amp;businType=24&amp;traceNo=</t>
@@ -1955,7 +1265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1970,6 +1280,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2004,16 +1321,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2306,7 +1629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S116"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2379,52 +1702,52 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
-      </c>
-      <c r="H2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J2" t="s">
-        <v>368</v>
+        <v>258</v>
+      </c>
+      <c r="H2">
+        <v>0.882</v>
+      </c>
+      <c r="I2">
+        <v>0.882</v>
+      </c>
+      <c r="J2">
+        <v>566.33</v>
       </c>
       <c r="K2">
         <v>499.5</v>
       </c>
-      <c r="L2" t="s">
-        <v>462</v>
+      <c r="L2">
+        <v>0.5</v>
       </c>
       <c r="M2">
         <v>500</v>
       </c>
       <c r="N2" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O2" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P2" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q2" t="s">
-        <v>509</v>
+        <v>277</v>
       </c>
       <c r="R2">
         <v>148</v>
       </c>
       <c r="S2" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2438,52 +1761,52 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I3" t="s">
-        <v>260</v>
-      </c>
-      <c r="J3" t="s">
-        <v>369</v>
+        <v>258</v>
+      </c>
+      <c r="H3">
+        <v>1.242</v>
+      </c>
+      <c r="I3">
+        <v>1.242</v>
+      </c>
+      <c r="J3">
+        <v>402.05</v>
       </c>
       <c r="K3">
         <v>499.35</v>
       </c>
-      <c r="L3" t="s">
-        <v>463</v>
+      <c r="L3">
+        <v>0.65</v>
       </c>
       <c r="M3">
         <v>500</v>
       </c>
       <c r="N3" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O3" t="s">
-        <v>495</v>
+        <v>263</v>
       </c>
       <c r="P3" t="s">
-        <v>500</v>
+        <v>268</v>
       </c>
       <c r="Q3" t="s">
-        <v>510</v>
+        <v>278</v>
       </c>
       <c r="R3">
         <v>314</v>
       </c>
       <c r="S3" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2497,52 +1820,52 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" t="s">
-        <v>261</v>
-      </c>
-      <c r="I4" t="s">
-        <v>261</v>
-      </c>
-      <c r="J4" t="s">
-        <v>369</v>
+        <v>259</v>
+      </c>
+      <c r="H4">
+        <v>1.227</v>
+      </c>
+      <c r="I4">
+        <v>1.227</v>
+      </c>
+      <c r="J4">
+        <v>402.05</v>
       </c>
       <c r="K4">
         <v>490.85</v>
       </c>
-      <c r="L4" t="s">
-        <v>464</v>
+      <c r="L4">
+        <v>2.47</v>
       </c>
       <c r="M4">
         <v>488.38</v>
       </c>
       <c r="N4" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O4" t="s">
-        <v>495</v>
+        <v>263</v>
       </c>
       <c r="P4" t="s">
-        <v>500</v>
+        <v>268</v>
       </c>
       <c r="Q4" t="s">
-        <v>510</v>
+        <v>278</v>
       </c>
       <c r="R4">
         <v>314</v>
       </c>
       <c r="S4" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2556,52 +1879,52 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J5" t="s">
-        <v>368</v>
+        <v>259</v>
+      </c>
+      <c r="H5">
+        <v>0.844</v>
+      </c>
+      <c r="I5">
+        <v>0.844</v>
+      </c>
+      <c r="J5">
+        <v>566.33</v>
       </c>
       <c r="K5">
         <v>475.59</v>
       </c>
-      <c r="L5" t="s">
-        <v>465</v>
+      <c r="L5">
+        <v>2.39</v>
       </c>
       <c r="M5">
         <v>473.2</v>
       </c>
       <c r="N5" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O5" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P5" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q5" t="s">
-        <v>509</v>
+        <v>277</v>
       </c>
       <c r="R5">
         <v>148</v>
       </c>
       <c r="S5" t="s">
-        <v>533</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2615,52 +1938,52 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J6" t="s">
-        <v>370</v>
+        <v>258</v>
+      </c>
+      <c r="H6">
+        <v>1.006</v>
+      </c>
+      <c r="I6">
+        <v>1.006</v>
+      </c>
+      <c r="J6">
+        <v>3375.67</v>
       </c>
       <c r="K6">
         <v>3395.92</v>
       </c>
-      <c r="L6" t="s">
-        <v>466</v>
+      <c r="L6">
+        <v>4.08</v>
       </c>
       <c r="M6">
         <v>3400</v>
       </c>
       <c r="N6" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O6" t="s">
-        <v>495</v>
+        <v>263</v>
       </c>
       <c r="P6" t="s">
-        <v>501</v>
+        <v>269</v>
       </c>
       <c r="Q6" t="s">
-        <v>511</v>
+        <v>279</v>
       </c>
       <c r="R6">
         <v>321</v>
       </c>
       <c r="S6" t="s">
-        <v>534</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2674,52 +1997,52 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I7" t="s">
-        <v>264</v>
-      </c>
-      <c r="J7" t="s">
-        <v>371</v>
+        <v>258</v>
+      </c>
+      <c r="H7">
+        <v>0.7815</v>
+      </c>
+      <c r="I7">
+        <v>0.7815</v>
+      </c>
+      <c r="J7">
+        <v>4728.82</v>
       </c>
       <c r="K7">
         <v>3695.57</v>
       </c>
-      <c r="L7" t="s">
-        <v>467</v>
+      <c r="L7">
+        <v>4.43</v>
       </c>
       <c r="M7">
         <v>3700</v>
       </c>
       <c r="N7" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O7" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P7" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q7" t="s">
-        <v>512</v>
+        <v>280</v>
       </c>
       <c r="R7">
         <v>142</v>
       </c>
       <c r="S7" t="s">
-        <v>535</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2733,52 +2056,52 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H8" t="s">
-        <v>264</v>
-      </c>
-      <c r="I8" t="s">
-        <v>264</v>
-      </c>
-      <c r="J8" t="s">
-        <v>371</v>
+        <v>258</v>
+      </c>
+      <c r="H8">
+        <v>0.7815</v>
+      </c>
+      <c r="I8">
+        <v>0.7815</v>
+      </c>
+      <c r="J8">
+        <v>4728.82</v>
       </c>
       <c r="K8">
         <v>3695.57</v>
       </c>
-      <c r="L8" t="s">
-        <v>467</v>
+      <c r="L8">
+        <v>4.43</v>
       </c>
       <c r="M8">
         <v>3700</v>
       </c>
       <c r="N8" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O8" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P8" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q8" t="s">
-        <v>512</v>
+        <v>280</v>
       </c>
       <c r="R8">
         <v>142</v>
       </c>
       <c r="S8" t="s">
-        <v>536</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2792,52 +2115,52 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G9" t="s">
-        <v>256</v>
-      </c>
-      <c r="H9" t="s">
-        <v>265</v>
-      </c>
-      <c r="I9" t="s">
-        <v>265</v>
-      </c>
-      <c r="J9" t="s">
-        <v>372</v>
+        <v>258</v>
+      </c>
+      <c r="H9">
+        <v>1.107</v>
+      </c>
+      <c r="I9">
+        <v>1.107</v>
+      </c>
+      <c r="J9">
+        <v>3571.88</v>
       </c>
       <c r="K9">
         <v>3954.07</v>
       </c>
-      <c r="L9" t="s">
-        <v>468</v>
+      <c r="L9">
+        <v>5.93</v>
       </c>
       <c r="M9">
         <v>3960</v>
       </c>
       <c r="N9" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O9" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P9" t="s">
-        <v>502</v>
+        <v>270</v>
       </c>
       <c r="Q9" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="R9">
         <v>131</v>
       </c>
       <c r="S9" t="s">
-        <v>537</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2851,52 +2174,52 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G10" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I10" t="s">
-        <v>266</v>
-      </c>
-      <c r="J10" t="s">
-        <v>373</v>
+        <v>258</v>
+      </c>
+      <c r="H10">
+        <v>0.9595</v>
+      </c>
+      <c r="I10">
+        <v>0.9595</v>
+      </c>
+      <c r="J10">
+        <v>4122.2</v>
       </c>
       <c r="K10">
         <v>3955.25</v>
       </c>
-      <c r="L10" t="s">
-        <v>469</v>
+      <c r="L10">
+        <v>4.75</v>
       </c>
       <c r="M10">
         <v>3960</v>
       </c>
       <c r="N10" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O10" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P10" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q10" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="R10">
         <v>141</v>
       </c>
       <c r="S10" t="s">
-        <v>538</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2910,52 +2233,52 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G11" t="s">
-        <v>256</v>
-      </c>
-      <c r="H11" t="s">
-        <v>267</v>
-      </c>
-      <c r="I11" t="s">
-        <v>267</v>
-      </c>
-      <c r="J11" t="s">
-        <v>374</v>
+        <v>258</v>
+      </c>
+      <c r="H11">
+        <v>0.9504</v>
+      </c>
+      <c r="I11">
+        <v>0.9504</v>
+      </c>
+      <c r="J11">
+        <v>4164.58</v>
       </c>
       <c r="K11">
         <v>3958.02</v>
       </c>
-      <c r="L11" t="s">
-        <v>470</v>
+      <c r="L11">
+        <v>1.98</v>
       </c>
       <c r="M11">
         <v>3960</v>
       </c>
       <c r="N11" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O11" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P11" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q11" t="s">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="R11">
         <v>511</v>
       </c>
       <c r="S11" t="s">
-        <v>539</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2969,52 +2292,52 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H12" t="s">
-        <v>268</v>
-      </c>
-      <c r="I12" t="s">
-        <v>268</v>
-      </c>
-      <c r="J12" t="s">
-        <v>375</v>
+        <v>258</v>
+      </c>
+      <c r="H12">
+        <v>0.8153</v>
+      </c>
+      <c r="I12">
+        <v>0.8153</v>
+      </c>
+      <c r="J12">
+        <v>4851.28</v>
       </c>
       <c r="K12">
         <v>3955.25</v>
       </c>
-      <c r="L12" t="s">
-        <v>469</v>
+      <c r="L12">
+        <v>4.75</v>
       </c>
       <c r="M12">
         <v>3960</v>
       </c>
       <c r="N12" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O12" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P12" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q12" t="s">
-        <v>512</v>
+        <v>280</v>
       </c>
       <c r="R12">
         <v>142</v>
       </c>
       <c r="S12" t="s">
-        <v>540</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3028,52 +2351,52 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G13" t="s">
-        <v>256</v>
-      </c>
-      <c r="H13" t="s">
-        <v>269</v>
-      </c>
-      <c r="I13" t="s">
-        <v>269</v>
-      </c>
-      <c r="J13" t="s">
-        <v>376</v>
+        <v>258</v>
+      </c>
+      <c r="H13">
+        <v>0.9977</v>
+      </c>
+      <c r="I13">
+        <v>0.9977</v>
+      </c>
+      <c r="J13">
+        <v>3964.37</v>
       </c>
       <c r="K13">
         <v>3955.25</v>
       </c>
-      <c r="L13" t="s">
-        <v>469</v>
+      <c r="L13">
+        <v>4.75</v>
       </c>
       <c r="M13">
         <v>3960</v>
       </c>
       <c r="N13" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O13" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P13" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q13" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="R13">
         <v>141</v>
       </c>
       <c r="S13" t="s">
-        <v>541</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3087,52 +2410,52 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H14" t="s">
-        <v>270</v>
-      </c>
-      <c r="I14" t="s">
-        <v>270</v>
-      </c>
-      <c r="J14" t="s">
-        <v>377</v>
+        <v>258</v>
+      </c>
+      <c r="H14">
+        <v>0.9456</v>
+      </c>
+      <c r="I14">
+        <v>0.9456</v>
+      </c>
+      <c r="J14">
+        <v>4185.72</v>
       </c>
       <c r="K14">
         <v>3958.02</v>
       </c>
-      <c r="L14" t="s">
-        <v>470</v>
+      <c r="L14">
+        <v>1.98</v>
       </c>
       <c r="M14">
         <v>3960</v>
       </c>
       <c r="N14" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O14" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P14" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q14" t="s">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="R14">
         <v>511</v>
       </c>
       <c r="S14" t="s">
-        <v>542</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3146,52 +2469,52 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G15" t="s">
-        <v>256</v>
-      </c>
-      <c r="H15" t="s">
-        <v>271</v>
-      </c>
-      <c r="I15" t="s">
-        <v>271</v>
-      </c>
-      <c r="J15" t="s">
-        <v>378</v>
+        <v>258</v>
+      </c>
+      <c r="H15">
+        <v>0.9933</v>
+      </c>
+      <c r="I15">
+        <v>0.9933</v>
+      </c>
+      <c r="J15">
+        <v>3981.93</v>
       </c>
       <c r="K15">
         <v>3955.25</v>
       </c>
-      <c r="L15" t="s">
-        <v>469</v>
+      <c r="L15">
+        <v>4.75</v>
       </c>
       <c r="M15">
         <v>3960</v>
       </c>
       <c r="N15" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O15" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P15" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q15" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="R15">
         <v>141</v>
       </c>
       <c r="S15" t="s">
-        <v>543</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -3205,52 +2528,52 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G16" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" t="s">
-        <v>272</v>
-      </c>
-      <c r="I16" t="s">
-        <v>272</v>
-      </c>
-      <c r="J16" t="s">
-        <v>379</v>
+        <v>258</v>
+      </c>
+      <c r="H16">
+        <v>0.9959</v>
+      </c>
+      <c r="I16">
+        <v>0.9959</v>
+      </c>
+      <c r="J16">
+        <v>7943.08</v>
       </c>
       <c r="K16">
         <v>7910.51</v>
       </c>
-      <c r="L16" t="s">
-        <v>471</v>
+      <c r="L16">
+        <v>9.49</v>
       </c>
       <c r="M16">
         <v>7920</v>
       </c>
       <c r="N16" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O16" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P16" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q16" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="R16">
         <v>141</v>
       </c>
       <c r="S16" t="s">
-        <v>544</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -3264,52 +2587,52 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G17" t="s">
-        <v>256</v>
-      </c>
-      <c r="H17" t="s">
-        <v>273</v>
-      </c>
-      <c r="I17" t="s">
-        <v>273</v>
-      </c>
-      <c r="J17" t="s">
-        <v>380</v>
+        <v>258</v>
+      </c>
+      <c r="H17">
+        <v>0.9354</v>
+      </c>
+      <c r="I17">
+        <v>0.9354</v>
+      </c>
+      <c r="J17">
+        <v>4231.37</v>
       </c>
       <c r="K17">
         <v>3958.02</v>
       </c>
-      <c r="L17" t="s">
-        <v>470</v>
+      <c r="L17">
+        <v>1.98</v>
       </c>
       <c r="M17">
         <v>3960</v>
       </c>
       <c r="N17" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O17" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P17" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q17" t="s">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="R17">
         <v>511</v>
       </c>
       <c r="S17" t="s">
-        <v>545</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -3323,52 +2646,52 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G18" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" t="s">
-        <v>274</v>
-      </c>
-      <c r="I18" t="s">
-        <v>274</v>
-      </c>
-      <c r="J18" t="s">
-        <v>381</v>
+        <v>258</v>
+      </c>
+      <c r="H18">
+        <v>1.149</v>
+      </c>
+      <c r="I18">
+        <v>1.149</v>
+      </c>
+      <c r="J18">
+        <v>3441.31</v>
       </c>
       <c r="K18">
         <v>3954.07</v>
       </c>
-      <c r="L18" t="s">
-        <v>468</v>
+      <c r="L18">
+        <v>5.93</v>
       </c>
       <c r="M18">
         <v>3960</v>
       </c>
       <c r="N18" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O18" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P18" t="s">
-        <v>502</v>
+        <v>270</v>
       </c>
       <c r="Q18" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="R18">
         <v>131</v>
       </c>
       <c r="S18" t="s">
-        <v>546</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -3382,52 +2705,52 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" t="s">
-        <v>275</v>
-      </c>
-      <c r="I19" t="s">
-        <v>275</v>
-      </c>
-      <c r="J19" t="s">
-        <v>382</v>
+        <v>258</v>
+      </c>
+      <c r="H19">
+        <v>0.9334</v>
+      </c>
+      <c r="I19">
+        <v>0.9334</v>
+      </c>
+      <c r="J19">
+        <v>4240.43</v>
       </c>
       <c r="K19">
         <v>3958.02</v>
       </c>
-      <c r="L19" t="s">
-        <v>470</v>
+      <c r="L19">
+        <v>1.98</v>
       </c>
       <c r="M19">
         <v>3960</v>
       </c>
       <c r="N19" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O19" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P19" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q19" t="s">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="R19">
         <v>511</v>
       </c>
       <c r="S19" t="s">
-        <v>547</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -3441,52 +2764,52 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
-        <v>258</v>
-      </c>
-      <c r="H20" t="s">
-        <v>276</v>
-      </c>
-      <c r="I20" t="s">
-        <v>276</v>
-      </c>
-      <c r="J20" t="s">
-        <v>383</v>
+        <v>260</v>
+      </c>
+      <c r="H20">
+        <v>1.215</v>
+      </c>
+      <c r="I20">
+        <v>1.215</v>
+      </c>
+      <c r="J20">
+        <v>1085.17</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
-        <v>457</v>
+      <c r="L20">
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O20" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P20" t="s">
-        <v>502</v>
+        <v>270</v>
       </c>
       <c r="Q20" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="R20">
         <v>131</v>
       </c>
       <c r="S20" t="s">
-        <v>548</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -3500,52 +2823,52 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" t="s">
-        <v>277</v>
-      </c>
-      <c r="I21" t="s">
-        <v>277</v>
-      </c>
-      <c r="J21" t="s">
-        <v>384</v>
+        <v>258</v>
+      </c>
+      <c r="H21">
+        <v>1.092</v>
+      </c>
+      <c r="I21">
+        <v>1.092</v>
+      </c>
+      <c r="J21">
+        <v>18287.58</v>
       </c>
       <c r="K21">
         <v>19970.04</v>
       </c>
-      <c r="L21" t="s">
-        <v>472</v>
+      <c r="L21">
+        <v>29.96</v>
       </c>
       <c r="M21">
         <v>20000</v>
       </c>
       <c r="N21" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O21" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P21" t="s">
-        <v>502</v>
+        <v>270</v>
       </c>
       <c r="Q21" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="R21">
         <v>131</v>
       </c>
       <c r="S21" t="s">
-        <v>549</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -3559,52 +2882,52 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>257</v>
-      </c>
-      <c r="H22" t="s">
-        <v>278</v>
-      </c>
-      <c r="I22" t="s">
-        <v>278</v>
-      </c>
-      <c r="J22" t="s">
-        <v>385</v>
+        <v>259</v>
+      </c>
+      <c r="H22">
+        <v>0.9688</v>
+      </c>
+      <c r="I22">
+        <v>0.9688</v>
+      </c>
+      <c r="J22">
+        <v>4205.5</v>
       </c>
       <c r="K22">
         <v>4072.25</v>
       </c>
-      <c r="L22" t="s">
-        <v>473</v>
+      <c r="L22">
+        <v>2.04</v>
       </c>
       <c r="M22">
         <v>4070.21</v>
       </c>
       <c r="N22" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O22" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P22" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q22" t="s">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="R22">
         <v>511</v>
       </c>
       <c r="S22" t="s">
-        <v>550</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -3618,52 +2941,52 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>256</v>
-      </c>
-      <c r="H23" t="s">
-        <v>279</v>
-      </c>
-      <c r="I23" t="s">
-        <v>279</v>
-      </c>
-      <c r="J23" t="s">
-        <v>386</v>
+        <v>258</v>
+      </c>
+      <c r="H23">
+        <v>1.173</v>
+      </c>
+      <c r="I23">
+        <v>1.173</v>
+      </c>
+      <c r="J23">
+        <v>10903.47</v>
       </c>
       <c r="K23">
         <v>12789.77</v>
       </c>
-      <c r="L23" t="s">
-        <v>474</v>
+      <c r="L23">
+        <v>10.23</v>
       </c>
       <c r="M23">
         <v>12800</v>
       </c>
       <c r="N23" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O23" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P23" t="s">
-        <v>504</v>
+        <v>272</v>
       </c>
       <c r="Q23" t="s">
-        <v>516</v>
+        <v>284</v>
       </c>
       <c r="R23">
         <v>521</v>
       </c>
       <c r="S23" t="s">
-        <v>551</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -3677,52 +3000,52 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
-        <v>256</v>
-      </c>
-      <c r="H24" t="s">
-        <v>279</v>
-      </c>
-      <c r="I24" t="s">
-        <v>279</v>
-      </c>
-      <c r="J24" t="s">
-        <v>386</v>
+        <v>258</v>
+      </c>
+      <c r="H24">
+        <v>1.173</v>
+      </c>
+      <c r="I24">
+        <v>1.173</v>
+      </c>
+      <c r="J24">
+        <v>10903.47</v>
       </c>
       <c r="K24">
         <v>12789.77</v>
       </c>
-      <c r="L24" t="s">
-        <v>474</v>
+      <c r="L24">
+        <v>10.23</v>
       </c>
       <c r="M24">
         <v>12800</v>
       </c>
       <c r="N24" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O24" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P24" t="s">
-        <v>504</v>
+        <v>272</v>
       </c>
       <c r="Q24" t="s">
-        <v>516</v>
+        <v>284</v>
       </c>
       <c r="R24">
         <v>521</v>
       </c>
       <c r="S24" t="s">
-        <v>552</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -3736,52 +3059,52 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" t="s">
-        <v>280</v>
-      </c>
-      <c r="I25" t="s">
-        <v>280</v>
-      </c>
-      <c r="J25" t="s">
-        <v>387</v>
+        <v>258</v>
+      </c>
+      <c r="H25">
+        <v>1.0365</v>
+      </c>
+      <c r="I25">
+        <v>1.0365</v>
+      </c>
+      <c r="J25">
+        <v>6168.46</v>
       </c>
       <c r="K25">
         <v>6393.61</v>
       </c>
-      <c r="L25" t="s">
-        <v>475</v>
+      <c r="L25">
+        <v>6.39</v>
       </c>
       <c r="M25">
         <v>6400</v>
       </c>
       <c r="N25" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O25" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q25" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R25">
         <v>512</v>
       </c>
       <c r="S25" t="s">
-        <v>553</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -3795,52 +3118,52 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G26" t="s">
-        <v>256</v>
-      </c>
-      <c r="H26" t="s">
-        <v>281</v>
-      </c>
-      <c r="I26" t="s">
-        <v>281</v>
-      </c>
-      <c r="J26" t="s">
-        <v>388</v>
+        <v>258</v>
+      </c>
+      <c r="H26">
+        <v>0.944</v>
+      </c>
+      <c r="I26">
+        <v>0.944</v>
+      </c>
+      <c r="J26">
+        <v>6771.54</v>
       </c>
       <c r="K26">
         <v>6392.33</v>
       </c>
-      <c r="L26" t="s">
-        <v>476</v>
+      <c r="L26">
+        <v>7.67</v>
       </c>
       <c r="M26">
         <v>6400</v>
       </c>
       <c r="N26" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P26" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q26" t="s">
-        <v>518</v>
+        <v>286</v>
       </c>
       <c r="R26">
         <v>147</v>
       </c>
       <c r="S26" t="s">
-        <v>554</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -3854,52 +3177,52 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>256</v>
-      </c>
-      <c r="H27" t="s">
-        <v>282</v>
-      </c>
-      <c r="I27" t="s">
-        <v>282</v>
-      </c>
-      <c r="J27" t="s">
-        <v>389</v>
+        <v>258</v>
+      </c>
+      <c r="H27">
+        <v>1.004</v>
+      </c>
+      <c r="I27">
+        <v>1.004</v>
+      </c>
+      <c r="J27">
+        <v>6368.13</v>
       </c>
       <c r="K27">
         <v>6393.61</v>
       </c>
-      <c r="L27" t="s">
-        <v>475</v>
+      <c r="L27">
+        <v>6.39</v>
       </c>
       <c r="M27">
         <v>6400</v>
       </c>
       <c r="N27" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P27" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q27" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R27">
         <v>512</v>
       </c>
       <c r="S27" t="s">
-        <v>555</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -3913,52 +3236,52 @@
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>256</v>
-      </c>
-      <c r="H28" t="s">
-        <v>283</v>
-      </c>
-      <c r="I28" t="s">
-        <v>283</v>
-      </c>
-      <c r="J28" t="s">
-        <v>390</v>
+        <v>258</v>
+      </c>
+      <c r="H28">
+        <v>0.85</v>
+      </c>
+      <c r="I28">
+        <v>0.85</v>
+      </c>
+      <c r="J28">
+        <v>7520.39</v>
       </c>
       <c r="K28">
         <v>6392.33</v>
       </c>
-      <c r="L28" t="s">
-        <v>476</v>
+      <c r="L28">
+        <v>7.67</v>
       </c>
       <c r="M28">
         <v>6400</v>
       </c>
       <c r="N28" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P28" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q28" t="s">
-        <v>518</v>
+        <v>286</v>
       </c>
       <c r="R28">
         <v>147</v>
       </c>
       <c r="S28" t="s">
-        <v>556</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -3972,52 +3295,52 @@
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>256</v>
-      </c>
-      <c r="H29" t="s">
-        <v>284</v>
-      </c>
-      <c r="I29" t="s">
-        <v>284</v>
-      </c>
-      <c r="J29" t="s">
-        <v>391</v>
+        <v>258</v>
+      </c>
+      <c r="H29">
+        <v>1.026</v>
+      </c>
+      <c r="I29">
+        <v>1.026</v>
+      </c>
+      <c r="J29">
+        <v>6228.47</v>
       </c>
       <c r="K29">
         <v>6390.41</v>
       </c>
-      <c r="L29" t="s">
-        <v>477</v>
+      <c r="L29">
+        <v>9.59</v>
       </c>
       <c r="M29">
         <v>6400</v>
       </c>
       <c r="N29" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P29" t="s">
-        <v>502</v>
+        <v>270</v>
       </c>
       <c r="Q29" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="R29">
         <v>131</v>
       </c>
       <c r="S29" t="s">
-        <v>557</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -4031,52 +3354,52 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G30" t="s">
-        <v>256</v>
-      </c>
-      <c r="H30" t="s">
-        <v>285</v>
-      </c>
-      <c r="I30" t="s">
-        <v>285</v>
-      </c>
-      <c r="J30" t="s">
-        <v>392</v>
+        <v>258</v>
+      </c>
+      <c r="H30">
+        <v>0.9997</v>
+      </c>
+      <c r="I30">
+        <v>0.9997</v>
+      </c>
+      <c r="J30">
+        <v>6394.25</v>
       </c>
       <c r="K30">
         <v>6392.33</v>
       </c>
-      <c r="L30" t="s">
-        <v>476</v>
+      <c r="L30">
+        <v>7.67</v>
       </c>
       <c r="M30">
         <v>6400</v>
       </c>
       <c r="N30" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O30" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P30" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q30" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="R30">
         <v>141</v>
       </c>
       <c r="S30" t="s">
-        <v>558</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4090,52 +3413,52 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>256</v>
-      </c>
-      <c r="H31" t="s">
-        <v>286</v>
-      </c>
-      <c r="I31" t="s">
-        <v>286</v>
-      </c>
-      <c r="J31" t="s">
-        <v>393</v>
+        <v>258</v>
+      </c>
+      <c r="H31">
+        <v>1.01</v>
+      </c>
+      <c r="I31">
+        <v>1.01</v>
+      </c>
+      <c r="J31">
+        <v>6327.14</v>
       </c>
       <c r="K31">
         <v>6390.41</v>
       </c>
-      <c r="L31" t="s">
-        <v>477</v>
+      <c r="L31">
+        <v>9.59</v>
       </c>
       <c r="M31">
         <v>6400</v>
       </c>
       <c r="N31" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O31" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P31" t="s">
-        <v>502</v>
+        <v>270</v>
       </c>
       <c r="Q31" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="R31">
         <v>131</v>
       </c>
       <c r="S31" t="s">
-        <v>559</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4149,52 +3472,52 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>257</v>
-      </c>
-      <c r="H32" t="s">
-        <v>287</v>
-      </c>
-      <c r="I32" t="s">
-        <v>287</v>
-      </c>
-      <c r="J32" t="s">
-        <v>385</v>
+        <v>259</v>
+      </c>
+      <c r="H32">
+        <v>0.9937</v>
+      </c>
+      <c r="I32">
+        <v>0.9937</v>
+      </c>
+      <c r="J32">
+        <v>4205.5</v>
       </c>
       <c r="K32">
         <v>4176.92</v>
       </c>
-      <c r="L32" t="s">
-        <v>478</v>
+      <c r="L32">
+        <v>2.09</v>
       </c>
       <c r="M32">
         <v>4174.83</v>
       </c>
       <c r="N32" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P32" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q32" t="s">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="R32">
         <v>511</v>
       </c>
       <c r="S32" t="s">
-        <v>560</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4208,52 +3531,52 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G33" t="s">
-        <v>256</v>
-      </c>
-      <c r="H33" t="s">
-        <v>288</v>
-      </c>
-      <c r="I33" t="s">
-        <v>288</v>
-      </c>
-      <c r="J33" t="s">
-        <v>394</v>
+        <v>258</v>
+      </c>
+      <c r="H33">
+        <v>1.197</v>
+      </c>
+      <c r="I33">
+        <v>1.197</v>
+      </c>
+      <c r="J33">
+        <v>5340.29</v>
       </c>
       <c r="K33">
         <v>6392.33</v>
       </c>
-      <c r="L33" t="s">
-        <v>476</v>
+      <c r="L33">
+        <v>7.67</v>
       </c>
       <c r="M33">
         <v>6400</v>
       </c>
       <c r="N33" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s">
-        <v>495</v>
+        <v>263</v>
       </c>
       <c r="P33" t="s">
-        <v>501</v>
+        <v>269</v>
       </c>
       <c r="Q33" t="s">
-        <v>511</v>
+        <v>279</v>
       </c>
       <c r="R33">
         <v>321</v>
       </c>
       <c r="S33" t="s">
-        <v>561</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4267,52 +3590,52 @@
         <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G34" t="s">
-        <v>257</v>
-      </c>
-      <c r="H34" t="s">
-        <v>289</v>
-      </c>
-      <c r="I34" t="s">
-        <v>289</v>
-      </c>
-      <c r="J34" t="s">
-        <v>385</v>
+        <v>259</v>
+      </c>
+      <c r="H34">
+        <v>1.0019</v>
+      </c>
+      <c r="I34">
+        <v>1.0019</v>
+      </c>
+      <c r="J34">
+        <v>4205.5</v>
       </c>
       <c r="K34">
         <v>4211.37</v>
       </c>
-      <c r="L34" t="s">
-        <v>479</v>
+      <c r="L34">
+        <v>2.12</v>
       </c>
       <c r="M34">
         <v>4209.25</v>
       </c>
       <c r="N34" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O34" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P34" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q34" t="s">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="R34">
         <v>511</v>
       </c>
       <c r="S34" t="s">
-        <v>562</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4326,52 +3649,52 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G35" t="s">
-        <v>257</v>
-      </c>
-      <c r="H35" t="s">
-        <v>290</v>
-      </c>
-      <c r="I35" t="s">
-        <v>290</v>
-      </c>
-      <c r="J35" t="s">
-        <v>395</v>
+        <v>259</v>
+      </c>
+      <c r="H35">
+        <v>1.251</v>
+      </c>
+      <c r="I35">
+        <v>1.251</v>
+      </c>
+      <c r="J35">
+        <v>5451.73</v>
       </c>
       <c r="K35">
         <v>6820.11</v>
       </c>
-      <c r="L35" t="s">
-        <v>457</v>
+      <c r="L35">
+        <v>0</v>
       </c>
       <c r="M35">
         <v>6820.11</v>
       </c>
       <c r="N35" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P35" t="s">
-        <v>504</v>
+        <v>272</v>
       </c>
       <c r="Q35" t="s">
-        <v>516</v>
+        <v>284</v>
       </c>
       <c r="R35">
         <v>521</v>
       </c>
       <c r="S35" t="s">
-        <v>563</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4385,52 +3708,52 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F36" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H36" t="s">
-        <v>291</v>
-      </c>
-      <c r="I36" t="s">
-        <v>291</v>
-      </c>
-      <c r="J36" t="s">
-        <v>396</v>
+        <v>258</v>
+      </c>
+      <c r="H36">
+        <v>1.008</v>
+      </c>
+      <c r="I36">
+        <v>1.008</v>
+      </c>
+      <c r="J36">
+        <v>6339.69</v>
       </c>
       <c r="K36">
         <v>6390.41</v>
       </c>
-      <c r="L36" t="s">
-        <v>477</v>
+      <c r="L36">
+        <v>9.59</v>
       </c>
       <c r="M36">
         <v>6400</v>
       </c>
       <c r="N36" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P36" t="s">
-        <v>502</v>
+        <v>270</v>
       </c>
       <c r="Q36" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="R36">
         <v>131</v>
       </c>
       <c r="S36" t="s">
-        <v>564</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4444,52 +3767,52 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F37" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G37" t="s">
-        <v>256</v>
-      </c>
-      <c r="H37" t="s">
-        <v>292</v>
-      </c>
-      <c r="I37" t="s">
-        <v>292</v>
-      </c>
-      <c r="J37" t="s">
-        <v>397</v>
+        <v>258</v>
+      </c>
+      <c r="H37">
+        <v>0.7642</v>
+      </c>
+      <c r="I37">
+        <v>0.7642</v>
+      </c>
+      <c r="J37">
+        <v>8364.73</v>
       </c>
       <c r="K37">
         <v>6392.33</v>
       </c>
-      <c r="L37" t="s">
-        <v>476</v>
+      <c r="L37">
+        <v>7.67</v>
       </c>
       <c r="M37">
         <v>6400</v>
       </c>
       <c r="N37" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O37" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P37" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q37" t="s">
-        <v>512</v>
+        <v>280</v>
       </c>
       <c r="R37">
         <v>142</v>
       </c>
       <c r="S37" t="s">
-        <v>565</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4503,52 +3826,52 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G38" t="s">
-        <v>256</v>
-      </c>
-      <c r="H38" t="s">
-        <v>293</v>
-      </c>
-      <c r="I38" t="s">
-        <v>293</v>
-      </c>
-      <c r="J38" t="s">
-        <v>398</v>
+        <v>258</v>
+      </c>
+      <c r="H38">
+        <v>0.8976</v>
+      </c>
+      <c r="I38">
+        <v>0.8976</v>
+      </c>
+      <c r="J38">
+        <v>7121.58</v>
       </c>
       <c r="K38">
         <v>6392.33</v>
       </c>
-      <c r="L38" t="s">
-        <v>476</v>
+      <c r="L38">
+        <v>7.67</v>
       </c>
       <c r="M38">
         <v>6400</v>
       </c>
       <c r="N38" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O38" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P38" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q38" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="R38">
         <v>141</v>
       </c>
       <c r="S38" t="s">
-        <v>566</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4562,52 +3885,52 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G39" t="s">
-        <v>256</v>
-      </c>
-      <c r="H39" t="s">
-        <v>294</v>
-      </c>
-      <c r="I39" t="s">
-        <v>294</v>
-      </c>
-      <c r="J39" t="s">
-        <v>399</v>
+        <v>258</v>
+      </c>
+      <c r="H39">
+        <v>0.8968</v>
+      </c>
+      <c r="I39">
+        <v>0.8968</v>
+      </c>
+      <c r="J39">
+        <v>7127.93</v>
       </c>
       <c r="K39">
         <v>6392.33</v>
       </c>
-      <c r="L39" t="s">
-        <v>476</v>
+      <c r="L39">
+        <v>7.67</v>
       </c>
       <c r="M39">
         <v>6400</v>
       </c>
       <c r="N39" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O39" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P39" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q39" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="R39">
         <v>141</v>
       </c>
       <c r="S39" t="s">
-        <v>567</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -4621,52 +3944,52 @@
         <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G40" t="s">
-        <v>256</v>
-      </c>
-      <c r="H40" t="s">
-        <v>295</v>
-      </c>
-      <c r="I40" t="s">
-        <v>295</v>
-      </c>
-      <c r="J40" t="s">
-        <v>400</v>
+        <v>258</v>
+      </c>
+      <c r="H40">
+        <v>1.0101</v>
+      </c>
+      <c r="I40">
+        <v>1.0101</v>
+      </c>
+      <c r="J40">
+        <v>6329.68</v>
       </c>
       <c r="K40">
         <v>6393.61</v>
       </c>
-      <c r="L40" t="s">
-        <v>475</v>
+      <c r="L40">
+        <v>6.39</v>
       </c>
       <c r="M40">
         <v>6400</v>
       </c>
       <c r="N40" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O40" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P40" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q40" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R40">
         <v>512</v>
       </c>
       <c r="S40" t="s">
-        <v>568</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -4680,52 +4003,52 @@
         <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F41" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G41" t="s">
-        <v>256</v>
-      </c>
-      <c r="H41" t="s">
-        <v>296</v>
-      </c>
-      <c r="I41" t="s">
-        <v>296</v>
-      </c>
-      <c r="J41" t="s">
-        <v>401</v>
+        <v>258</v>
+      </c>
+      <c r="H41">
+        <v>1.713</v>
+      </c>
+      <c r="I41">
+        <v>1.713</v>
+      </c>
+      <c r="J41">
+        <v>3731.66</v>
       </c>
       <c r="K41">
         <v>6392.33</v>
       </c>
-      <c r="L41" t="s">
-        <v>476</v>
+      <c r="L41">
+        <v>7.67</v>
       </c>
       <c r="M41">
         <v>6400</v>
       </c>
       <c r="N41" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O41" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P41" t="s">
-        <v>505</v>
+        <v>273</v>
       </c>
       <c r="Q41" t="s">
-        <v>519</v>
+        <v>287</v>
       </c>
       <c r="R41">
         <v>113</v>
       </c>
       <c r="S41" t="s">
-        <v>569</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -4739,52 +4062,52 @@
         <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F42" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G42" t="s">
-        <v>256</v>
-      </c>
-      <c r="H42" t="s">
-        <v>297</v>
-      </c>
-      <c r="I42" t="s">
-        <v>297</v>
-      </c>
-      <c r="J42" t="s">
-        <v>402</v>
+        <v>258</v>
+      </c>
+      <c r="H42">
+        <v>0.9302</v>
+      </c>
+      <c r="I42">
+        <v>0.9302</v>
+      </c>
+      <c r="J42">
+        <v>6872</v>
       </c>
       <c r="K42">
         <v>6392.33</v>
       </c>
-      <c r="L42" t="s">
-        <v>476</v>
+      <c r="L42">
+        <v>7.67</v>
       </c>
       <c r="M42">
         <v>6400</v>
       </c>
       <c r="N42" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O42" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P42" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q42" t="s">
-        <v>518</v>
+        <v>286</v>
       </c>
       <c r="R42">
         <v>147</v>
       </c>
       <c r="S42" t="s">
-        <v>570</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -4798,52 +4121,52 @@
         <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G43" t="s">
-        <v>256</v>
-      </c>
-      <c r="H43" t="s">
-        <v>298</v>
-      </c>
-      <c r="I43" t="s">
-        <v>298</v>
-      </c>
-      <c r="J43" t="s">
-        <v>403</v>
+        <v>258</v>
+      </c>
+      <c r="H43">
+        <v>0.9113</v>
+      </c>
+      <c r="I43">
+        <v>0.9113</v>
+      </c>
+      <c r="J43">
+        <v>7014.52</v>
       </c>
       <c r="K43">
         <v>6392.33</v>
       </c>
-      <c r="L43" t="s">
-        <v>476</v>
+      <c r="L43">
+        <v>7.67</v>
       </c>
       <c r="M43">
         <v>6400</v>
       </c>
       <c r="N43" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O43" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P43" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q43" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="R43">
         <v>141</v>
       </c>
       <c r="S43" t="s">
-        <v>571</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -4857,52 +4180,52 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G44" t="s">
-        <v>256</v>
-      </c>
-      <c r="H44" t="s">
-        <v>299</v>
-      </c>
-      <c r="I44" t="s">
-        <v>299</v>
-      </c>
-      <c r="J44" t="s">
-        <v>404</v>
+        <v>258</v>
+      </c>
+      <c r="H44">
+        <v>0.699</v>
+      </c>
+      <c r="I44">
+        <v>0.699</v>
+      </c>
+      <c r="J44">
+        <v>9144.959999999999</v>
       </c>
       <c r="K44">
         <v>6392.33</v>
       </c>
-      <c r="L44" t="s">
-        <v>476</v>
+      <c r="L44">
+        <v>7.67</v>
       </c>
       <c r="M44">
         <v>6400</v>
       </c>
       <c r="N44" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O44" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P44" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q44" t="s">
-        <v>512</v>
+        <v>280</v>
       </c>
       <c r="R44">
         <v>142</v>
       </c>
       <c r="S44" t="s">
-        <v>572</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -4916,52 +4239,52 @@
         <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F45" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G45" t="s">
-        <v>256</v>
-      </c>
-      <c r="H45" t="s">
-        <v>300</v>
-      </c>
-      <c r="I45" t="s">
-        <v>300</v>
-      </c>
-      <c r="J45" t="s">
-        <v>405</v>
+        <v>258</v>
+      </c>
+      <c r="H45">
+        <v>0.6951000000000001</v>
+      </c>
+      <c r="I45">
+        <v>0.6951000000000001</v>
+      </c>
+      <c r="J45">
+        <v>9196.27</v>
       </c>
       <c r="K45">
         <v>6392.33</v>
       </c>
-      <c r="L45" t="s">
-        <v>476</v>
+      <c r="L45">
+        <v>7.67</v>
       </c>
       <c r="M45">
         <v>6400</v>
       </c>
       <c r="N45" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O45" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P45" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q45" t="s">
-        <v>512</v>
+        <v>280</v>
       </c>
       <c r="R45">
         <v>142</v>
       </c>
       <c r="S45" t="s">
-        <v>573</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -4975,52 +4298,52 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G46" t="s">
-        <v>256</v>
-      </c>
-      <c r="H46" t="s">
-        <v>301</v>
-      </c>
-      <c r="I46" t="s">
-        <v>301</v>
-      </c>
-      <c r="J46" t="s">
-        <v>406</v>
+        <v>258</v>
+      </c>
+      <c r="H46">
+        <v>0.4769</v>
+      </c>
+      <c r="I46">
+        <v>0.4769</v>
+      </c>
+      <c r="J46">
+        <v>13403.92</v>
       </c>
       <c r="K46">
         <v>6392.33</v>
       </c>
-      <c r="L46" t="s">
-        <v>476</v>
+      <c r="L46">
+        <v>7.67</v>
       </c>
       <c r="M46">
         <v>6400</v>
       </c>
       <c r="N46" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O46" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P46" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q46" t="s">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="R46">
         <v>143</v>
       </c>
       <c r="S46" t="s">
-        <v>574</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -5034,52 +4357,52 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F47" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G47" t="s">
-        <v>257</v>
-      </c>
-      <c r="H47" t="s">
-        <v>302</v>
-      </c>
-      <c r="I47" t="s">
-        <v>302</v>
-      </c>
-      <c r="J47" t="s">
-        <v>395</v>
+        <v>259</v>
+      </c>
+      <c r="H47">
+        <v>1.257</v>
+      </c>
+      <c r="I47">
+        <v>1.257</v>
+      </c>
+      <c r="J47">
+        <v>5451.73</v>
       </c>
       <c r="K47">
         <v>6852.82</v>
       </c>
-      <c r="L47" t="s">
-        <v>457</v>
+      <c r="L47">
+        <v>0</v>
       </c>
       <c r="M47">
         <v>6852.82</v>
       </c>
       <c r="N47" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O47" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P47" t="s">
-        <v>504</v>
+        <v>272</v>
       </c>
       <c r="Q47" t="s">
-        <v>516</v>
+        <v>284</v>
       </c>
       <c r="R47">
         <v>521</v>
       </c>
       <c r="S47" t="s">
-        <v>575</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -5093,52 +4416,52 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H48" t="s">
-        <v>303</v>
-      </c>
-      <c r="I48" t="s">
-        <v>303</v>
-      </c>
-      <c r="J48" t="s">
-        <v>407</v>
+        <v>258</v>
+      </c>
+      <c r="H48">
+        <v>0.958</v>
+      </c>
+      <c r="I48">
+        <v>0.958</v>
+      </c>
+      <c r="J48">
+        <v>6670.57</v>
       </c>
       <c r="K48">
         <v>6390.41</v>
       </c>
-      <c r="L48" t="s">
-        <v>477</v>
+      <c r="L48">
+        <v>9.59</v>
       </c>
       <c r="M48">
         <v>6400</v>
       </c>
       <c r="N48" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O48" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P48" t="s">
-        <v>502</v>
+        <v>270</v>
       </c>
       <c r="Q48" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="R48">
         <v>131</v>
       </c>
       <c r="S48" t="s">
-        <v>576</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -5152,52 +4475,52 @@
         <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F49" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G49" t="s">
-        <v>256</v>
-      </c>
-      <c r="H49" t="s">
-        <v>304</v>
-      </c>
-      <c r="I49" t="s">
-        <v>304</v>
-      </c>
-      <c r="J49" t="s">
-        <v>408</v>
+        <v>258</v>
+      </c>
+      <c r="H49">
+        <v>1.565</v>
+      </c>
+      <c r="I49">
+        <v>1.565</v>
+      </c>
+      <c r="J49">
+        <v>4084.56</v>
       </c>
       <c r="K49">
         <v>6392.33</v>
       </c>
-      <c r="L49" t="s">
-        <v>476</v>
+      <c r="L49">
+        <v>7.67</v>
       </c>
       <c r="M49">
         <v>6400</v>
       </c>
       <c r="N49" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O49" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P49" t="s">
-        <v>505</v>
+        <v>273</v>
       </c>
       <c r="Q49" t="s">
-        <v>519</v>
+        <v>287</v>
       </c>
       <c r="R49">
         <v>113</v>
       </c>
       <c r="S49" t="s">
-        <v>577</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -5211,52 +4534,52 @@
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F50" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G50" t="s">
-        <v>256</v>
-      </c>
-      <c r="H50" t="s">
-        <v>305</v>
-      </c>
-      <c r="I50" t="s">
-        <v>305</v>
-      </c>
-      <c r="J50" t="s">
-        <v>409</v>
+        <v>258</v>
+      </c>
+      <c r="H50">
+        <v>0.8037</v>
+      </c>
+      <c r="I50">
+        <v>0.8037</v>
+      </c>
+      <c r="J50">
+        <v>7953.63</v>
       </c>
       <c r="K50">
         <v>6392.33</v>
       </c>
-      <c r="L50" t="s">
-        <v>476</v>
+      <c r="L50">
+        <v>7.67</v>
       </c>
       <c r="M50">
         <v>6400</v>
       </c>
       <c r="N50" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O50" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P50" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q50" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="R50">
         <v>141</v>
       </c>
       <c r="S50" t="s">
-        <v>578</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -5270,52 +4593,52 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G51" t="s">
-        <v>256</v>
-      </c>
-      <c r="H51" t="s">
-        <v>296</v>
-      </c>
-      <c r="I51" t="s">
-        <v>296</v>
-      </c>
-      <c r="J51" t="s">
-        <v>410</v>
+        <v>258</v>
+      </c>
+      <c r="H51">
+        <v>1.713</v>
+      </c>
+      <c r="I51">
+        <v>1.713</v>
+      </c>
+      <c r="J51">
+        <v>3730.54</v>
       </c>
       <c r="K51">
         <v>6390.41</v>
       </c>
-      <c r="L51" t="s">
-        <v>477</v>
+      <c r="L51">
+        <v>9.59</v>
       </c>
       <c r="M51">
         <v>6400</v>
       </c>
       <c r="N51" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O51" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P51" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q51" t="s">
-        <v>509</v>
+        <v>277</v>
       </c>
       <c r="R51">
         <v>148</v>
       </c>
       <c r="S51" t="s">
-        <v>579</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -5329,52 +4652,52 @@
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G52" t="s">
-        <v>256</v>
-      </c>
-      <c r="H52" t="s">
-        <v>306</v>
-      </c>
-      <c r="I52" t="s">
-        <v>306</v>
-      </c>
-      <c r="J52" t="s">
-        <v>411</v>
+        <v>258</v>
+      </c>
+      <c r="H52">
+        <v>0.9808</v>
+      </c>
+      <c r="I52">
+        <v>0.9808</v>
+      </c>
+      <c r="J52">
+        <v>6518.77</v>
       </c>
       <c r="K52">
         <v>6393.61</v>
       </c>
-      <c r="L52" t="s">
-        <v>475</v>
+      <c r="L52">
+        <v>6.39</v>
       </c>
       <c r="M52">
         <v>6400</v>
       </c>
       <c r="N52" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O52" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P52" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q52" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R52">
         <v>512</v>
       </c>
       <c r="S52" t="s">
-        <v>580</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -5388,52 +4711,52 @@
         <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G53" t="s">
-        <v>256</v>
-      </c>
-      <c r="H53" t="s">
-        <v>307</v>
-      </c>
-      <c r="I53" t="s">
-        <v>307</v>
-      </c>
-      <c r="J53" t="s">
-        <v>412</v>
+        <v>258</v>
+      </c>
+      <c r="H53">
+        <v>1.3342</v>
+      </c>
+      <c r="I53">
+        <v>1.3342</v>
+      </c>
+      <c r="J53">
+        <v>4791.13</v>
       </c>
       <c r="K53">
         <v>6392.33</v>
       </c>
-      <c r="L53" t="s">
-        <v>476</v>
+      <c r="L53">
+        <v>7.67</v>
       </c>
       <c r="M53">
         <v>6400</v>
       </c>
       <c r="N53" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O53" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P53" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q53" t="s">
-        <v>521</v>
+        <v>289</v>
       </c>
       <c r="R53">
         <v>124</v>
       </c>
       <c r="S53" t="s">
-        <v>581</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -5447,52 +4770,52 @@
         <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G54" t="s">
-        <v>256</v>
-      </c>
-      <c r="H54" t="s">
-        <v>308</v>
-      </c>
-      <c r="I54" t="s">
-        <v>308</v>
-      </c>
-      <c r="J54" t="s">
-        <v>413</v>
+        <v>258</v>
+      </c>
+      <c r="H54">
+        <v>1.636</v>
+      </c>
+      <c r="I54">
+        <v>1.636</v>
+      </c>
+      <c r="J54">
+        <v>3906.12</v>
       </c>
       <c r="K54">
         <v>6390.41</v>
       </c>
-      <c r="L54" t="s">
-        <v>477</v>
+      <c r="L54">
+        <v>9.59</v>
       </c>
       <c r="M54">
         <v>6400</v>
       </c>
       <c r="N54" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O54" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P54" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q54" t="s">
-        <v>522</v>
+        <v>290</v>
       </c>
       <c r="R54">
         <v>121</v>
       </c>
       <c r="S54" t="s">
-        <v>582</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -5506,52 +4829,52 @@
         <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F55" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G55" t="s">
-        <v>256</v>
-      </c>
-      <c r="H55" t="s">
-        <v>309</v>
-      </c>
-      <c r="I55" t="s">
-        <v>309</v>
-      </c>
-      <c r="J55" t="s">
-        <v>414</v>
+        <v>258</v>
+      </c>
+      <c r="H55">
+        <v>0.992</v>
+      </c>
+      <c r="I55">
+        <v>0.992</v>
+      </c>
+      <c r="J55">
+        <v>6441.95</v>
       </c>
       <c r="K55">
         <v>6390.41</v>
       </c>
-      <c r="L55" t="s">
-        <v>477</v>
+      <c r="L55">
+        <v>9.59</v>
       </c>
       <c r="M55">
         <v>6400</v>
       </c>
       <c r="N55" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O55" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P55" t="s">
-        <v>502</v>
+        <v>270</v>
       </c>
       <c r="Q55" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="R55">
         <v>131</v>
       </c>
       <c r="S55" t="s">
-        <v>583</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -5565,52 +4888,52 @@
         <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F56" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G56" t="s">
-        <v>256</v>
-      </c>
-      <c r="H56" t="s">
-        <v>310</v>
-      </c>
-      <c r="I56" t="s">
-        <v>310</v>
-      </c>
-      <c r="J56" t="s">
-        <v>415</v>
+        <v>258</v>
+      </c>
+      <c r="H56">
+        <v>1.158</v>
+      </c>
+      <c r="I56">
+        <v>1.158</v>
+      </c>
+      <c r="J56">
+        <v>11040.29</v>
       </c>
       <c r="K56">
         <v>12784.66</v>
       </c>
-      <c r="L56" t="s">
-        <v>480</v>
+      <c r="L56">
+        <v>15.34</v>
       </c>
       <c r="M56">
         <v>12800</v>
       </c>
       <c r="N56" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O56" t="s">
-        <v>497</v>
+        <v>265</v>
       </c>
       <c r="P56" t="s">
-        <v>507</v>
+        <v>275</v>
       </c>
       <c r="Q56" t="s">
-        <v>523</v>
+        <v>291</v>
       </c>
       <c r="R56">
         <v>221</v>
       </c>
       <c r="S56" t="s">
-        <v>584</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -5624,52 +4947,52 @@
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G57" t="s">
-        <v>258</v>
-      </c>
-      <c r="H57" t="s">
-        <v>311</v>
-      </c>
-      <c r="I57" t="s">
-        <v>311</v>
-      </c>
-      <c r="J57" t="s">
-        <v>416</v>
+        <v>260</v>
+      </c>
+      <c r="H57">
+        <v>1.461</v>
+      </c>
+      <c r="I57">
+        <v>1.461</v>
+      </c>
+      <c r="J57">
+        <v>855.99</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
-      <c r="L57" t="s">
-        <v>457</v>
+      <c r="L57">
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O57" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P57" t="s">
-        <v>505</v>
+        <v>273</v>
       </c>
       <c r="Q57" t="s">
-        <v>519</v>
+        <v>287</v>
       </c>
       <c r="R57">
         <v>113</v>
       </c>
       <c r="S57" t="s">
-        <v>585</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -5683,52 +5006,52 @@
         <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>258</v>
-      </c>
-      <c r="H58" t="s">
-        <v>312</v>
-      </c>
-      <c r="I58" t="s">
-        <v>312</v>
-      </c>
-      <c r="J58" t="s">
-        <v>417</v>
+        <v>260</v>
+      </c>
+      <c r="H58">
+        <v>1.591</v>
+      </c>
+      <c r="I58">
+        <v>1.591</v>
+      </c>
+      <c r="J58">
+        <v>441.92</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="L58" t="s">
-        <v>457</v>
+      <c r="L58">
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O58" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P58" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q58" t="s">
-        <v>522</v>
+        <v>290</v>
       </c>
       <c r="R58">
         <v>121</v>
       </c>
       <c r="S58" t="s">
-        <v>586</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -5742,52 +5065,52 @@
         <v>53</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F59" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G59" t="s">
-        <v>256</v>
-      </c>
-      <c r="H59" t="s">
-        <v>313</v>
-      </c>
-      <c r="I59" t="s">
-        <v>313</v>
-      </c>
-      <c r="J59" t="s">
-        <v>418</v>
+        <v>258</v>
+      </c>
+      <c r="H59">
+        <v>1.518</v>
+      </c>
+      <c r="I59">
+        <v>1.518</v>
+      </c>
+      <c r="J59">
+        <v>4209.76</v>
       </c>
       <c r="K59">
         <v>6390.41</v>
       </c>
-      <c r="L59" t="s">
-        <v>477</v>
+      <c r="L59">
+        <v>9.59</v>
       </c>
       <c r="M59">
         <v>6400</v>
       </c>
       <c r="N59" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O59" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P59" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q59" t="s">
-        <v>522</v>
+        <v>290</v>
       </c>
       <c r="R59">
         <v>121</v>
       </c>
       <c r="S59" t="s">
-        <v>587</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -5801,52 +5124,52 @@
         <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F60" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>256</v>
-      </c>
-      <c r="H60" t="s">
-        <v>314</v>
-      </c>
-      <c r="I60" t="s">
-        <v>314</v>
-      </c>
-      <c r="J60" t="s">
-        <v>419</v>
+        <v>258</v>
+      </c>
+      <c r="H60">
+        <v>1.4502</v>
+      </c>
+      <c r="I60">
+        <v>1.4502</v>
+      </c>
+      <c r="J60">
+        <v>4407.9</v>
       </c>
       <c r="K60">
         <v>6392.33</v>
       </c>
-      <c r="L60" t="s">
-        <v>476</v>
+      <c r="L60">
+        <v>7.67</v>
       </c>
       <c r="M60">
         <v>6400</v>
       </c>
       <c r="N60" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O60" t="s">
-        <v>497</v>
+        <v>265</v>
       </c>
       <c r="P60" t="s">
-        <v>508</v>
+        <v>276</v>
       </c>
       <c r="Q60" t="s">
-        <v>524</v>
+        <v>292</v>
       </c>
       <c r="R60">
         <v>211</v>
       </c>
       <c r="S60" t="s">
-        <v>588</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -5860,52 +5183,52 @@
         <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F61" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>256</v>
-      </c>
-      <c r="H61" t="s">
-        <v>315</v>
-      </c>
-      <c r="I61" t="s">
-        <v>315</v>
-      </c>
-      <c r="J61" t="s">
-        <v>420</v>
+        <v>258</v>
+      </c>
+      <c r="H61">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="I61">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J61">
+        <v>11270.56</v>
       </c>
       <c r="K61">
         <v>6390.41</v>
       </c>
-      <c r="L61" t="s">
-        <v>477</v>
+      <c r="L61">
+        <v>9.59</v>
       </c>
       <c r="M61">
         <v>6400</v>
       </c>
       <c r="N61" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O61" t="s">
-        <v>498</v>
+        <v>266</v>
       </c>
       <c r="P61" t="s">
-        <v>498</v>
+        <v>266</v>
       </c>
       <c r="Q61" t="s">
-        <v>525</v>
+        <v>293</v>
       </c>
       <c r="R61">
         <v>613</v>
       </c>
       <c r="S61" t="s">
-        <v>589</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -5919,52 +5242,52 @@
         <v>53</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E62" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F62" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G62" t="s">
-        <v>256</v>
-      </c>
-      <c r="H62" t="s">
-        <v>316</v>
-      </c>
-      <c r="I62" t="s">
-        <v>316</v>
-      </c>
-      <c r="J62" t="s">
-        <v>421</v>
+        <v>258</v>
+      </c>
+      <c r="H62">
+        <v>1.0041</v>
+      </c>
+      <c r="I62">
+        <v>1.0041</v>
+      </c>
+      <c r="J62">
+        <v>6367.5</v>
       </c>
       <c r="K62">
         <v>6393.61</v>
       </c>
-      <c r="L62" t="s">
-        <v>475</v>
+      <c r="L62">
+        <v>6.39</v>
       </c>
       <c r="M62">
         <v>6400</v>
       </c>
       <c r="N62" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O62" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P62" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q62" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R62">
         <v>512</v>
       </c>
       <c r="S62" t="s">
-        <v>590</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -5978,52 +5301,52 @@
         <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G63" t="s">
-        <v>256</v>
-      </c>
-      <c r="H63" t="s">
-        <v>317</v>
-      </c>
-      <c r="I63" t="s">
-        <v>317</v>
-      </c>
-      <c r="J63" t="s">
-        <v>422</v>
+        <v>258</v>
+      </c>
+      <c r="H63">
+        <v>1.079</v>
+      </c>
+      <c r="I63">
+        <v>1.079</v>
+      </c>
+      <c r="J63">
+        <v>5924.31</v>
       </c>
       <c r="K63">
         <v>6392.33</v>
       </c>
-      <c r="L63" t="s">
-        <v>476</v>
+      <c r="L63">
+        <v>7.67</v>
       </c>
       <c r="M63">
         <v>6400</v>
       </c>
       <c r="N63" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O63" t="s">
-        <v>495</v>
+        <v>263</v>
       </c>
       <c r="P63" t="s">
-        <v>501</v>
+        <v>269</v>
       </c>
       <c r="Q63" t="s">
-        <v>511</v>
+        <v>279</v>
       </c>
       <c r="R63">
         <v>321</v>
       </c>
       <c r="S63" t="s">
-        <v>591</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -6037,52 +5360,52 @@
         <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F64" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G64" t="s">
-        <v>257</v>
-      </c>
-      <c r="H64" t="s">
-        <v>318</v>
-      </c>
-      <c r="I64" t="s">
-        <v>318</v>
-      </c>
-      <c r="J64" t="s">
-        <v>423</v>
+        <v>259</v>
+      </c>
+      <c r="H64">
+        <v>1.0285</v>
+      </c>
+      <c r="I64">
+        <v>1.0285</v>
+      </c>
+      <c r="J64">
+        <v>4205.6</v>
       </c>
       <c r="K64">
         <v>4323.3</v>
       </c>
-      <c r="L64" t="s">
-        <v>481</v>
+      <c r="L64">
+        <v>2.16</v>
       </c>
       <c r="M64">
         <v>4321.14</v>
       </c>
       <c r="N64" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O64" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P64" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q64" t="s">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="R64">
         <v>511</v>
       </c>
       <c r="S64" t="s">
-        <v>592</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -6096,52 +5419,52 @@
         <v>54</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F65" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G65" t="s">
-        <v>256</v>
-      </c>
-      <c r="H65" t="s">
-        <v>303</v>
-      </c>
-      <c r="I65" t="s">
-        <v>303</v>
-      </c>
-      <c r="J65" t="s">
-        <v>407</v>
+        <v>258</v>
+      </c>
+      <c r="H65">
+        <v>0.958</v>
+      </c>
+      <c r="I65">
+        <v>0.958</v>
+      </c>
+      <c r="J65">
+        <v>6670.57</v>
       </c>
       <c r="K65">
         <v>6390.41</v>
       </c>
-      <c r="L65" t="s">
-        <v>477</v>
+      <c r="L65">
+        <v>9.59</v>
       </c>
       <c r="M65">
         <v>6400</v>
       </c>
       <c r="N65" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O65" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P65" t="s">
-        <v>502</v>
+        <v>270</v>
       </c>
       <c r="Q65" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="R65">
         <v>131</v>
       </c>
       <c r="S65" t="s">
-        <v>593</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -6155,52 +5478,52 @@
         <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G66" t="s">
-        <v>256</v>
-      </c>
-      <c r="H66" t="s">
-        <v>319</v>
-      </c>
-      <c r="I66" t="s">
-        <v>319</v>
-      </c>
-      <c r="J66" t="s">
-        <v>424</v>
+        <v>258</v>
+      </c>
+      <c r="H66">
+        <v>0.8126</v>
+      </c>
+      <c r="I66">
+        <v>0.8126</v>
+      </c>
+      <c r="J66">
+        <v>7866.51</v>
       </c>
       <c r="K66">
         <v>6392.33</v>
       </c>
-      <c r="L66" t="s">
-        <v>476</v>
+      <c r="L66">
+        <v>7.67</v>
       </c>
       <c r="M66">
         <v>6400</v>
       </c>
       <c r="N66" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O66" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P66" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q66" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="R66">
         <v>141</v>
       </c>
       <c r="S66" t="s">
-        <v>594</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -6214,52 +5537,52 @@
         <v>54</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F67" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G67" t="s">
-        <v>256</v>
-      </c>
-      <c r="H67" t="s">
-        <v>320</v>
-      </c>
-      <c r="I67" t="s">
-        <v>320</v>
-      </c>
-      <c r="J67" t="s">
-        <v>425</v>
+        <v>258</v>
+      </c>
+      <c r="H67">
+        <v>0.467</v>
+      </c>
+      <c r="I67">
+        <v>0.467</v>
+      </c>
+      <c r="J67">
+        <v>13683.96</v>
       </c>
       <c r="K67">
         <v>6390.41</v>
       </c>
-      <c r="L67" t="s">
-        <v>477</v>
+      <c r="L67">
+        <v>9.59</v>
       </c>
       <c r="M67">
         <v>6400</v>
       </c>
       <c r="N67" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O67" t="s">
-        <v>498</v>
+        <v>266</v>
       </c>
       <c r="P67" t="s">
-        <v>498</v>
+        <v>266</v>
       </c>
       <c r="Q67" t="s">
-        <v>525</v>
+        <v>293</v>
       </c>
       <c r="R67">
         <v>613</v>
       </c>
       <c r="S67" t="s">
-        <v>595</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -6273,52 +5596,52 @@
         <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F68" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G68" t="s">
-        <v>256</v>
-      </c>
-      <c r="H68" t="s">
-        <v>321</v>
-      </c>
-      <c r="I68" t="s">
-        <v>321</v>
-      </c>
-      <c r="J68" t="s">
-        <v>426</v>
+        <v>258</v>
+      </c>
+      <c r="H68">
+        <v>1.2001</v>
+      </c>
+      <c r="I68">
+        <v>1.2001</v>
+      </c>
+      <c r="J68">
+        <v>5328.62</v>
       </c>
       <c r="K68">
         <v>6394.88</v>
       </c>
-      <c r="L68" t="s">
-        <v>482</v>
+      <c r="L68">
+        <v>5.12</v>
       </c>
       <c r="M68">
         <v>6400</v>
       </c>
       <c r="N68" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O68" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P68" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q68" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R68">
         <v>512</v>
       </c>
       <c r="S68" t="s">
-        <v>596</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -6332,52 +5655,52 @@
         <v>55</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F69" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G69" t="s">
-        <v>257</v>
-      </c>
-      <c r="H69" t="s">
-        <v>322</v>
-      </c>
-      <c r="I69" t="s">
-        <v>322</v>
-      </c>
-      <c r="J69" t="s">
-        <v>395</v>
+        <v>259</v>
+      </c>
+      <c r="H69">
+        <v>1.244</v>
+      </c>
+      <c r="I69">
+        <v>1.244</v>
+      </c>
+      <c r="J69">
+        <v>5451.73</v>
       </c>
       <c r="K69">
         <v>6781.95</v>
       </c>
-      <c r="L69" t="s">
-        <v>457</v>
+      <c r="L69">
+        <v>0</v>
       </c>
       <c r="M69">
         <v>6781.95</v>
       </c>
       <c r="N69" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O69" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P69" t="s">
-        <v>504</v>
+        <v>272</v>
       </c>
       <c r="Q69" t="s">
-        <v>516</v>
+        <v>284</v>
       </c>
       <c r="R69">
         <v>521</v>
       </c>
       <c r="S69" t="s">
-        <v>597</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -6391,52 +5714,52 @@
         <v>56</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F70" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G70" t="s">
-        <v>256</v>
-      </c>
-      <c r="H70" t="s">
-        <v>323</v>
-      </c>
-      <c r="I70" t="s">
-        <v>323</v>
-      </c>
-      <c r="J70" t="s">
-        <v>427</v>
+        <v>258</v>
+      </c>
+      <c r="H70">
+        <v>1.46</v>
+      </c>
+      <c r="I70">
+        <v>1.46</v>
+      </c>
+      <c r="J70">
+        <v>4378.31</v>
       </c>
       <c r="K70">
         <v>6392.33</v>
       </c>
-      <c r="L70" t="s">
-        <v>476</v>
+      <c r="L70">
+        <v>7.67</v>
       </c>
       <c r="M70">
         <v>6400</v>
       </c>
       <c r="N70" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O70" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P70" t="s">
-        <v>505</v>
+        <v>273</v>
       </c>
       <c r="Q70" t="s">
-        <v>519</v>
+        <v>287</v>
       </c>
       <c r="R70">
         <v>113</v>
       </c>
       <c r="S70" t="s">
-        <v>598</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -6450,52 +5773,52 @@
         <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G71" t="s">
-        <v>256</v>
-      </c>
-      <c r="H71" t="s">
-        <v>324</v>
-      </c>
-      <c r="I71" t="s">
-        <v>324</v>
-      </c>
-      <c r="J71" t="s">
-        <v>428</v>
+        <v>258</v>
+      </c>
+      <c r="H71">
+        <v>1.554</v>
+      </c>
+      <c r="I71">
+        <v>1.554</v>
+      </c>
+      <c r="J71">
+        <v>4115.11</v>
       </c>
       <c r="K71">
         <v>6394.88</v>
       </c>
-      <c r="L71" t="s">
-        <v>482</v>
+      <c r="L71">
+        <v>5.12</v>
       </c>
       <c r="M71">
         <v>6400</v>
       </c>
       <c r="N71" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O71" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P71" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q71" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R71">
         <v>512</v>
       </c>
       <c r="S71" t="s">
-        <v>599</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -6509,52 +5832,52 @@
         <v>57</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E72" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G72" t="s">
-        <v>256</v>
-      </c>
-      <c r="H72" t="s">
-        <v>325</v>
-      </c>
-      <c r="I72" t="s">
-        <v>325</v>
-      </c>
-      <c r="J72" t="s">
-        <v>429</v>
+        <v>258</v>
+      </c>
+      <c r="H72">
+        <v>1.052</v>
+      </c>
+      <c r="I72">
+        <v>1.052</v>
+      </c>
+      <c r="J72">
+        <v>6076.36</v>
       </c>
       <c r="K72">
         <v>6392.33</v>
       </c>
-      <c r="L72" t="s">
-        <v>476</v>
+      <c r="L72">
+        <v>7.67</v>
       </c>
       <c r="M72">
         <v>6400</v>
       </c>
       <c r="N72" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O72" t="s">
-        <v>495</v>
+        <v>263</v>
       </c>
       <c r="P72" t="s">
-        <v>501</v>
+        <v>269</v>
       </c>
       <c r="Q72" t="s">
-        <v>511</v>
+        <v>279</v>
       </c>
       <c r="R72">
         <v>321</v>
       </c>
       <c r="S72" t="s">
-        <v>600</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -6568,52 +5891,52 @@
         <v>57</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F73" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G73" t="s">
-        <v>256</v>
-      </c>
-      <c r="H73" t="s">
-        <v>326</v>
-      </c>
-      <c r="I73" t="s">
-        <v>326</v>
-      </c>
-      <c r="J73" t="s">
-        <v>430</v>
+        <v>258</v>
+      </c>
+      <c r="H73">
+        <v>0.519</v>
+      </c>
+      <c r="I73">
+        <v>0.519</v>
+      </c>
+      <c r="J73">
+        <v>12312.93</v>
       </c>
       <c r="K73">
         <v>6390.41</v>
       </c>
-      <c r="L73" t="s">
-        <v>477</v>
+      <c r="L73">
+        <v>9.59</v>
       </c>
       <c r="M73">
         <v>6400</v>
       </c>
       <c r="N73" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O73" t="s">
-        <v>498</v>
+        <v>266</v>
       </c>
       <c r="P73" t="s">
-        <v>498</v>
+        <v>266</v>
       </c>
       <c r="Q73" t="s">
-        <v>525</v>
+        <v>293</v>
       </c>
       <c r="R73">
         <v>613</v>
       </c>
       <c r="S73" t="s">
-        <v>601</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -6627,52 +5950,52 @@
         <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F74" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G74" t="s">
-        <v>258</v>
-      </c>
-      <c r="H74" t="s">
-        <v>327</v>
-      </c>
-      <c r="I74" t="s">
-        <v>327</v>
-      </c>
-      <c r="J74" t="s">
-        <v>431</v>
+        <v>260</v>
+      </c>
+      <c r="H74">
+        <v>1.649</v>
+      </c>
+      <c r="I74">
+        <v>1.649</v>
+      </c>
+      <c r="J74">
+        <v>87.34</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
-      <c r="L74" t="s">
-        <v>457</v>
+      <c r="L74">
+        <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O74" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P74" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q74" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R74">
         <v>512</v>
       </c>
       <c r="S74" t="s">
-        <v>602</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -6686,52 +6009,52 @@
         <v>59</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G75" t="s">
-        <v>256</v>
-      </c>
-      <c r="H75" t="s">
-        <v>328</v>
-      </c>
-      <c r="I75" t="s">
-        <v>328</v>
-      </c>
-      <c r="J75" t="s">
-        <v>432</v>
+        <v>258</v>
+      </c>
+      <c r="H75">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="I75">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="J75">
+        <v>7852.99</v>
       </c>
       <c r="K75">
         <v>6392.33</v>
       </c>
-      <c r="L75" t="s">
-        <v>476</v>
+      <c r="L75">
+        <v>7.67</v>
       </c>
       <c r="M75">
         <v>6400</v>
       </c>
       <c r="N75" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O75" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P75" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q75" t="s">
-        <v>526</v>
+        <v>294</v>
       </c>
       <c r="R75">
         <v>144</v>
       </c>
       <c r="S75" t="s">
-        <v>603</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -6745,52 +6068,52 @@
         <v>60</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G76" t="s">
-        <v>257</v>
-      </c>
-      <c r="H76" t="s">
-        <v>329</v>
-      </c>
-      <c r="I76" t="s">
-        <v>329</v>
-      </c>
-      <c r="J76" t="s">
-        <v>410</v>
+        <v>259</v>
+      </c>
+      <c r="H76">
+        <v>2.678</v>
+      </c>
+      <c r="I76">
+        <v>2.678</v>
+      </c>
+      <c r="J76">
+        <v>3730.54</v>
       </c>
       <c r="K76">
         <v>9940.440000000001</v>
       </c>
-      <c r="L76" t="s">
-        <v>483</v>
+      <c r="L76">
+        <v>49.95</v>
       </c>
       <c r="M76">
         <v>9890.49</v>
       </c>
       <c r="N76" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O76" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P76" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q76" t="s">
-        <v>509</v>
+        <v>277</v>
       </c>
       <c r="R76">
         <v>148</v>
       </c>
       <c r="S76" t="s">
-        <v>604</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -6804,52 +6127,52 @@
         <v>60</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G77" t="s">
-        <v>256</v>
-      </c>
-      <c r="H77" t="s">
-        <v>330</v>
-      </c>
-      <c r="I77" t="s">
-        <v>330</v>
-      </c>
-      <c r="J77" t="s">
-        <v>433</v>
+        <v>258</v>
+      </c>
+      <c r="H77">
+        <v>1.622</v>
+      </c>
+      <c r="I77">
+        <v>1.622</v>
+      </c>
+      <c r="J77">
+        <v>3942.59</v>
       </c>
       <c r="K77">
         <v>6394.88</v>
       </c>
-      <c r="L77" t="s">
-        <v>482</v>
+      <c r="L77">
+        <v>5.12</v>
       </c>
       <c r="M77">
         <v>6400</v>
       </c>
       <c r="N77" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O77" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P77" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q77" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R77">
         <v>512</v>
       </c>
       <c r="S77" t="s">
-        <v>605</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -6863,52 +6186,52 @@
         <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G78" t="s">
-        <v>256</v>
-      </c>
-      <c r="H78" t="s">
-        <v>331</v>
-      </c>
-      <c r="I78" t="s">
-        <v>331</v>
-      </c>
-      <c r="J78" t="s">
-        <v>434</v>
+        <v>258</v>
+      </c>
+      <c r="H78">
+        <v>1.114</v>
+      </c>
+      <c r="I78">
+        <v>1.114</v>
+      </c>
+      <c r="J78">
+        <v>5738.18</v>
       </c>
       <c r="K78">
         <v>6392.33</v>
       </c>
-      <c r="L78" t="s">
-        <v>476</v>
+      <c r="L78">
+        <v>7.67</v>
       </c>
       <c r="M78">
         <v>6400</v>
       </c>
       <c r="N78" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O78" t="s">
-        <v>497</v>
+        <v>265</v>
       </c>
       <c r="P78" t="s">
-        <v>507</v>
+        <v>275</v>
       </c>
       <c r="Q78" t="s">
-        <v>523</v>
+        <v>291</v>
       </c>
       <c r="R78">
         <v>221</v>
       </c>
       <c r="S78" t="s">
-        <v>606</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -6922,52 +6245,52 @@
         <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F79" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G79" t="s">
-        <v>256</v>
-      </c>
-      <c r="H79" t="s">
-        <v>332</v>
-      </c>
-      <c r="I79" t="s">
-        <v>332</v>
-      </c>
-      <c r="J79" t="s">
-        <v>435</v>
+        <v>258</v>
+      </c>
+      <c r="H79">
+        <v>1.594</v>
+      </c>
+      <c r="I79">
+        <v>1.594</v>
+      </c>
+      <c r="J79">
+        <v>4011.84</v>
       </c>
       <c r="K79">
         <v>6394.88</v>
       </c>
-      <c r="L79" t="s">
-        <v>482</v>
+      <c r="L79">
+        <v>5.12</v>
       </c>
       <c r="M79">
         <v>6400</v>
       </c>
       <c r="N79" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O79" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P79" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q79" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R79">
         <v>512</v>
       </c>
       <c r="S79" t="s">
-        <v>607</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -6981,52 +6304,52 @@
         <v>62</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F80" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G80" t="s">
-        <v>256</v>
-      </c>
-      <c r="H80" t="s">
-        <v>333</v>
-      </c>
-      <c r="I80" t="s">
-        <v>333</v>
-      </c>
-      <c r="J80" t="s">
-        <v>436</v>
+        <v>258</v>
+      </c>
+      <c r="H80">
+        <v>1.582</v>
+      </c>
+      <c r="I80">
+        <v>1.582</v>
+      </c>
+      <c r="J80">
+        <v>4042.28</v>
       </c>
       <c r="K80">
         <v>6394.88</v>
       </c>
-      <c r="L80" t="s">
-        <v>482</v>
+      <c r="L80">
+        <v>5.12</v>
       </c>
       <c r="M80">
         <v>6400</v>
       </c>
       <c r="N80" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O80" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P80" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q80" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R80">
         <v>512</v>
       </c>
       <c r="S80" t="s">
-        <v>608</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -7040,52 +6363,52 @@
         <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F81" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G81" t="s">
-        <v>258</v>
-      </c>
-      <c r="H81" t="s">
-        <v>334</v>
-      </c>
-      <c r="I81" t="s">
-        <v>334</v>
-      </c>
-      <c r="J81" t="s">
-        <v>437</v>
+        <v>260</v>
+      </c>
+      <c r="H81">
+        <v>1.0794</v>
+      </c>
+      <c r="I81">
+        <v>1.0794</v>
+      </c>
+      <c r="J81">
+        <v>617.75</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
-      <c r="L81" t="s">
-        <v>457</v>
+      <c r="L81">
+        <v>0</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O81" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P81" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q81" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R81">
         <v>512</v>
       </c>
       <c r="S81" t="s">
-        <v>609</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -7099,52 +6422,52 @@
         <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G82" t="s">
-        <v>258</v>
-      </c>
-      <c r="H82" t="s">
-        <v>335</v>
-      </c>
-      <c r="I82" t="s">
-        <v>335</v>
-      </c>
-      <c r="J82" t="s">
-        <v>438</v>
+        <v>260</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>158.04</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
-      <c r="L82" t="s">
-        <v>457</v>
+      <c r="L82">
+        <v>0</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O82" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P82" t="s">
-        <v>504</v>
+        <v>272</v>
       </c>
       <c r="Q82" t="s">
-        <v>516</v>
+        <v>284</v>
       </c>
       <c r="R82">
         <v>521</v>
       </c>
       <c r="S82" t="s">
-        <v>610</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -7158,52 +6481,52 @@
         <v>65</v>
       </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G83" t="s">
-        <v>256</v>
-      </c>
-      <c r="H83" t="s">
-        <v>336</v>
-      </c>
-      <c r="I83" t="s">
-        <v>336</v>
-      </c>
-      <c r="J83" t="s">
-        <v>439</v>
+        <v>258</v>
+      </c>
+      <c r="H83">
+        <v>1.645</v>
+      </c>
+      <c r="I83">
+        <v>1.645</v>
+      </c>
+      <c r="J83">
+        <v>3887.47</v>
       </c>
       <c r="K83">
         <v>6394.88</v>
       </c>
-      <c r="L83" t="s">
-        <v>482</v>
+      <c r="L83">
+        <v>5.12</v>
       </c>
       <c r="M83">
         <v>6400</v>
       </c>
       <c r="N83" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O83" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="P83" t="s">
-        <v>503</v>
+        <v>271</v>
       </c>
       <c r="Q83" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="R83">
         <v>512</v>
       </c>
       <c r="S83" t="s">
-        <v>611</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -7217,52 +6540,52 @@
         <v>66</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E84" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F84" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G84" t="s">
-        <v>256</v>
-      </c>
-      <c r="H84" t="s">
-        <v>337</v>
-      </c>
-      <c r="I84" t="s">
-        <v>337</v>
-      </c>
-      <c r="J84" t="s">
-        <v>440</v>
+        <v>258</v>
+      </c>
+      <c r="H84">
+        <v>0.8999</v>
+      </c>
+      <c r="I84">
+        <v>0.8999</v>
+      </c>
+      <c r="J84">
+        <v>3889.32</v>
       </c>
       <c r="K84">
         <v>3500</v>
       </c>
-      <c r="L84" t="s">
-        <v>457</v>
+      <c r="L84">
+        <v>0</v>
       </c>
       <c r="M84">
         <v>3500</v>
       </c>
       <c r="N84" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O84" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P84" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q84" t="s">
-        <v>522</v>
+        <v>290</v>
       </c>
       <c r="R84">
         <v>121</v>
       </c>
       <c r="S84" t="s">
-        <v>612</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -7276,52 +6599,52 @@
         <v>66</v>
       </c>
       <c r="D85" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E85" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F85" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G85" t="s">
-        <v>256</v>
-      </c>
-      <c r="H85" t="s">
-        <v>338</v>
-      </c>
-      <c r="I85" t="s">
-        <v>338</v>
-      </c>
-      <c r="J85" t="s">
-        <v>441</v>
+        <v>258</v>
+      </c>
+      <c r="H85">
+        <v>0.9776</v>
+      </c>
+      <c r="I85">
+        <v>0.9776</v>
+      </c>
+      <c r="J85">
+        <v>3580.2</v>
       </c>
       <c r="K85">
         <v>3500</v>
       </c>
-      <c r="L85" t="s">
-        <v>457</v>
+      <c r="L85">
+        <v>0</v>
       </c>
       <c r="M85">
         <v>3500</v>
       </c>
       <c r="N85" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O85" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P85" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q85" t="s">
-        <v>527</v>
+        <v>295</v>
       </c>
       <c r="R85">
         <v>123</v>
       </c>
       <c r="S85" t="s">
-        <v>613</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -7335,52 +6658,52 @@
         <v>66</v>
       </c>
       <c r="D86" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E86" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F86" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G86" t="s">
-        <v>256</v>
-      </c>
-      <c r="H86" t="s">
-        <v>337</v>
-      </c>
-      <c r="I86" t="s">
-        <v>337</v>
-      </c>
-      <c r="J86" t="s">
-        <v>440</v>
+        <v>258</v>
+      </c>
+      <c r="H86">
+        <v>0.8999</v>
+      </c>
+      <c r="I86">
+        <v>0.8999</v>
+      </c>
+      <c r="J86">
+        <v>3889.32</v>
       </c>
       <c r="K86">
         <v>3500</v>
       </c>
-      <c r="L86" t="s">
-        <v>457</v>
+      <c r="L86">
+        <v>0</v>
       </c>
       <c r="M86">
         <v>3500</v>
       </c>
       <c r="N86" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O86" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P86" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q86" t="s">
-        <v>522</v>
+        <v>290</v>
       </c>
       <c r="R86">
         <v>121</v>
       </c>
       <c r="S86" t="s">
-        <v>614</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -7394,52 +6717,52 @@
         <v>67</v>
       </c>
       <c r="D87" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E87" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F87" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G87" t="s">
-        <v>256</v>
-      </c>
-      <c r="H87" t="s">
-        <v>339</v>
-      </c>
-      <c r="I87" t="s">
-        <v>339</v>
-      </c>
-      <c r="J87" t="s">
-        <v>442</v>
+        <v>258</v>
+      </c>
+      <c r="H87">
+        <v>1.4623</v>
+      </c>
+      <c r="I87">
+        <v>1.4623</v>
+      </c>
+      <c r="J87">
+        <v>2390.62</v>
       </c>
       <c r="K87">
         <v>3495.81</v>
       </c>
-      <c r="L87" t="s">
-        <v>484</v>
+      <c r="L87">
+        <v>4.19</v>
       </c>
       <c r="M87">
         <v>3500</v>
       </c>
       <c r="N87" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O87" t="s">
-        <v>497</v>
+        <v>265</v>
       </c>
       <c r="P87" t="s">
-        <v>508</v>
+        <v>276</v>
       </c>
       <c r="Q87" t="s">
-        <v>524</v>
+        <v>292</v>
       </c>
       <c r="R87">
         <v>211</v>
       </c>
       <c r="S87" t="s">
-        <v>615</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -7453,52 +6776,52 @@
         <v>68</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F88" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G88" t="s">
-        <v>257</v>
-      </c>
-      <c r="H88" t="s">
-        <v>340</v>
-      </c>
-      <c r="I88" t="s">
-        <v>340</v>
-      </c>
-      <c r="J88" t="s">
-        <v>412</v>
+        <v>259</v>
+      </c>
+      <c r="H88">
+        <v>1.7296</v>
+      </c>
+      <c r="I88">
+        <v>1.7296</v>
+      </c>
+      <c r="J88">
+        <v>4791.13</v>
       </c>
       <c r="K88">
         <v>8266.02</v>
       </c>
-      <c r="L88" t="s">
-        <v>485</v>
+      <c r="L88">
+        <v>20.72</v>
       </c>
       <c r="M88">
         <v>8245.299999999999</v>
       </c>
       <c r="N88" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O88" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P88" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q88" t="s">
-        <v>521</v>
+        <v>289</v>
       </c>
       <c r="R88">
         <v>124</v>
       </c>
       <c r="S88" t="s">
-        <v>616</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -7512,52 +6835,52 @@
         <v>68</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E89" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F89" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G89" t="s">
-        <v>256</v>
-      </c>
-      <c r="H89" t="s">
-        <v>341</v>
-      </c>
-      <c r="I89" t="s">
-        <v>341</v>
-      </c>
-      <c r="J89" t="s">
-        <v>443</v>
+        <v>258</v>
+      </c>
+      <c r="H89">
+        <v>1.9367</v>
+      </c>
+      <c r="I89">
+        <v>1.9367</v>
+      </c>
+      <c r="J89">
+        <v>3299.64</v>
       </c>
       <c r="K89">
         <v>6390.41</v>
       </c>
-      <c r="L89" t="s">
-        <v>477</v>
+      <c r="L89">
+        <v>9.59</v>
       </c>
       <c r="M89">
         <v>6400</v>
       </c>
       <c r="N89" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O89" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P89" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q89" t="s">
-        <v>522</v>
+        <v>290</v>
       </c>
       <c r="R89">
         <v>121</v>
       </c>
       <c r="S89" t="s">
-        <v>617</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -7571,52 +6894,52 @@
         <v>69</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E90" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F90" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G90" t="s">
-        <v>257</v>
-      </c>
-      <c r="H90" t="s">
-        <v>342</v>
-      </c>
-      <c r="I90" t="s">
-        <v>342</v>
-      </c>
-      <c r="J90" t="s">
-        <v>441</v>
+        <v>259</v>
+      </c>
+      <c r="H90">
+        <v>1.0422</v>
+      </c>
+      <c r="I90">
+        <v>1.0422</v>
+      </c>
+      <c r="J90">
+        <v>3580.2</v>
       </c>
       <c r="K90">
         <v>3731.28</v>
       </c>
-      <c r="L90" t="s">
-        <v>457</v>
+      <c r="L90">
+        <v>0</v>
       </c>
       <c r="M90">
         <v>3731.28</v>
       </c>
       <c r="N90" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O90" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P90" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q90" t="s">
-        <v>527</v>
+        <v>295</v>
       </c>
       <c r="R90">
         <v>123</v>
       </c>
       <c r="S90" t="s">
-        <v>618</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -7630,52 +6953,52 @@
         <v>69</v>
       </c>
       <c r="D91" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E91" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F91" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G91" t="s">
-        <v>257</v>
-      </c>
-      <c r="H91" t="s">
-        <v>343</v>
-      </c>
-      <c r="I91" t="s">
-        <v>343</v>
-      </c>
-      <c r="J91" t="s">
-        <v>440</v>
+        <v>259</v>
+      </c>
+      <c r="H91">
+        <v>0.945</v>
+      </c>
+      <c r="I91">
+        <v>0.945</v>
+      </c>
+      <c r="J91">
+        <v>3889.32</v>
       </c>
       <c r="K91">
         <v>3675.41</v>
       </c>
-      <c r="L91" t="s">
-        <v>457</v>
+      <c r="L91">
+        <v>0</v>
       </c>
       <c r="M91">
         <v>3675.41</v>
       </c>
       <c r="N91" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O91" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P91" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q91" t="s">
-        <v>522</v>
+        <v>290</v>
       </c>
       <c r="R91">
         <v>121</v>
       </c>
       <c r="S91" t="s">
-        <v>619</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -7689,52 +7012,52 @@
         <v>70</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E92" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F92" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G92" t="s">
-        <v>257</v>
-      </c>
-      <c r="H92" t="s">
-        <v>344</v>
-      </c>
-      <c r="I92" t="s">
-        <v>344</v>
-      </c>
-      <c r="J92" t="s">
-        <v>440</v>
+        <v>259</v>
+      </c>
+      <c r="H92">
+        <v>0.9822</v>
+      </c>
+      <c r="I92">
+        <v>0.9822</v>
+      </c>
+      <c r="J92">
+        <v>3889.32</v>
       </c>
       <c r="K92">
         <v>3820.09</v>
       </c>
-      <c r="L92" t="s">
-        <v>457</v>
+      <c r="L92">
+        <v>0</v>
       </c>
       <c r="M92">
         <v>3820.09</v>
       </c>
       <c r="N92" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O92" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P92" t="s">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="Q92" t="s">
-        <v>522</v>
+        <v>290</v>
       </c>
       <c r="R92">
         <v>121</v>
       </c>
       <c r="S92" t="s">
-        <v>620</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -7748,827 +7071,821 @@
         <v>71</v>
       </c>
       <c r="D93" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E93" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F93" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G93" t="s">
-        <v>256</v>
-      </c>
-      <c r="H93" t="s">
-        <v>345</v>
-      </c>
-      <c r="I93" t="s">
-        <v>345</v>
-      </c>
-      <c r="J93" t="s">
-        <v>444</v>
+        <v>258</v>
+      </c>
+      <c r="H93">
+        <v>1.0894</v>
+      </c>
+      <c r="I93">
+        <v>1.0894</v>
+      </c>
+      <c r="J93">
+        <v>5867.75</v>
       </c>
       <c r="K93">
         <v>6392.33</v>
       </c>
-      <c r="L93" t="s">
-        <v>476</v>
+      <c r="L93">
+        <v>7.67</v>
       </c>
       <c r="M93">
         <v>6400</v>
       </c>
       <c r="N93" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O93" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P93" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q93" t="s">
-        <v>518</v>
+        <v>286</v>
       </c>
       <c r="R93">
         <v>147</v>
       </c>
       <c r="S93" t="s">
-        <v>621</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B94">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C94" t="s">
         <v>72</v>
       </c>
       <c r="D94" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="E94" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F94" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="G94" t="s">
-        <v>256</v>
-      </c>
-      <c r="H94" t="s">
-        <v>346</v>
-      </c>
-      <c r="I94" t="s">
-        <v>346</v>
-      </c>
-      <c r="J94" t="s">
-        <v>445</v>
+        <v>260</v>
+      </c>
+      <c r="H94">
+        <v>0.984</v>
+      </c>
+      <c r="I94">
+        <v>2.689</v>
+      </c>
+      <c r="J94">
+        <v>7273.46</v>
       </c>
       <c r="K94">
-        <v>6392.33</v>
-      </c>
-      <c r="L94" t="s">
-        <v>476</v>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O94" t="s">
-        <v>498</v>
+        <v>262</v>
       </c>
       <c r="P94" t="s">
-        <v>498</v>
+        <v>270</v>
       </c>
       <c r="Q94" t="s">
-        <v>525</v>
-      </c>
-      <c r="R94">
-        <v>613</v>
+        <v>281</v>
       </c>
       <c r="S94" t="s">
-        <v>622</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="1">
+        <v>92</v>
+      </c>
+      <c r="B95">
         <v>93</v>
       </c>
-      <c r="B95">
-        <v>94</v>
-      </c>
       <c r="C95" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D95" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F95" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G95" t="s">
-        <v>257</v>
-      </c>
-      <c r="H95" t="s">
-        <v>347</v>
-      </c>
-      <c r="I95" t="s">
-        <v>347</v>
-      </c>
-      <c r="J95" t="s">
-        <v>432</v>
+        <v>258</v>
+      </c>
+      <c r="H95">
+        <v>0.7161999999999999</v>
+      </c>
+      <c r="I95">
+        <v>0.7161999999999999</v>
+      </c>
+      <c r="J95">
+        <v>8925.34</v>
       </c>
       <c r="K95">
-        <v>6755.75</v>
-      </c>
-      <c r="L95" t="s">
-        <v>486</v>
+        <v>6392.33</v>
+      </c>
+      <c r="L95">
+        <v>7.67</v>
       </c>
       <c r="M95">
-        <v>6721.8</v>
+        <v>6400</v>
       </c>
       <c r="N95" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O95" t="s">
-        <v>494</v>
+        <v>266</v>
       </c>
       <c r="P95" t="s">
-        <v>499</v>
+        <v>266</v>
       </c>
       <c r="Q95" t="s">
-        <v>526</v>
+        <v>293</v>
       </c>
       <c r="R95">
-        <v>144</v>
+        <v>613</v>
       </c>
       <c r="S95" t="s">
-        <v>623</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="1">
+        <v>93</v>
+      </c>
+      <c r="B96">
         <v>94</v>
-      </c>
-      <c r="B96">
-        <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>73</v>
       </c>
       <c r="D96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E96" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F96" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G96" t="s">
-        <v>257</v>
-      </c>
-      <c r="H96" t="s">
-        <v>348</v>
-      </c>
-      <c r="I96" t="s">
-        <v>348</v>
-      </c>
-      <c r="J96" t="s">
-        <v>446</v>
+        <v>259</v>
+      </c>
+      <c r="H96">
+        <v>0.8646</v>
+      </c>
+      <c r="I96">
+        <v>0.8646</v>
+      </c>
+      <c r="J96">
+        <v>7852.99</v>
       </c>
       <c r="K96">
-        <v>7399.31</v>
-      </c>
-      <c r="L96" t="s">
-        <v>457</v>
+        <v>6755.75</v>
+      </c>
+      <c r="L96">
+        <v>33.95</v>
       </c>
       <c r="M96">
-        <v>7399.31</v>
+        <v>6721.8</v>
       </c>
       <c r="N96" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O96" t="s">
-        <v>496</v>
+        <v>262</v>
       </c>
       <c r="P96" t="s">
-        <v>504</v>
+        <v>267</v>
       </c>
       <c r="Q96" t="s">
-        <v>516</v>
+        <v>294</v>
       </c>
       <c r="R96">
-        <v>521</v>
+        <v>144</v>
       </c>
       <c r="S96" t="s">
-        <v>624</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="1">
+        <v>94</v>
+      </c>
+      <c r="B97">
         <v>95</v>
       </c>
-      <c r="B97">
-        <v>96</v>
-      </c>
       <c r="C97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E97" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F97" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="G97" t="s">
-        <v>256</v>
-      </c>
-      <c r="H97" t="s">
-        <v>349</v>
-      </c>
-      <c r="I97" t="s">
-        <v>349</v>
-      </c>
-      <c r="J97" t="s">
-        <v>447</v>
+        <v>259</v>
+      </c>
+      <c r="H97">
+        <v>1.319</v>
+      </c>
+      <c r="I97">
+        <v>1.319</v>
+      </c>
+      <c r="J97">
+        <v>5609.79</v>
       </c>
       <c r="K97">
-        <v>6392.33</v>
-      </c>
-      <c r="L97" t="s">
-        <v>476</v>
+        <v>7399.31</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>6400</v>
+        <v>7399.31</v>
       </c>
       <c r="N97" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O97" t="s">
-        <v>495</v>
+        <v>264</v>
       </c>
       <c r="P97" t="s">
-        <v>501</v>
+        <v>272</v>
       </c>
       <c r="Q97" t="s">
-        <v>511</v>
+        <v>284</v>
       </c>
       <c r="R97">
-        <v>321</v>
+        <v>521</v>
       </c>
       <c r="S97" t="s">
-        <v>625</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="1">
+        <v>95</v>
+      </c>
+      <c r="B98">
         <v>96</v>
-      </c>
-      <c r="B98">
-        <v>97</v>
       </c>
       <c r="C98" t="s">
         <v>74</v>
       </c>
       <c r="D98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F98" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G98" t="s">
-        <v>256</v>
-      </c>
-      <c r="H98" t="s">
-        <v>350</v>
-      </c>
-      <c r="I98" t="s">
-        <v>350</v>
-      </c>
-      <c r="J98" t="s">
-        <v>448</v>
+        <v>258</v>
+      </c>
+      <c r="H98">
+        <v>0.978</v>
+      </c>
+      <c r="I98">
+        <v>0.978</v>
+      </c>
+      <c r="J98">
+        <v>6536.12</v>
       </c>
       <c r="K98">
         <v>6392.33</v>
       </c>
-      <c r="L98" t="s">
-        <v>476</v>
+      <c r="L98">
+        <v>7.67</v>
       </c>
       <c r="M98">
         <v>6400</v>
       </c>
       <c r="N98" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O98" t="s">
-        <v>497</v>
+        <v>263</v>
       </c>
       <c r="P98" t="s">
-        <v>508</v>
+        <v>269</v>
       </c>
       <c r="Q98" t="s">
-        <v>524</v>
+        <v>279</v>
       </c>
       <c r="R98">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="S98" t="s">
-        <v>626</v>
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="1">
+        <v>96</v>
+      </c>
+      <c r="B99">
         <v>97</v>
       </c>
-      <c r="B99">
-        <v>98</v>
-      </c>
       <c r="C99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F99" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="G99" t="s">
-        <v>256</v>
-      </c>
-      <c r="H99" t="s">
-        <v>351</v>
-      </c>
-      <c r="I99" t="s">
-        <v>351</v>
-      </c>
-      <c r="J99" t="s">
-        <v>449</v>
+        <v>258</v>
+      </c>
+      <c r="H99">
+        <v>1.3592</v>
+      </c>
+      <c r="I99">
+        <v>1.3592</v>
+      </c>
+      <c r="J99">
+        <v>4703.01</v>
       </c>
       <c r="K99">
         <v>6392.33</v>
       </c>
-      <c r="L99" t="s">
-        <v>476</v>
+      <c r="L99">
+        <v>7.67</v>
       </c>
       <c r="M99">
         <v>6400</v>
       </c>
       <c r="N99" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O99" t="s">
-        <v>495</v>
+        <v>265</v>
       </c>
       <c r="P99" t="s">
-        <v>501</v>
+        <v>276</v>
       </c>
       <c r="Q99" t="s">
-        <v>511</v>
+        <v>292</v>
       </c>
       <c r="R99">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="S99" t="s">
-        <v>627</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="1">
+        <v>97</v>
+      </c>
+      <c r="B100">
         <v>98</v>
-      </c>
-      <c r="B100">
-        <v>99</v>
       </c>
       <c r="C100" t="s">
         <v>75</v>
       </c>
       <c r="D100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F100" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G100" t="s">
-        <v>256</v>
-      </c>
-      <c r="H100" t="s">
-        <v>352</v>
-      </c>
-      <c r="I100" t="s">
-        <v>352</v>
-      </c>
-      <c r="J100" t="s">
-        <v>450</v>
+        <v>258</v>
+      </c>
+      <c r="H100">
+        <v>0.913</v>
+      </c>
+      <c r="I100">
+        <v>0.913</v>
+      </c>
+      <c r="J100">
+        <v>7001.46</v>
       </c>
       <c r="K100">
         <v>6392.33</v>
       </c>
-      <c r="L100" t="s">
-        <v>476</v>
+      <c r="L100">
+        <v>7.67</v>
       </c>
       <c r="M100">
         <v>6400</v>
       </c>
       <c r="N100" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O100" t="s">
-        <v>495</v>
+        <v>263</v>
       </c>
       <c r="P100" t="s">
-        <v>501</v>
+        <v>269</v>
       </c>
       <c r="Q100" t="s">
-        <v>511</v>
+        <v>279</v>
       </c>
       <c r="R100">
         <v>321</v>
       </c>
       <c r="S100" t="s">
-        <v>628</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="1">
+        <v>98</v>
+      </c>
+      <c r="B101">
         <v>99</v>
-      </c>
-      <c r="B101">
-        <v>100</v>
       </c>
       <c r="C101" t="s">
         <v>76</v>
       </c>
       <c r="D101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F101" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G101" t="s">
-        <v>257</v>
-      </c>
-      <c r="H101" t="s">
-        <v>353</v>
-      </c>
-      <c r="I101" t="s">
-        <v>353</v>
-      </c>
-      <c r="J101" t="s">
-        <v>426</v>
+        <v>258</v>
+      </c>
+      <c r="H101">
+        <v>0.867</v>
+      </c>
+      <c r="I101">
+        <v>0.867</v>
+      </c>
+      <c r="J101">
+        <v>7372.93</v>
       </c>
       <c r="K101">
-        <v>7615.76</v>
-      </c>
-      <c r="L101" t="s">
-        <v>487</v>
+        <v>6392.33</v>
+      </c>
+      <c r="L101">
+        <v>7.67</v>
       </c>
       <c r="M101">
-        <v>7577.49</v>
+        <v>6400</v>
       </c>
       <c r="N101" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O101" t="s">
-        <v>496</v>
+        <v>263</v>
       </c>
       <c r="P101" t="s">
-        <v>503</v>
+        <v>269</v>
       </c>
       <c r="Q101" t="s">
-        <v>517</v>
+        <v>279</v>
       </c>
       <c r="R101">
-        <v>512</v>
+        <v>321</v>
       </c>
       <c r="S101" t="s">
-        <v>629</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="1">
+        <v>99</v>
+      </c>
+      <c r="B102">
         <v>100</v>
       </c>
-      <c r="B102">
-        <v>101</v>
-      </c>
       <c r="C102" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E102" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F102" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G102" t="s">
-        <v>256</v>
-      </c>
-      <c r="H102" t="s">
-        <v>354</v>
-      </c>
-      <c r="I102" t="s">
-        <v>354</v>
-      </c>
-      <c r="J102" t="s">
-        <v>451</v>
+        <v>259</v>
+      </c>
+      <c r="H102">
+        <v>1.4364</v>
+      </c>
+      <c r="I102">
+        <v>1.4364</v>
+      </c>
+      <c r="J102">
+        <v>5328.62</v>
       </c>
       <c r="K102">
-        <v>6392.33</v>
-      </c>
-      <c r="L102" t="s">
-        <v>476</v>
+        <v>7615.76</v>
+      </c>
+      <c r="L102">
+        <v>38.27</v>
       </c>
       <c r="M102">
-        <v>6400</v>
+        <v>7577.49</v>
       </c>
       <c r="N102" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O102" t="s">
-        <v>497</v>
+        <v>264</v>
       </c>
       <c r="P102" t="s">
-        <v>508</v>
+        <v>271</v>
       </c>
       <c r="Q102" t="s">
-        <v>524</v>
+        <v>285</v>
       </c>
       <c r="R102">
-        <v>211</v>
+        <v>512</v>
       </c>
       <c r="S102" t="s">
-        <v>630</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="1">
+        <v>100</v>
+      </c>
+      <c r="B103">
         <v>101</v>
       </c>
-      <c r="B103">
-        <v>102</v>
-      </c>
       <c r="C103" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E103" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F103" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G103" t="s">
-        <v>256</v>
-      </c>
-      <c r="H103" t="s">
-        <v>355</v>
-      </c>
-      <c r="I103" t="s">
-        <v>355</v>
-      </c>
-      <c r="J103" t="s">
-        <v>452</v>
+        <v>258</v>
+      </c>
+      <c r="H103">
+        <v>1.2474</v>
+      </c>
+      <c r="I103">
+        <v>1.2474</v>
+      </c>
+      <c r="J103">
+        <v>5124.52</v>
       </c>
       <c r="K103">
         <v>6392.33</v>
       </c>
-      <c r="L103" t="s">
-        <v>476</v>
+      <c r="L103">
+        <v>7.67</v>
       </c>
       <c r="M103">
         <v>6400</v>
       </c>
       <c r="N103" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O103" t="s">
-        <v>495</v>
+        <v>265</v>
       </c>
       <c r="P103" t="s">
-        <v>500</v>
+        <v>276</v>
       </c>
       <c r="Q103" t="s">
-        <v>528</v>
+        <v>292</v>
       </c>
       <c r="R103">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="S103" t="s">
-        <v>631</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="1">
+        <v>101</v>
+      </c>
+      <c r="B104">
         <v>102</v>
-      </c>
-      <c r="B104">
-        <v>103</v>
       </c>
       <c r="C104" t="s">
         <v>77</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="F104" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G104" t="s">
-        <v>257</v>
-      </c>
-      <c r="H104" t="s">
-        <v>356</v>
-      </c>
-      <c r="I104" t="s">
-        <v>356</v>
-      </c>
-      <c r="J104" t="s">
-        <v>453</v>
+        <v>258</v>
+      </c>
+      <c r="H104">
+        <v>1.9434</v>
+      </c>
+      <c r="I104">
+        <v>1.9434</v>
+      </c>
+      <c r="J104">
+        <v>3289.25</v>
       </c>
       <c r="K104">
-        <v>9246.73</v>
-      </c>
-      <c r="L104" t="s">
-        <v>457</v>
+        <v>6392.33</v>
+      </c>
+      <c r="L104">
+        <v>7.67</v>
       </c>
       <c r="M104">
-        <v>9246.73</v>
+        <v>6400</v>
       </c>
       <c r="N104" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O104" t="s">
-        <v>494</v>
+        <v>263</v>
       </c>
       <c r="P104" t="s">
-        <v>499</v>
+        <v>268</v>
       </c>
       <c r="Q104" t="s">
-        <v>512</v>
+        <v>296</v>
       </c>
       <c r="R104">
-        <v>142</v>
+        <v>313</v>
       </c>
       <c r="S104" t="s">
-        <v>632</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B105">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="E105" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="F105" t="s">
         <v>252</v>
       </c>
       <c r="G105" t="s">
-        <v>256</v>
-      </c>
-      <c r="H105" t="s">
-        <v>357</v>
-      </c>
-      <c r="I105" t="s">
-        <v>357</v>
-      </c>
-      <c r="J105" t="s">
-        <v>454</v>
+        <v>259</v>
+      </c>
+      <c r="H105">
+        <v>0.7161999999999999</v>
+      </c>
+      <c r="I105">
+        <v>0.7161999999999999</v>
+      </c>
+      <c r="J105">
+        <v>8925</v>
       </c>
       <c r="K105">
-        <v>6390.41</v>
-      </c>
-      <c r="L105" t="s">
-        <v>477</v>
+        <v>6392.09</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O105" t="s">
-        <v>494</v>
+        <v>266</v>
       </c>
       <c r="P105" t="s">
-        <v>502</v>
+        <v>266</v>
       </c>
       <c r="Q105" t="s">
-        <v>513</v>
-      </c>
-      <c r="R105">
-        <v>131</v>
-      </c>
-      <c r="S105" t="s">
-        <v>633</v>
+        <v>293</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B106">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D106" t="s">
         <v>186</v>
       </c>
       <c r="E106" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="G106" t="s">
-        <v>257</v>
-      </c>
-      <c r="H106" t="s">
-        <v>358</v>
-      </c>
-      <c r="I106" t="s">
-        <v>358</v>
-      </c>
-      <c r="J106" t="s">
-        <v>452</v>
+        <v>259</v>
+      </c>
+      <c r="H106">
+        <v>0.9777</v>
+      </c>
+      <c r="I106">
+        <v>0.9777</v>
+      </c>
+      <c r="J106">
+        <v>9457.639999999999</v>
       </c>
       <c r="K106">
-        <v>7814.47</v>
-      </c>
-      <c r="L106" t="s">
-        <v>488</v>
+        <v>9246.73</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>7775.2</v>
+        <v>9246.73</v>
       </c>
       <c r="N106" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O106" t="s">
-        <v>495</v>
+        <v>262</v>
       </c>
       <c r="P106" t="s">
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="Q106" t="s">
-        <v>528</v>
+        <v>280</v>
       </c>
       <c r="R106">
-        <v>313</v>
+        <v>142</v>
       </c>
       <c r="S106" t="s">
-        <v>634</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
         <v>79</v>
@@ -8577,57 +7894,57 @@
         <v>187</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F107" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G107" t="s">
-        <v>257</v>
-      </c>
-      <c r="H107" t="s">
-        <v>359</v>
-      </c>
-      <c r="I107" t="s">
-        <v>359</v>
-      </c>
-      <c r="J107" t="s">
-        <v>455</v>
+        <v>258</v>
+      </c>
+      <c r="H107">
+        <v>0.972</v>
+      </c>
+      <c r="I107">
+        <v>0.972</v>
+      </c>
+      <c r="J107">
+        <v>6574.5</v>
       </c>
       <c r="K107">
-        <v>8687.85</v>
-      </c>
-      <c r="L107" t="s">
-        <v>489</v>
+        <v>6390.41</v>
+      </c>
+      <c r="L107">
+        <v>9.59</v>
       </c>
       <c r="M107">
-        <v>8670.440000000001</v>
+        <v>6400</v>
       </c>
       <c r="N107" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O107" t="s">
-        <v>497</v>
+        <v>262</v>
       </c>
       <c r="P107" t="s">
-        <v>507</v>
+        <v>270</v>
       </c>
       <c r="Q107" t="s">
-        <v>523</v>
+        <v>281</v>
       </c>
       <c r="R107">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="S107" t="s">
-        <v>635</v>
+        <v>403</v>
       </c>
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
         <v>80</v>
@@ -8636,293 +7953,293 @@
         <v>188</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="F108" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G108" t="s">
-        <v>257</v>
-      </c>
-      <c r="H108" t="s">
-        <v>360</v>
-      </c>
-      <c r="I108" t="s">
-        <v>360</v>
-      </c>
-      <c r="J108" t="s">
-        <v>424</v>
+        <v>259</v>
+      </c>
+      <c r="H108">
+        <v>2.3877</v>
+      </c>
+      <c r="I108">
+        <v>2.3877</v>
+      </c>
+      <c r="J108">
+        <v>3289.25</v>
       </c>
       <c r="K108">
-        <v>9081.889999999999</v>
-      </c>
-      <c r="L108" t="s">
-        <v>457</v>
+        <v>7814.47</v>
+      </c>
+      <c r="L108">
+        <v>39.27</v>
       </c>
       <c r="M108">
-        <v>9081.889999999999</v>
+        <v>7775.2</v>
       </c>
       <c r="N108" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O108" t="s">
-        <v>494</v>
+        <v>263</v>
       </c>
       <c r="P108" t="s">
-        <v>499</v>
+        <v>268</v>
       </c>
       <c r="Q108" t="s">
-        <v>514</v>
+        <v>296</v>
       </c>
       <c r="R108">
-        <v>141</v>
+        <v>313</v>
       </c>
       <c r="S108" t="s">
-        <v>636</v>
+        <v>404</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D109" t="s">
         <v>189</v>
       </c>
       <c r="E109" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G109" t="s">
-        <v>256</v>
-      </c>
-      <c r="H109" t="s">
-        <v>361</v>
-      </c>
-      <c r="I109" t="s">
-        <v>361</v>
-      </c>
-      <c r="J109" t="s">
-        <v>456</v>
+        <v>259</v>
+      </c>
+      <c r="H109">
+        <v>1.577</v>
+      </c>
+      <c r="I109">
+        <v>1.577</v>
+      </c>
+      <c r="J109">
+        <v>5520.14</v>
       </c>
       <c r="K109">
-        <v>6394.88</v>
-      </c>
-      <c r="L109" t="s">
-        <v>482</v>
+        <v>8687.85</v>
+      </c>
+      <c r="L109">
+        <v>17.41</v>
       </c>
       <c r="M109">
-        <v>6400</v>
+        <v>8670.440000000001</v>
       </c>
       <c r="N109" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O109" t="s">
-        <v>496</v>
+        <v>265</v>
       </c>
       <c r="P109" t="s">
-        <v>503</v>
+        <v>275</v>
       </c>
       <c r="Q109" t="s">
-        <v>515</v>
+        <v>291</v>
       </c>
       <c r="R109">
-        <v>511</v>
+        <v>221</v>
       </c>
       <c r="S109" t="s">
-        <v>637</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B110">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D110" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="E110" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="G110" t="s">
-        <v>258</v>
-      </c>
-      <c r="H110" t="s">
-        <v>335</v>
-      </c>
-      <c r="I110" t="s">
-        <v>335</v>
-      </c>
-      <c r="J110" t="s">
-        <v>457</v>
+        <v>259</v>
+      </c>
+      <c r="H110">
+        <v>1.1545</v>
+      </c>
+      <c r="I110">
+        <v>1.1545</v>
+      </c>
+      <c r="J110">
+        <v>7866.51</v>
       </c>
       <c r="K110">
-        <v>94.66</v>
-      </c>
-      <c r="L110" t="s">
-        <v>457</v>
+        <v>9081.889999999999</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>94.66</v>
+        <v>9081.889999999999</v>
       </c>
       <c r="N110" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O110" t="s">
-        <v>496</v>
+        <v>262</v>
       </c>
       <c r="P110" t="s">
-        <v>503</v>
+        <v>267</v>
       </c>
       <c r="Q110" t="s">
-        <v>515</v>
+        <v>282</v>
       </c>
       <c r="R110">
-        <v>511</v>
+        <v>141</v>
       </c>
       <c r="S110" t="s">
-        <v>638</v>
+        <v>406</v>
       </c>
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B111">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C111" t="s">
         <v>82</v>
       </c>
       <c r="D111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F111" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G111" t="s">
-        <v>257</v>
-      </c>
-      <c r="H111" t="s">
-        <v>362</v>
-      </c>
-      <c r="I111" t="s">
-        <v>362</v>
-      </c>
-      <c r="J111" t="s">
-        <v>458</v>
+        <v>258</v>
+      </c>
+      <c r="H111">
+        <v>1.216</v>
+      </c>
+      <c r="I111">
+        <v>1.216</v>
+      </c>
+      <c r="J111">
+        <v>5258.95</v>
       </c>
       <c r="K111">
-        <v>9915.620000000001</v>
-      </c>
-      <c r="L111" t="s">
-        <v>490</v>
+        <v>6394.88</v>
+      </c>
+      <c r="L111">
+        <v>5.12</v>
       </c>
       <c r="M111">
-        <v>9895.75</v>
+        <v>6400</v>
       </c>
       <c r="N111" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O111" t="s">
-        <v>497</v>
+        <v>264</v>
       </c>
       <c r="P111" t="s">
-        <v>507</v>
+        <v>271</v>
       </c>
       <c r="Q111" t="s">
-        <v>523</v>
+        <v>283</v>
       </c>
       <c r="R111">
-        <v>221</v>
+        <v>511</v>
       </c>
       <c r="S111" t="s">
-        <v>639</v>
+        <v>407</v>
       </c>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
         <v>83</v>
       </c>
       <c r="D112" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="F112" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G112" t="s">
-        <v>257</v>
-      </c>
-      <c r="H112" t="s">
-        <v>363</v>
-      </c>
-      <c r="I112" t="s">
-        <v>363</v>
-      </c>
-      <c r="J112" t="s">
-        <v>409</v>
+        <v>260</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>10225.19</v>
-      </c>
-      <c r="L112" t="s">
-        <v>457</v>
+        <v>94.66</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
       </c>
       <c r="M112">
-        <v>10225.19</v>
+        <v>94.66</v>
       </c>
       <c r="N112" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O112" t="s">
-        <v>494</v>
+        <v>264</v>
       </c>
       <c r="P112" t="s">
-        <v>499</v>
+        <v>271</v>
       </c>
       <c r="Q112" t="s">
-        <v>514</v>
+        <v>283</v>
       </c>
       <c r="R112">
-        <v>141</v>
+        <v>511</v>
       </c>
       <c r="S112" t="s">
-        <v>640</v>
+        <v>408</v>
       </c>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C113" t="s">
         <v>84</v>
@@ -8931,57 +8248,57 @@
         <v>192</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G113" t="s">
-        <v>256</v>
-      </c>
-      <c r="H113" t="s">
-        <v>364</v>
-      </c>
-      <c r="I113" t="s">
-        <v>364</v>
-      </c>
-      <c r="J113" t="s">
-        <v>459</v>
+        <v>259</v>
+      </c>
+      <c r="H113">
+        <v>1.765</v>
+      </c>
+      <c r="I113">
+        <v>1.765</v>
+      </c>
+      <c r="J113">
+        <v>5629.17</v>
       </c>
       <c r="K113">
-        <v>199.8</v>
-      </c>
-      <c r="L113" t="s">
-        <v>491</v>
+        <v>9915.620000000001</v>
+      </c>
+      <c r="L113">
+        <v>19.87</v>
       </c>
       <c r="M113">
-        <v>200</v>
+        <v>9895.75</v>
       </c>
       <c r="N113" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O113" t="s">
-        <v>494</v>
+        <v>265</v>
       </c>
       <c r="P113" t="s">
-        <v>499</v>
+        <v>275</v>
       </c>
       <c r="Q113" t="s">
-        <v>529</v>
+        <v>291</v>
       </c>
       <c r="R113">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="S113" t="s">
-        <v>641</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
         <v>85</v>
@@ -8990,57 +8307,57 @@
         <v>193</v>
       </c>
       <c r="E114" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F114" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G114" t="s">
-        <v>257</v>
-      </c>
-      <c r="H114" t="s">
-        <v>365</v>
-      </c>
-      <c r="I114" t="s">
-        <v>365</v>
-      </c>
-      <c r="J114" t="s">
-        <v>403</v>
+        <v>259</v>
+      </c>
+      <c r="H114">
+        <v>1.2856</v>
+      </c>
+      <c r="I114">
+        <v>1.2856</v>
+      </c>
+      <c r="J114">
+        <v>7953.63</v>
       </c>
       <c r="K114">
-        <v>9216.379999999999</v>
-      </c>
-      <c r="L114" t="s">
-        <v>457</v>
+        <v>10225.19</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
       </c>
       <c r="M114">
-        <v>9216.379999999999</v>
+        <v>10225.19</v>
       </c>
       <c r="N114" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O114" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P114" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q114" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="R114">
         <v>141</v>
       </c>
       <c r="S114" t="s">
-        <v>642</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
         <v>86</v>
@@ -9049,57 +8366,57 @@
         <v>194</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G115" t="s">
-        <v>256</v>
-      </c>
-      <c r="H115" t="s">
-        <v>366</v>
-      </c>
-      <c r="I115" t="s">
-        <v>366</v>
-      </c>
-      <c r="J115" t="s">
-        <v>460</v>
+        <v>258</v>
+      </c>
+      <c r="H115">
+        <v>1.171</v>
+      </c>
+      <c r="I115">
+        <v>1.171</v>
+      </c>
+      <c r="J115">
+        <v>170.62</v>
       </c>
       <c r="K115">
-        <v>599.4</v>
-      </c>
-      <c r="L115" t="s">
-        <v>492</v>
+        <v>199.8</v>
+      </c>
+      <c r="L115">
+        <v>0.2</v>
       </c>
       <c r="M115">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N115" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="O115" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="P115" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="Q115" t="s">
-        <v>529</v>
+        <v>297</v>
       </c>
       <c r="R115">
         <v>146</v>
       </c>
       <c r="S115" t="s">
-        <v>643</v>
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
         <v>87</v>
@@ -9108,52 +8425,173 @@
         <v>195</v>
       </c>
       <c r="E116" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F116" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="G116" t="s">
+        <v>259</v>
+      </c>
+      <c r="H116">
+        <v>1.3139</v>
+      </c>
+      <c r="I116">
+        <v>1.3139</v>
+      </c>
+      <c r="J116">
+        <v>7014.52</v>
+      </c>
+      <c r="K116">
+        <v>9216.379999999999</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>9216.379999999999</v>
+      </c>
+      <c r="N116" t="s">
+        <v>261</v>
+      </c>
+      <c r="O116" t="s">
+        <v>262</v>
+      </c>
+      <c r="P116" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>282</v>
+      </c>
+      <c r="R116">
+        <v>141</v>
+      </c>
+      <c r="S116" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
+      <c r="B117">
+        <v>114</v>
+      </c>
+      <c r="C117" t="s">
+        <v>88</v>
+      </c>
+      <c r="D117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E117" t="s">
+        <v>225</v>
+      </c>
+      <c r="F117" t="s">
         <v>256</v>
       </c>
-      <c r="H116" t="s">
-        <v>367</v>
-      </c>
-      <c r="I116" t="s">
-        <v>367</v>
-      </c>
-      <c r="J116" t="s">
-        <v>461</v>
-      </c>
-      <c r="K116">
+      <c r="G117" t="s">
+        <v>258</v>
+      </c>
+      <c r="H117">
+        <v>1.1845</v>
+      </c>
+      <c r="I117">
+        <v>1.1845</v>
+      </c>
+      <c r="J117">
+        <v>506.04</v>
+      </c>
+      <c r="K117">
+        <v>599.4</v>
+      </c>
+      <c r="L117">
+        <v>0.6</v>
+      </c>
+      <c r="M117">
+        <v>600</v>
+      </c>
+      <c r="N117" t="s">
+        <v>261</v>
+      </c>
+      <c r="O117" t="s">
+        <v>262</v>
+      </c>
+      <c r="P117" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>297</v>
+      </c>
+      <c r="R117">
+        <v>146</v>
+      </c>
+      <c r="S117" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
+      <c r="B118">
+        <v>115</v>
+      </c>
+      <c r="C118" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
+        <v>257</v>
+      </c>
+      <c r="G118" t="s">
+        <v>258</v>
+      </c>
+      <c r="H118">
+        <v>1.1004</v>
+      </c>
+      <c r="I118">
+        <v>1.1004</v>
+      </c>
+      <c r="J118">
+        <v>5811.41</v>
+      </c>
+      <c r="K118">
         <v>6394.88</v>
       </c>
-      <c r="L116" t="s">
-        <v>482</v>
-      </c>
-      <c r="M116">
+      <c r="L118">
+        <v>5.12</v>
+      </c>
+      <c r="M118">
         <v>6400</v>
       </c>
-      <c r="N116" t="s">
-        <v>493</v>
-      </c>
-      <c r="O116" t="s">
-        <v>496</v>
-      </c>
-      <c r="P116" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>515</v>
-      </c>
-      <c r="R116">
+      <c r="N118" t="s">
+        <v>261</v>
+      </c>
+      <c r="O118" t="s">
+        <v>264</v>
+      </c>
+      <c r="P118" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>283</v>
+      </c>
+      <c r="R118">
         <v>511</v>
       </c>
-      <c r="S116" t="s">
-        <v>644</v>
+      <c r="S118" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S105" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/combine/04_康力泉_天天.xlsx
+++ b/combine/04_康力泉_天天.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="康力泉_交易记录" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -73,1189 +73,1189 @@
     <t>2016-05-11</t>
   </si>
   <si>
+    <t>13:09:40</t>
+  </si>
+  <si>
+    <t>161725</t>
+  </si>
+  <si>
+    <t>招商中证白酒指数分级</t>
+  </si>
+  <si>
+    <t>买入</t>
+  </si>
+  <si>
+    <t>康力泉_天天</t>
+  </si>
+  <si>
+    <t>A 股</t>
+  </si>
+  <si>
+    <t>行业股</t>
+  </si>
+  <si>
+    <t>全指消费</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=fdb0dbf1fbd246dc88cfcab1547a1fcb&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2016-05-13</t>
   </si>
   <si>
+    <t>08:44:39</t>
+  </si>
+  <si>
+    <t>000179</t>
+  </si>
+  <si>
+    <t>广发美国房地产指数</t>
+  </si>
+  <si>
+    <t>海外成熟</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=c568af353b7e40faa1cf583e1bc00c44&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2016-05-24</t>
   </si>
   <si>
+    <t>14:59:00</t>
+  </si>
+  <si>
+    <t>卖出</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=214341fbc30e4978bb325a639830accb&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2016-05-27</t>
   </si>
   <si>
+    <t>14:08:10</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=2362d357ea9743e4b12531160ce0593f&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2016-09-14</t>
   </si>
   <si>
+    <t>11:04:04</t>
+  </si>
+  <si>
+    <t>000614</t>
+  </si>
+  <si>
+    <t>华安德国30(DAX)联接</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>德国30</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=e6487d0396f046aeac18c546bfc76d34&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2017-01-13</t>
   </si>
   <si>
+    <t>13:58:30</t>
+  </si>
+  <si>
+    <t>001180</t>
+  </si>
+  <si>
+    <t>广发医药卫生联接A</t>
+  </si>
+  <si>
+    <t>全指医药</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=8fcd1c2a289f4250b916a30c3f1eb083&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>14:34:07</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=f37be7b0121c4df5b94666d9b4d4a4e9&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2017-01-25</t>
   </si>
   <si>
+    <t>13:26:58</t>
+  </si>
+  <si>
+    <t>100032</t>
+  </si>
+  <si>
+    <t>富国中证红利指数增强</t>
+  </si>
+  <si>
+    <t>红利价值</t>
+  </si>
+  <si>
+    <t>中证红利</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=248f32037f32480cb4efc873015272cb&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>13:58:12</t>
+  </si>
+  <si>
+    <t>000968</t>
+  </si>
+  <si>
+    <t>广发养老指数A</t>
+  </si>
+  <si>
+    <t>养老产业</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=05e5bfe994b5478cae6173bee3f60406&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2017-02-15</t>
   </si>
   <si>
+    <t>10:16:01</t>
+  </si>
+  <si>
+    <t>003376</t>
+  </si>
+  <si>
+    <t>广发中债7-10年国开债指数A</t>
+  </si>
+  <si>
+    <t>债券</t>
+  </si>
+  <si>
+    <t>国内债券</t>
+  </si>
+  <si>
+    <t>纯债</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=1bcdd612e8804e0887645dea7acdd0c4&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2017-03-31</t>
   </si>
   <si>
+    <t>14:03:11</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=4f4bb4f2d55147e09a81496091a07a3c&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2017-04-14</t>
   </si>
   <si>
+    <t>11:02:51</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=3570cd696b1740bc83f98fe13cccfca7&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2017-04-25</t>
   </si>
   <si>
+    <t>14:01:30</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=a416689a55ff4ce0b71a9fb526341500&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>14:02:51</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=7cc4ba6646ad4904aa3f6ab3ad506bc0&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2017-05-23</t>
   </si>
   <si>
+    <t>13:45:49</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=10b4e25835b64a8ab7be8c4ccfa260a7&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>13:46:56</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=6f6a717a768249d69f12df5fdce1e241&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>13:47:31</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=3d024490f68d4b449180e10694e52fb9&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2017-11-15</t>
   </si>
   <si>
+    <t>10:11:42</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=972ccf3fa9db4d898ebdf99d1bd5cd5c&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-01-19</t>
   </si>
   <si>
+    <t>分红</t>
+  </si>
+  <si>
+    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=20180119103030023947177&amp;businType=143&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-04-18</t>
   </si>
   <si>
+    <t>11:05:18</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=02808cd6503442f591e351986766eca4&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-04-26</t>
   </si>
   <si>
+    <t>13:44:11</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=c8bf3733796d4882a14f0bdbccd2e3c8&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-05-14</t>
   </si>
   <si>
+    <t>09:06:42</t>
+  </si>
+  <si>
+    <t>001061</t>
+  </si>
+  <si>
+    <t>华夏海外收益债券A</t>
+  </si>
+  <si>
+    <t>海外债券</t>
+  </si>
+  <si>
+    <t>美元债</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=3f287a4484aa4ff8b344dae30b4be807&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-05-15</t>
   </si>
   <si>
+    <t>10:39:32</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=29c8df025f884b7e90896b40068c7526&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-05-31</t>
   </si>
   <si>
+    <t>14:17:59</t>
+  </si>
+  <si>
+    <t>340001</t>
+  </si>
+  <si>
+    <t>兴全可转债混合</t>
+  </si>
+  <si>
+    <t>可转债</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=a36953bf2a944d7195ea35aa5daa7dfb&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-06-14</t>
   </si>
   <si>
+    <t>13:13:19</t>
+  </si>
+  <si>
+    <t>001469</t>
+  </si>
+  <si>
+    <t>广发中证全指金融地产联接A</t>
+  </si>
+  <si>
+    <t>金融地产</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=6f852432f7ba4c1d80c86aff234efddb&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-06-19</t>
   </si>
   <si>
+    <t>13:04:01</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=e4f5e9d043d94b07930117669a84cb60&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-07-02</t>
   </si>
   <si>
+    <t>12:45:53</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=09ee5ca671824166a17c2dcc57bfa223&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>12:53:38</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=295aea73601e45319daeb2d94776d373&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-07-04</t>
   </si>
   <si>
+    <t>14:11:10</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=d1f8b66887274d7789dd8070321e0e38&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-07-05</t>
   </si>
   <si>
+    <t>13:00:57</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=66ec10c312174be18af018b9957b8b2b&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>13:02:43</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=b2804435ec2a476db2e91d7b921cd5a5&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-07-16</t>
   </si>
   <si>
+    <t>11:15:31</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=35ef1a1b32e24e88a0e43fb8cad27b62&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-08-06</t>
   </si>
   <si>
+    <t>13:24:23</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=86b0dd2d7fff49778e5c50f9ad7d52e8&amp;businType=812&amp;traceNo=e54aca2df00e4a7283ba99af85907ab3</t>
+  </si>
+  <si>
     <t>2018-08-15</t>
   </si>
   <si>
+    <t>12:53:36</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=474a8f8782564026b7c9f38771677e4a&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>12:54:05</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=9da11f42572b42b380b8ebf3583029c3&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-08-17</t>
   </si>
   <si>
+    <t>14:39:19</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=aacef9dc65cd442d98c16c30d1a73d63&amp;businType=22&amp;traceNo=aacef9dc65cd442d98c16c30d1a73d63</t>
+  </si>
+  <si>
+    <t>14:48:16</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=ec0354ac04c74a24bddd23bdea052e49&amp;businType=22&amp;traceNo=ec0354ac04c74a24bddd23bdea052e49</t>
+  </si>
+  <si>
     <t>2018-08-20</t>
   </si>
   <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=203fdca40d5740859b80b1c96811772e&amp;businType=22&amp;traceNo=203fdca40d5740859b80b1c96811772e</t>
+  </si>
+  <si>
     <t>2018-09-28</t>
   </si>
   <si>
+    <t>11:31:03</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=251752d3426e474fbd440fadbbbbfbfb&amp;businType=22&amp;traceNo=251752d3426e474fbd440fadbbbbfbfb</t>
+  </si>
+  <si>
+    <t>11:31:49</t>
+  </si>
+  <si>
+    <t>100038</t>
+  </si>
+  <si>
+    <t>富国沪深300指数增强</t>
+  </si>
+  <si>
+    <t>大盘股</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=2067ff62d9e446dab57a0c2f0813790f&amp;businType=22&amp;traceNo=2067ff62d9e446dab57a0c2f0813790f</t>
+  </si>
+  <si>
+    <t>11:35:26</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=e72842fb00b64d258a4cf1e9281c8ee9&amp;businType=22&amp;traceNo=e72842fb00b64d258a4cf1e9281c8ee9</t>
+  </si>
+  <si>
+    <t>11:40:27</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=496d147c8ddf41cb9677982463ec2a69&amp;businType=22&amp;traceNo=496d147c8ddf41cb9677982463ec2a69</t>
+  </si>
+  <si>
     <t>2018-10-11</t>
   </si>
   <si>
+    <t>11:59:52</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=e53722804f2944f6945b92fef9f54c23&amp;businType=22&amp;traceNo=e53722804f2944f6945b92fef9f54c23</t>
+  </si>
+  <si>
     <t>2018-10-15</t>
   </si>
   <si>
+    <t>11:22:00</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=68b6d3fb229740928a48a9dbb5c5fefe&amp;businType=22&amp;traceNo=68b6d3fb229740928a48a9dbb5c5fefe</t>
+  </si>
+  <si>
+    <t>11:24:26</t>
+  </si>
+  <si>
+    <t>001064</t>
+  </si>
+  <si>
+    <t>广发中证环保ETF联接A</t>
+  </si>
+  <si>
+    <t>中证环保</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=3bfc6655753244c49f6ba1a328d121ee&amp;businType=22&amp;traceNo=3bfc6655753244c49f6ba1a328d121ee</t>
+  </si>
+  <si>
     <t>2018-10-30</t>
   </si>
   <si>
+    <t>12:06:18</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=4a6f97b5f16f43468e9c39d19e8bd703&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>12:10:26</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=434053ca8ac84bed9a7e2a2354f974b2&amp;businType=22&amp;traceNo=434053ca8ac84bed9a7e2a2354f974b2</t>
+  </si>
+  <si>
+    <t>12:11:03</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=f3f77d8c5c6a48e9aa3d35e6619afe74&amp;businType=22&amp;traceNo=f3f77d8c5c6a48e9aa3d35e6619afe74</t>
+  </si>
+  <si>
+    <t>12:11:40</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=5c4fa68e1ffb44ff8b99aa47ad5496db&amp;businType=22&amp;traceNo=5c4fa68e1ffb44ff8b99aa47ad5496db</t>
+  </si>
+  <si>
+    <t>12:12:17</t>
+  </si>
+  <si>
+    <t>110022</t>
+  </si>
+  <si>
+    <t>易方达消费行业</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=815a08232618444cb949b976dd7fc42e&amp;businType=22&amp;traceNo=815a08232618444cb949b976dd7fc42e</t>
+  </si>
+  <si>
+    <t>12:12:43</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=64644d97fa514b54aeff5334e940aae0&amp;businType=22&amp;traceNo=64644d97fa514b54aeff5334e940aae0</t>
+  </si>
+  <si>
+    <t>12:14:00</t>
+  </si>
+  <si>
+    <t>110026</t>
+  </si>
+  <si>
+    <t>易方达创业板ETF联接A</t>
+  </si>
+  <si>
+    <t>中小盘股</t>
+  </si>
+  <si>
+    <t>创业板</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=ae2c6d3f40b04af290ff6eabb0350e8f&amp;businType=22&amp;traceNo=ae2c6d3f40b04af290ff6eabb0350e8f</t>
+  </si>
+  <si>
+    <t>12:14:50</t>
+  </si>
+  <si>
+    <t>161017</t>
+  </si>
+  <si>
+    <t>富国中证500</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=b0967abab4a0458e961287ce82ffa89e&amp;businType=22&amp;traceNo=b0967abab4a0458e961287ce82ffa89e</t>
+  </si>
+  <si>
     <t>2018-11-15</t>
   </si>
   <si>
+    <t>11:52:57</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=62938e001b4741b1b88283fcaedaac3e&amp;businType=22&amp;traceNo=62938e001b4741b1b88283fcaedaac3e</t>
+  </si>
+  <si>
+    <t>11:54:27</t>
+  </si>
+  <si>
+    <t>164906</t>
+  </si>
+  <si>
+    <t>交银中证海外中国互联网指数</t>
+  </si>
+  <si>
+    <t>海外新兴</t>
+  </si>
+  <si>
+    <t>海外互联</t>
+  </si>
+  <si>
+    <t>海外互联网</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=28b38bc89af8425ab1452dc0419fb40a&amp;businType=22&amp;traceNo=28b38bc89af8425ab1452dc0419fb40a</t>
+  </si>
+  <si>
     <t>2018-11-16</t>
   </si>
   <si>
+    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=20181116103030055245546&amp;businType=143&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=201811169898181115303000423844&amp;businType=143&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-11-30</t>
   </si>
   <si>
+    <t>13:03:33</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=d2c75eed60d5493a8eae64256c6ceb26&amp;businType=22&amp;traceNo=d2c75eed60d5493a8eae64256c6ceb26</t>
+  </si>
+  <si>
+    <t>13:04:08</t>
+  </si>
+  <si>
+    <t>000071</t>
+  </si>
+  <si>
+    <t>华夏恒生ETF联接A</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>恒生</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=7bd5d4880ee84373882b807f63f13fbf&amp;businType=22&amp;traceNo=7bd5d4880ee84373882b807f63f13fbf</t>
+  </si>
+  <si>
+    <t>13:04:28</t>
+  </si>
+  <si>
+    <t>162411</t>
+  </si>
+  <si>
+    <t>华宝标普油气上游股票</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>原油</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=efcb7ae3e8c846688d4404c6b4c8b0e5&amp;businType=22&amp;traceNo=efcb7ae3e8c846688d4404c6b4c8b0e5</t>
+  </si>
+  <si>
+    <t>13:05:05</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=4db8da73a7e646219960da3c790f505b&amp;businType=22&amp;traceNo=4db8da73a7e646219960da3c790f505b</t>
+  </si>
+  <si>
+    <t>13:05:37</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=0aa31961294d4d2a82ca02ece9792416&amp;businType=22&amp;traceNo=0aa31961294d4d2a82ca02ece9792416</t>
+  </si>
+  <si>
+    <t>13:07:12</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=095e8c73b5fb4188aec1ecc95e640632&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2018-12-27</t>
   </si>
   <si>
+    <t>14:03:33</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=3f08e402c6424e25bb3b98bf86b4c88a&amp;businType=22&amp;traceNo=3f08e402c6424e25bb3b98bf86b4c88a</t>
+  </si>
+  <si>
+    <t>14:03:54</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=a5646228ccfa4e6eb139eb57caa76679&amp;businType=22&amp;traceNo=a5646228ccfa4e6eb139eb57caa76679</t>
+  </si>
+  <si>
+    <t>14:06:26</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=61ba05e082314f2eb614c715ce57ae70&amp;businType=22&amp;traceNo=61ba05e082314f2eb614c715ce57ae70</t>
+  </si>
+  <si>
     <t>2019-01-15</t>
   </si>
   <si>
+    <t>11:40:33</t>
+  </si>
+  <si>
+    <t>519977</t>
+  </si>
+  <si>
+    <t>长信可转债债券A</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=ca2b3ec33ad347e9a3b196dbb8d22f2b&amp;businType=22&amp;traceNo=ca2b3ec33ad347e9a3b196dbb8d22f2b</t>
+  </si>
+  <si>
+    <t>11:41:48</t>
+  </si>
+  <si>
+    <t>华夏收益债券(QDII)A</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=b29d0974ab034e3caeec9f49a666eae8&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2019-01-31</t>
   </si>
   <si>
+    <t>11:11:59</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=edaf0342b22b466cb8c646cb109111bc&amp;businType=22&amp;traceNo=edaf0342b22b466cb8c646cb109111bc</t>
+  </si>
+  <si>
+    <t>11:12:19</t>
+  </si>
+  <si>
+    <t>110027</t>
+  </si>
+  <si>
+    <t>易方达安心回报债券A</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=829b40ba41eb4385922d9d5870aec1d5&amp;businType=22&amp;traceNo=829b40ba41eb4385922d9d5870aec1d5</t>
+  </si>
+  <si>
     <t>2019-03-28</t>
   </si>
   <si>
+    <t>11:34:46</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=a134944ad8d64c24940cba8e1e3ca1ba&amp;businType=22&amp;traceNo=a134944ad8d64c24940cba8e1e3ca1ba</t>
+  </si>
+  <si>
+    <t>11:35:15</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=823403bfc2a640689ba58a4dea413fd3&amp;businType=22&amp;traceNo=823403bfc2a640689ba58a4dea413fd3</t>
+  </si>
+  <si>
     <t>2019-04-15</t>
   </si>
   <si>
+    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=20190415113030065254274&amp;businType=143&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2019-04-26</t>
   </si>
   <si>
+    <t>12:57:22</t>
+  </si>
+  <si>
+    <t>004752</t>
+  </si>
+  <si>
+    <t>广发中证传媒ETF联接A</t>
+  </si>
+  <si>
+    <t>中证传媒</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=fa3683e5b3f24669b6f4e56ffc861ae8&amp;businType=22&amp;traceNo=fa3683e5b3f24669b6f4e56ffc861ae8</t>
+  </si>
+  <si>
     <t>2019-05-15</t>
   </si>
   <si>
+    <t>10:31:16</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=1a3d38c807e94b4aacfa51e517ebd8d7&amp;businType=812&amp;traceNo=5671e257df1f4cc1a0c57b757bf280a1</t>
+  </si>
+  <si>
+    <t>10:32:41</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=11d0ed766cb64d2689ef1db5ab445f61&amp;businType=22&amp;traceNo=11d0ed766cb64d2689ef1db5ab445f61</t>
+  </si>
+  <si>
     <t>2019-05-30</t>
   </si>
   <si>
+    <t>11:48:29</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=1d9dcde57a3f462a947510a2c430d370&amp;businType=22&amp;traceNo=1d9dcde57a3f462a947510a2c430d370</t>
+  </si>
+  <si>
+    <t>11:48:59</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=c06e214eee584d6a9ddee040aa143eb8&amp;businType=22&amp;traceNo=c06e214eee584d6a9ddee040aa143eb8</t>
+  </si>
+  <si>
     <t>2019-06-18</t>
   </si>
   <si>
+    <t>10:01:29</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=2e67ded05a14429e82077bc6caed0da0&amp;businType=22&amp;traceNo=2e67ded05a14429e82077bc6caed0da0</t>
+  </si>
+  <si>
     <t>2019-06-24</t>
   </si>
   <si>
+    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=20190624343030006950192&amp;businType=143&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2019-07-11</t>
   </si>
   <si>
+    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=201907110330320190710564476850&amp;businType=143&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2019-07-31</t>
   </si>
   <si>
+    <t>10:48:18</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=d018c657c9604442b5508fd4f3d08174&amp;businType=22&amp;traceNo=d018c657c9604442b5508fd4f3d08174</t>
+  </si>
+  <si>
     <t>2019-09-17</t>
   </si>
   <si>
+    <t>12:23:01</t>
+  </si>
+  <si>
+    <t>002903</t>
+  </si>
+  <si>
+    <t>广发中证500ETF联接C</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=4ff0308f6de14a3392133fd125ccc6c2&amp;businType=22&amp;traceNo=4ff0308f6de14a3392133fd125ccc6c2</t>
+  </si>
+  <si>
+    <t>12:23:54</t>
+  </si>
+  <si>
+    <t>003647</t>
+  </si>
+  <si>
+    <t>创金合信中证1000指数增强C</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=27bc28ebfb884bffbdc0dbea06154f09&amp;businType=22&amp;traceNo=27bc28ebfb884bffbdc0dbea06154f09</t>
+  </si>
+  <si>
+    <t>14:31:28</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=0dd7dc83e91946d9921bc429f47988f5&amp;businType=22&amp;traceNo=0dd7dc83e91946d9921bc429f47988f5</t>
+  </si>
+  <si>
     <t>2019-09-25</t>
   </si>
   <si>
+    <t>14:19:12</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=136d7f73b1894bbd835a0b24b219aa38&amp;businType=22&amp;traceNo=136d7f73b1894bbd835a0b24b219aa38</t>
+  </si>
+  <si>
     <t>2019-12-02</t>
   </si>
   <si>
+    <t>12:25:01</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=a89bfebf62684c02b5dbc1c39977051e&amp;businType=812&amp;traceNo=ffa38d566ec84c2ea9c5d8eaf292206e</t>
+  </si>
+  <si>
+    <t>12:26:14</t>
+  </si>
+  <si>
+    <t>000478</t>
+  </si>
+  <si>
+    <t>建信中证500指数增强A</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=f1d0772205c8403380f9e4f00c0988c7&amp;businType=22&amp;traceNo=f1d0772205c8403380f9e4f00c0988c7</t>
+  </si>
+  <si>
     <t>2020-01-06</t>
   </si>
   <si>
+    <t>10:37:25</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=0a23d21d068b49839262440299079577&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>10:38:20</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=1eb7908155cb4e8c869ee1cef3af84c8&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-02-18</t>
   </si>
   <si>
+    <t>14:49:33</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=7ab73487a17d426fb43b5c70607ab1c5&amp;businType=812&amp;traceNo=b812de433b5e4551850fd61b86dec0bf</t>
+  </si>
+  <si>
     <t>2020-02-26</t>
   </si>
   <si>
-    <t>2020-03-02</t>
+    <t>13:14:53</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=b36036a7da5944e79820a526a93d9feb&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>自补分红</t>
   </si>
   <si>
     <t>2020-03-09</t>
   </si>
   <si>
+    <t>11:48:42</t>
+  </si>
+  <si>
+    <t>501018</t>
+  </si>
+  <si>
+    <t>南方原油A</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=cb7d1471b713425da577fc5b604faab7&amp;businType=22&amp;traceNo=cb7d1471b713425da577fc5b604faab7</t>
+  </si>
+  <si>
+    <t>12:01:22</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=f7ce93e977e74da799951d5ba98a23ac&amp;businType=8151&amp;traceNo=0a410e0d2b5d4e53bc13cb3d6da41a8c</t>
+  </si>
+  <si>
     <t>2020-03-11</t>
   </si>
   <si>
+    <t>11:41:25</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=884775f6c8bf40ab887b9dd7a97617ca&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>13:04:25</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=b1f96532215147b7b1e36881ad0721a5&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-03-13</t>
   </si>
   <si>
+    <t>12:24:04</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=b839bf32088f441092a002dee7f84b89&amp;businType=22&amp;traceNo=b839bf32088f441092a002dee7f84b89</t>
+  </si>
+  <si>
+    <t>12:24:20</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=b47409248dcc454aaf6869a6766dc46f&amp;businType=22&amp;traceNo=b47409248dcc454aaf6869a6766dc46f</t>
+  </si>
+  <si>
     <t>2020-03-18</t>
   </si>
   <si>
+    <t>12:45:06</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=010358e12f144e9bad93b1169de04338&amp;businType=22&amp;traceNo=010358e12f144e9bad93b1169de04338</t>
+  </si>
+  <si>
     <t>2020-03-19</t>
   </si>
   <si>
+    <t>14:06:38</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=a754d9b2698048e5881bc887aa587128&amp;businType=8151&amp;traceNo=e28d19d784cb48128e43070e9ebc0667</t>
+  </si>
+  <si>
+    <t>14:08:34</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=fef63d7550ee4cddaecf33e76a7c105c&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>14:09:59</t>
+  </si>
+  <si>
+    <t>050025</t>
+  </si>
+  <si>
+    <t>博时标普500ETF联接A</t>
+  </si>
+  <si>
+    <t>标普500</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=5aa22e59af344e2f8bb90ade34c67832&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-04-29</t>
   </si>
   <si>
+    <t>https://query.1234567.com.cn/Query/Detail?id=340c5c12b6734d8180fcbe9ecdb3e13d&amp;businType=26&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-04-30</t>
   </si>
   <si>
+    <t>12:31:26</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=f2a499cb52c14779b89c59a38b2ebeb0&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
+    <t>12:32:34</t>
+  </si>
+  <si>
+    <t>富国中证红利指数增强A</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=62f6d9d2ac2a4775bdd53e84e7768108&amp;businType=22&amp;traceNo=62f6d9d2ac2a4775bdd53e84e7768108</t>
+  </si>
+  <si>
     <t>2020-05-18</t>
   </si>
   <si>
+    <t>13:53:04</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=a1aaed2d8a0848dc8e9c6536cd24f181&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-06-09</t>
   </si>
   <si>
+    <t>13:32:18</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=ca677d63e827434e94b7805f06bb8a5f&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-06-24</t>
   </si>
   <si>
+    <t>13:56:36</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=5060f6620e7341e098aa7878488f7b23&amp;businType=8151&amp;traceNo=e457d52d147849dbb91727e4b8baefce</t>
+  </si>
+  <si>
+    <t>13:58:24</t>
+  </si>
+  <si>
+    <t>270048</t>
+  </si>
+  <si>
+    <t>广发纯债债券A</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=e97d9a0c40014d53821bff7d9784423c&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-07-14</t>
   </si>
   <si>
+    <t>红利发放(现金分红)_https://query.1234567.com.cn/Query/Detail?id=20200714273030072541737&amp;businType=143&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-07-16</t>
   </si>
   <si>
+    <t>12:20:10</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=dcc4edb2569f42db8e4dfc8f21942890&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-07-17</t>
   </si>
   <si>
+    <t>11:12:28</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=4c9fbc26ee654c3dbdd3bbad1a7605e7&amp;businType=8151&amp;traceNo=2d63b0a75e5c4b4191247f1aa38054a8</t>
+  </si>
+  <si>
     <t>2020-08-05</t>
   </si>
   <si>
+    <t>14:47:38</t>
+  </si>
+  <si>
+    <t>001594</t>
+  </si>
+  <si>
+    <t>天弘中证银行指数A</t>
+  </si>
+  <si>
+    <t>中证银行</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=cf4b5c9e01874641a474a194d2fbea1a&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-08-12</t>
   </si>
   <si>
+    <t>14:42:16</t>
+  </si>
+  <si>
+    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=175f208fa76d47bc97cf1acdda17ce0b&amp;businType=24&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-08-26</t>
   </si>
   <si>
+    <t>14:46:28</t>
+  </si>
+  <si>
+    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=0ea43d46f69c46768b6bda99d75c7a3e&amp;businType=22&amp;traceNo=</t>
+  </si>
+  <si>
     <t>2020-09-01</t>
   </si>
   <si>
-    <t>13:09:40</t>
-  </si>
-  <si>
-    <t>08:44:39</t>
-  </si>
-  <si>
-    <t>14:59:00</t>
-  </si>
-  <si>
-    <t>14:08:10</t>
-  </si>
-  <si>
-    <t>11:04:04</t>
-  </si>
-  <si>
-    <t>13:58:30</t>
-  </si>
-  <si>
-    <t>14:34:07</t>
-  </si>
-  <si>
-    <t>13:26:58</t>
-  </si>
-  <si>
-    <t>13:58:12</t>
-  </si>
-  <si>
-    <t>10:16:01</t>
-  </si>
-  <si>
-    <t>14:03:11</t>
-  </si>
-  <si>
-    <t>11:02:51</t>
-  </si>
-  <si>
-    <t>14:01:30</t>
-  </si>
-  <si>
-    <t>14:02:51</t>
-  </si>
-  <si>
-    <t>13:45:49</t>
-  </si>
-  <si>
-    <t>13:46:56</t>
-  </si>
-  <si>
-    <t>13:47:31</t>
-  </si>
-  <si>
-    <t>10:11:42</t>
-  </si>
-  <si>
-    <t>11:05:18</t>
-  </si>
-  <si>
-    <t>13:44:11</t>
-  </si>
-  <si>
-    <t>09:06:42</t>
-  </si>
-  <si>
-    <t>10:39:32</t>
-  </si>
-  <si>
-    <t>14:17:59</t>
-  </si>
-  <si>
-    <t>13:13:19</t>
-  </si>
-  <si>
-    <t>13:04:01</t>
-  </si>
-  <si>
-    <t>12:45:53</t>
-  </si>
-  <si>
-    <t>12:53:38</t>
-  </si>
-  <si>
-    <t>14:11:10</t>
-  </si>
-  <si>
-    <t>13:00:57</t>
-  </si>
-  <si>
-    <t>13:02:43</t>
-  </si>
-  <si>
-    <t>11:15:31</t>
-  </si>
-  <si>
-    <t>13:24:23</t>
-  </si>
-  <si>
-    <t>12:53:36</t>
-  </si>
-  <si>
-    <t>12:54:05</t>
-  </si>
-  <si>
-    <t>14:39:19</t>
-  </si>
-  <si>
-    <t>14:48:16</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>11:31:03</t>
-  </si>
-  <si>
-    <t>11:31:49</t>
-  </si>
-  <si>
-    <t>11:35:26</t>
-  </si>
-  <si>
-    <t>11:40:27</t>
-  </si>
-  <si>
-    <t>11:59:52</t>
-  </si>
-  <si>
-    <t>11:22:00</t>
-  </si>
-  <si>
-    <t>11:24:26</t>
-  </si>
-  <si>
-    <t>12:06:18</t>
-  </si>
-  <si>
-    <t>12:10:26</t>
-  </si>
-  <si>
-    <t>12:11:03</t>
-  </si>
-  <si>
-    <t>12:11:40</t>
-  </si>
-  <si>
-    <t>12:12:17</t>
-  </si>
-  <si>
-    <t>12:12:43</t>
-  </si>
-  <si>
-    <t>12:14:00</t>
-  </si>
-  <si>
-    <t>12:14:50</t>
-  </si>
-  <si>
-    <t>11:52:57</t>
-  </si>
-  <si>
-    <t>11:54:27</t>
-  </si>
-  <si>
-    <t>13:03:33</t>
-  </si>
-  <si>
-    <t>13:04:08</t>
-  </si>
-  <si>
-    <t>13:04:28</t>
-  </si>
-  <si>
-    <t>13:05:05</t>
-  </si>
-  <si>
-    <t>13:05:37</t>
-  </si>
-  <si>
-    <t>13:07:12</t>
-  </si>
-  <si>
-    <t>14:03:33</t>
-  </si>
-  <si>
-    <t>14:03:54</t>
-  </si>
-  <si>
-    <t>14:06:26</t>
-  </si>
-  <si>
-    <t>11:40:33</t>
-  </si>
-  <si>
-    <t>11:41:48</t>
-  </si>
-  <si>
-    <t>11:11:59</t>
-  </si>
-  <si>
-    <t>11:12:19</t>
-  </si>
-  <si>
-    <t>11:34:46</t>
-  </si>
-  <si>
-    <t>11:35:15</t>
-  </si>
-  <si>
-    <t>12:57:22</t>
-  </si>
-  <si>
-    <t>10:31:16</t>
-  </si>
-  <si>
-    <t>10:32:41</t>
-  </si>
-  <si>
-    <t>11:48:29</t>
-  </si>
-  <si>
-    <t>11:48:59</t>
-  </si>
-  <si>
-    <t>10:01:29</t>
-  </si>
-  <si>
-    <t>10:48:18</t>
-  </si>
-  <si>
-    <t>12:23:01</t>
-  </si>
-  <si>
-    <t>12:23:54</t>
-  </si>
-  <si>
-    <t>14:31:28</t>
-  </si>
-  <si>
-    <t>14:19:12</t>
-  </si>
-  <si>
-    <t>12:25:01</t>
-  </si>
-  <si>
-    <t>12:26:14</t>
-  </si>
-  <si>
-    <t>10:37:25</t>
-  </si>
-  <si>
-    <t>10:38:20</t>
-  </si>
-  <si>
-    <t>14:49:33</t>
-  </si>
-  <si>
-    <t>13:14:53</t>
-  </si>
-  <si>
-    <t>11:48:42</t>
-  </si>
-  <si>
-    <t>12:01:22</t>
-  </si>
-  <si>
-    <t>11:41:25</t>
-  </si>
-  <si>
-    <t>13:04:25</t>
-  </si>
-  <si>
-    <t>12:24:04</t>
-  </si>
-  <si>
-    <t>12:24:20</t>
-  </si>
-  <si>
-    <t>12:45:06</t>
-  </si>
-  <si>
-    <t>14:06:38</t>
-  </si>
-  <si>
-    <t>14:08:34</t>
-  </si>
-  <si>
-    <t>14:09:59</t>
-  </si>
-  <si>
-    <t>12:31:26</t>
-  </si>
-  <si>
-    <t>12:32:34</t>
-  </si>
-  <si>
-    <t>13:53:04</t>
-  </si>
-  <si>
-    <t>13:32:18</t>
-  </si>
-  <si>
-    <t>13:56:36</t>
-  </si>
-  <si>
-    <t>13:58:24</t>
-  </si>
-  <si>
-    <t>12:20:10</t>
-  </si>
-  <si>
-    <t>11:12:28</t>
-  </si>
-  <si>
-    <t>14:47:38</t>
-  </si>
-  <si>
-    <t>14:42:16</t>
-  </si>
-  <si>
-    <t>14:46:28</t>
-  </si>
-  <si>
     <t>12:39:37</t>
   </si>
   <si>
-    <t>161725</t>
-  </si>
-  <si>
-    <t>000179</t>
-  </si>
-  <si>
-    <t>000614</t>
-  </si>
-  <si>
-    <t>001180</t>
-  </si>
-  <si>
-    <t>100032</t>
-  </si>
-  <si>
-    <t>000968</t>
-  </si>
-  <si>
-    <t>003376</t>
-  </si>
-  <si>
-    <t>001061</t>
-  </si>
-  <si>
-    <t>340001</t>
-  </si>
-  <si>
-    <t>001469</t>
-  </si>
-  <si>
-    <t>100038</t>
-  </si>
-  <si>
-    <t>001064</t>
-  </si>
-  <si>
-    <t>110022</t>
-  </si>
-  <si>
-    <t>110026</t>
-  </si>
-  <si>
-    <t>161017</t>
-  </si>
-  <si>
-    <t>164906</t>
-  </si>
-  <si>
-    <t>000071</t>
-  </si>
-  <si>
-    <t>162411</t>
-  </si>
-  <si>
-    <t>519977</t>
-  </si>
-  <si>
-    <t>110027</t>
-  </si>
-  <si>
-    <t>004752</t>
-  </si>
-  <si>
-    <t>002903</t>
-  </si>
-  <si>
-    <t>003647</t>
-  </si>
-  <si>
-    <t>000478</t>
-  </si>
-  <si>
-    <t>501018</t>
-  </si>
-  <si>
-    <t>050025</t>
-  </si>
-  <si>
-    <t>270048</t>
-  </si>
-  <si>
-    <t>001594</t>
-  </si>
-  <si>
     <t>000563</t>
   </si>
   <si>
-    <t>招商中证白酒指数分级</t>
-  </si>
-  <si>
-    <t>广发美国房地产指数</t>
-  </si>
-  <si>
-    <t>华安德国30(DAX)联接</t>
-  </si>
-  <si>
-    <t>广发医药卫生联接A</t>
-  </si>
-  <si>
-    <t>富国中证红利指数增强</t>
-  </si>
-  <si>
-    <t>广发养老指数A</t>
-  </si>
-  <si>
-    <t>广发中债7-10年国开债指数A</t>
-  </si>
-  <si>
-    <t>华夏海外收益债券A</t>
-  </si>
-  <si>
-    <t>兴全可转债混合</t>
-  </si>
-  <si>
-    <t>广发中证全指金融地产联接A</t>
-  </si>
-  <si>
-    <t>富国沪深300指数增强</t>
-  </si>
-  <si>
-    <t>广发中证环保ETF联接A</t>
-  </si>
-  <si>
-    <t>易方达消费行业</t>
-  </si>
-  <si>
-    <t>易方达创业板ETF联接A</t>
-  </si>
-  <si>
-    <t>富国中证500</t>
-  </si>
-  <si>
-    <t>交银中证海外中国互联网指数</t>
-  </si>
-  <si>
-    <t>华夏恒生ETF联接A</t>
-  </si>
-  <si>
-    <t>华宝标普油气上游股票</t>
-  </si>
-  <si>
-    <t>长信可转债债券A</t>
-  </si>
-  <si>
-    <t>华夏收益债券(QDII)A</t>
-  </si>
-  <si>
-    <t>易方达安心回报债券A</t>
-  </si>
-  <si>
-    <t>广发中证传媒ETF联接A</t>
-  </si>
-  <si>
-    <t>广发中证500ETF联接C</t>
-  </si>
-  <si>
-    <t>创金合信中证1000指数增强C</t>
-  </si>
-  <si>
-    <t>建信中证500指数增强A</t>
-  </si>
-  <si>
-    <t>南方原油A</t>
-  </si>
-  <si>
-    <t>博时标普500ETF联接A</t>
-  </si>
-  <si>
-    <t>富国中证红利指数增强A</t>
-  </si>
-  <si>
-    <t>广发纯债债券A</t>
-  </si>
-  <si>
-    <t>天弘中证银行指数A</t>
-  </si>
-  <si>
     <t>南方通利债券A</t>
-  </si>
-  <si>
-    <t>买入</t>
-  </si>
-  <si>
-    <t>卖出</t>
-  </si>
-  <si>
-    <t>分红</t>
-  </si>
-  <si>
-    <t>康力泉_天天</t>
-  </si>
-  <si>
-    <t>A 股</t>
-  </si>
-  <si>
-    <t>海外成熟</t>
-  </si>
-  <si>
-    <t>债券</t>
-  </si>
-  <si>
-    <t>海外新兴</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>行业股</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>红利价值</t>
-  </si>
-  <si>
-    <t>国内债券</t>
-  </si>
-  <si>
-    <t>海外债券</t>
-  </si>
-  <si>
-    <t>大盘股</t>
-  </si>
-  <si>
-    <t>中小盘股</t>
-  </si>
-  <si>
-    <t>海外互联</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>全指消费</t>
-  </si>
-  <si>
-    <t>房地产</t>
-  </si>
-  <si>
-    <t>德国30</t>
-  </si>
-  <si>
-    <t>全指医药</t>
-  </si>
-  <si>
-    <t>中证红利</t>
-  </si>
-  <si>
-    <t>养老产业</t>
-  </si>
-  <si>
-    <t>纯债</t>
-  </si>
-  <si>
-    <t>美元债</t>
-  </si>
-  <si>
-    <t>可转债</t>
-  </si>
-  <si>
-    <t>金融地产</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证环保</t>
-  </si>
-  <si>
-    <t>创业板</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>海外互联网</t>
-  </si>
-  <si>
-    <t>恒生</t>
-  </si>
-  <si>
-    <t>原油</t>
-  </si>
-  <si>
-    <t>中证传媒</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>标普500</t>
-  </si>
-  <si>
-    <t>中证银行</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=fdb0dbf1fbd246dc88cfcab1547a1fcb&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=c568af353b7e40faa1cf583e1bc00c44&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=214341fbc30e4978bb325a639830accb&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=2362d357ea9743e4b12531160ce0593f&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=e6487d0396f046aeac18c546bfc76d34&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=8fcd1c2a289f4250b916a30c3f1eb083&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=f37be7b0121c4df5b94666d9b4d4a4e9&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=248f32037f32480cb4efc873015272cb&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=05e5bfe994b5478cae6173bee3f60406&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=1bcdd612e8804e0887645dea7acdd0c4&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=4f4bb4f2d55147e09a81496091a07a3c&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=3570cd696b1740bc83f98fe13cccfca7&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=a416689a55ff4ce0b71a9fb526341500&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=7cc4ba6646ad4904aa3f6ab3ad506bc0&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=10b4e25835b64a8ab7be8c4ccfa260a7&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=6f6a717a768249d69f12df5fdce1e241&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=3d024490f68d4b449180e10694e52fb9&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=972ccf3fa9db4d898ebdf99d1bd5cd5c&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=20180119103030023947177&amp;businType=143&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=02808cd6503442f591e351986766eca4&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=c8bf3733796d4882a14f0bdbccd2e3c8&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=3f287a4484aa4ff8b344dae30b4be807&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=29c8df025f884b7e90896b40068c7526&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=a36953bf2a944d7195ea35aa5daa7dfb&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=6f852432f7ba4c1d80c86aff234efddb&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=e4f5e9d043d94b07930117669a84cb60&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=09ee5ca671824166a17c2dcc57bfa223&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=295aea73601e45319daeb2d94776d373&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=d1f8b66887274d7789dd8070321e0e38&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=66ec10c312174be18af018b9957b8b2b&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=b2804435ec2a476db2e91d7b921cd5a5&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=35ef1a1b32e24e88a0e43fb8cad27b62&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=86b0dd2d7fff49778e5c50f9ad7d52e8&amp;businType=812&amp;traceNo=e54aca2df00e4a7283ba99af85907ab3</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=474a8f8782564026b7c9f38771677e4a&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=9da11f42572b42b380b8ebf3583029c3&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=aacef9dc65cd442d98c16c30d1a73d63&amp;businType=22&amp;traceNo=aacef9dc65cd442d98c16c30d1a73d63</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=ec0354ac04c74a24bddd23bdea052e49&amp;businType=22&amp;traceNo=ec0354ac04c74a24bddd23bdea052e49</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=203fdca40d5740859b80b1c96811772e&amp;businType=22&amp;traceNo=203fdca40d5740859b80b1c96811772e</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=251752d3426e474fbd440fadbbbbfbfb&amp;businType=22&amp;traceNo=251752d3426e474fbd440fadbbbbfbfb</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=2067ff62d9e446dab57a0c2f0813790f&amp;businType=22&amp;traceNo=2067ff62d9e446dab57a0c2f0813790f</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=e72842fb00b64d258a4cf1e9281c8ee9&amp;businType=22&amp;traceNo=e72842fb00b64d258a4cf1e9281c8ee9</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=496d147c8ddf41cb9677982463ec2a69&amp;businType=22&amp;traceNo=496d147c8ddf41cb9677982463ec2a69</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=e53722804f2944f6945b92fef9f54c23&amp;businType=22&amp;traceNo=e53722804f2944f6945b92fef9f54c23</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=68b6d3fb229740928a48a9dbb5c5fefe&amp;businType=22&amp;traceNo=68b6d3fb229740928a48a9dbb5c5fefe</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=3bfc6655753244c49f6ba1a328d121ee&amp;businType=22&amp;traceNo=3bfc6655753244c49f6ba1a328d121ee</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=4a6f97b5f16f43468e9c39d19e8bd703&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=434053ca8ac84bed9a7e2a2354f974b2&amp;businType=22&amp;traceNo=434053ca8ac84bed9a7e2a2354f974b2</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=f3f77d8c5c6a48e9aa3d35e6619afe74&amp;businType=22&amp;traceNo=f3f77d8c5c6a48e9aa3d35e6619afe74</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=5c4fa68e1ffb44ff8b99aa47ad5496db&amp;businType=22&amp;traceNo=5c4fa68e1ffb44ff8b99aa47ad5496db</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=815a08232618444cb949b976dd7fc42e&amp;businType=22&amp;traceNo=815a08232618444cb949b976dd7fc42e</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=64644d97fa514b54aeff5334e940aae0&amp;businType=22&amp;traceNo=64644d97fa514b54aeff5334e940aae0</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=ae2c6d3f40b04af290ff6eabb0350e8f&amp;businType=22&amp;traceNo=ae2c6d3f40b04af290ff6eabb0350e8f</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=b0967abab4a0458e961287ce82ffa89e&amp;businType=22&amp;traceNo=b0967abab4a0458e961287ce82ffa89e</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=62938e001b4741b1b88283fcaedaac3e&amp;businType=22&amp;traceNo=62938e001b4741b1b88283fcaedaac3e</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=28b38bc89af8425ab1452dc0419fb40a&amp;businType=22&amp;traceNo=28b38bc89af8425ab1452dc0419fb40a</t>
-  </si>
-  <si>
-    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=20181116103030055245546&amp;businType=143&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=201811169898181115303000423844&amp;businType=143&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=d2c75eed60d5493a8eae64256c6ceb26&amp;businType=22&amp;traceNo=d2c75eed60d5493a8eae64256c6ceb26</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=7bd5d4880ee84373882b807f63f13fbf&amp;businType=22&amp;traceNo=7bd5d4880ee84373882b807f63f13fbf</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=efcb7ae3e8c846688d4404c6b4c8b0e5&amp;businType=22&amp;traceNo=efcb7ae3e8c846688d4404c6b4c8b0e5</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=4db8da73a7e646219960da3c790f505b&amp;businType=22&amp;traceNo=4db8da73a7e646219960da3c790f505b</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=0aa31961294d4d2a82ca02ece9792416&amp;businType=22&amp;traceNo=0aa31961294d4d2a82ca02ece9792416</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=095e8c73b5fb4188aec1ecc95e640632&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=3f08e402c6424e25bb3b98bf86b4c88a&amp;businType=22&amp;traceNo=3f08e402c6424e25bb3b98bf86b4c88a</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=a5646228ccfa4e6eb139eb57caa76679&amp;businType=22&amp;traceNo=a5646228ccfa4e6eb139eb57caa76679</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=61ba05e082314f2eb614c715ce57ae70&amp;businType=22&amp;traceNo=61ba05e082314f2eb614c715ce57ae70</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=ca2b3ec33ad347e9a3b196dbb8d22f2b&amp;businType=22&amp;traceNo=ca2b3ec33ad347e9a3b196dbb8d22f2b</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=b29d0974ab034e3caeec9f49a666eae8&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=edaf0342b22b466cb8c646cb109111bc&amp;businType=22&amp;traceNo=edaf0342b22b466cb8c646cb109111bc</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=829b40ba41eb4385922d9d5870aec1d5&amp;businType=22&amp;traceNo=829b40ba41eb4385922d9d5870aec1d5</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=a134944ad8d64c24940cba8e1e3ca1ba&amp;businType=22&amp;traceNo=a134944ad8d64c24940cba8e1e3ca1ba</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=823403bfc2a640689ba58a4dea413fd3&amp;businType=22&amp;traceNo=823403bfc2a640689ba58a4dea413fd3</t>
-  </si>
-  <si>
-    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=20190415113030065254274&amp;businType=143&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=fa3683e5b3f24669b6f4e56ffc861ae8&amp;businType=22&amp;traceNo=fa3683e5b3f24669b6f4e56ffc861ae8</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=1a3d38c807e94b4aacfa51e517ebd8d7&amp;businType=812&amp;traceNo=5671e257df1f4cc1a0c57b757bf280a1</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=11d0ed766cb64d2689ef1db5ab445f61&amp;businType=22&amp;traceNo=11d0ed766cb64d2689ef1db5ab445f61</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=1d9dcde57a3f462a947510a2c430d370&amp;businType=22&amp;traceNo=1d9dcde57a3f462a947510a2c430d370</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=c06e214eee584d6a9ddee040aa143eb8&amp;businType=22&amp;traceNo=c06e214eee584d6a9ddee040aa143eb8</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=2e67ded05a14429e82077bc6caed0da0&amp;businType=22&amp;traceNo=2e67ded05a14429e82077bc6caed0da0</t>
-  </si>
-  <si>
-    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=20190624343030006950192&amp;businType=143&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>红利发放(红利再投资)_https://query.1234567.com.cn/Query/Detail?id=201907110330320190710564476850&amp;businType=143&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=d018c657c9604442b5508fd4f3d08174&amp;businType=22&amp;traceNo=d018c657c9604442b5508fd4f3d08174</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=4ff0308f6de14a3392133fd125ccc6c2&amp;businType=22&amp;traceNo=4ff0308f6de14a3392133fd125ccc6c2</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=27bc28ebfb884bffbdc0dbea06154f09&amp;businType=22&amp;traceNo=27bc28ebfb884bffbdc0dbea06154f09</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=0dd7dc83e91946d9921bc429f47988f5&amp;businType=22&amp;traceNo=0dd7dc83e91946d9921bc429f47988f5</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=136d7f73b1894bbd835a0b24b219aa38&amp;businType=22&amp;traceNo=136d7f73b1894bbd835a0b24b219aa38</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=a89bfebf62684c02b5dbc1c39977051e&amp;businType=812&amp;traceNo=ffa38d566ec84c2ea9c5d8eaf292206e</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=f1d0772205c8403380f9e4f00c0988c7&amp;businType=22&amp;traceNo=f1d0772205c8403380f9e4f00c0988c7</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=0a23d21d068b49839262440299079577&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=1eb7908155cb4e8c869ee1cef3af84c8&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=7ab73487a17d426fb43b5c70607ab1c5&amp;businType=812&amp;traceNo=b812de433b5e4551850fd61b86dec0bf</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=b36036a7da5944e79820a526a93d9feb&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>自补分红</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=cb7d1471b713425da577fc5b604faab7&amp;businType=22&amp;traceNo=cb7d1471b713425da577fc5b604faab7</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=f7ce93e977e74da799951d5ba98a23ac&amp;businType=8151&amp;traceNo=0a410e0d2b5d4e53bc13cb3d6da41a8c</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=884775f6c8bf40ab887b9dd7a97617ca&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=b1f96532215147b7b1e36881ad0721a5&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=b839bf32088f441092a002dee7f84b89&amp;businType=22&amp;traceNo=b839bf32088f441092a002dee7f84b89</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=b47409248dcc454aaf6869a6766dc46f&amp;businType=22&amp;traceNo=b47409248dcc454aaf6869a6766dc46f</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=010358e12f144e9bad93b1169de04338&amp;businType=22&amp;traceNo=010358e12f144e9bad93b1169de04338</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=a754d9b2698048e5881bc887aa587128&amp;businType=8151&amp;traceNo=e28d19d784cb48128e43070e9ebc0667</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=fef63d7550ee4cddaecf33e76a7c105c&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=5aa22e59af344e2f8bb90ade34c67832&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>https://query.1234567.com.cn/Query/Detail?id=340c5c12b6734d8180fcbe9ecdb3e13d&amp;businType=26&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=f2a499cb52c14779b89c59a38b2ebeb0&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=62f6d9d2ac2a4775bdd53e84e7768108&amp;businType=22&amp;traceNo=62f6d9d2ac2a4775bdd53e84e7768108</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=a1aaed2d8a0848dc8e9c6536cd24f181&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=ca677d63e827434e94b7805f06bb8a5f&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=5060f6620e7341e098aa7878488f7b23&amp;businType=8151&amp;traceNo=e457d52d147849dbb91727e4b8baefce</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=e97d9a0c40014d53821bff7d9784423c&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>红利发放(现金分红)_https://query.1234567.com.cn/Query/Detail?id=20200714273030072541737&amp;businType=143&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=dcc4edb2569f42db8e4dfc8f21942890&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=4c9fbc26ee654c3dbdd3bbad1a7605e7&amp;businType=8151&amp;traceNo=2d63b0a75e5c4b4191247f1aa38054a8</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=cf4b5c9e01874641a474a194d2fbea1a&amp;businType=22&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>赎回确认_https://query.1234567.com.cn/Query/Detail?id=175f208fa76d47bc97cf1acdda17ce0b&amp;businType=24&amp;traceNo=</t>
-  </si>
-  <si>
-    <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=0ea43d46f69c46768b6bda99d75c7a3e&amp;businType=22&amp;traceNo=</t>
   </si>
   <si>
     <t>申购确认_https://query.1234567.com.cn/Query/Detail?id=3bc1affab873489ebca8144a066a0e56&amp;businType=22&amp;traceNo=</t>
@@ -1265,20 +1265,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1286,18 +1292,347 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1320,27 +1655,318 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1623,19 +2249,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="9.25" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="6.375" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="17" width="11.625" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="157.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="2:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1702,16 +2349,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>0.882</v>
@@ -1732,22 +2379,22 @@
         <v>500</v>
       </c>
       <c r="N2" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="R2">
         <v>148</v>
       </c>
       <c r="S2" t="s">
-        <v>298</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1758,19 +2405,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>1.242</v>
@@ -1791,22 +2438,22 @@
         <v>500</v>
       </c>
       <c r="N3" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="R3">
         <v>314</v>
       </c>
       <c r="S3" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1817,19 +2464,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1.227</v>
@@ -1850,22 +2497,22 @@
         <v>488.38</v>
       </c>
       <c r="N4" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="R4">
         <v>314</v>
       </c>
       <c r="S4" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1876,19 +2523,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" t="s">
-        <v>227</v>
-      </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>0.844</v>
@@ -1909,22 +2556,22 @@
         <v>473.2</v>
       </c>
       <c r="N5" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="s">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="R5">
         <v>148</v>
       </c>
       <c r="S5" t="s">
-        <v>301</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1935,19 +2582,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G6" t="s">
-        <v>258</v>
       </c>
       <c r="H6">
         <v>1.006</v>
@@ -1968,22 +2615,22 @@
         <v>3400</v>
       </c>
       <c r="N6" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="Q6" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="R6">
         <v>321</v>
       </c>
       <c r="S6" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1994,19 +2641,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H7">
         <v>0.7815</v>
@@ -2027,22 +2674,22 @@
         <v>3700</v>
       </c>
       <c r="N7" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="R7">
         <v>142</v>
       </c>
       <c r="S7" t="s">
-        <v>303</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2053,19 +2700,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H8">
         <v>0.7815</v>
@@ -2086,22 +2733,22 @@
         <v>3700</v>
       </c>
       <c r="N8" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="R8">
         <v>142</v>
       </c>
       <c r="S8" t="s">
-        <v>304</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2112,19 +2759,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <v>1.107</v>
@@ -2145,22 +2792,22 @@
         <v>3960</v>
       </c>
       <c r="N9" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q9" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="R9">
         <v>131</v>
       </c>
       <c r="S9" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2171,19 +2818,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>0.9595</v>
@@ -2204,22 +2851,22 @@
         <v>3960</v>
       </c>
       <c r="N10" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R10">
         <v>141</v>
       </c>
       <c r="S10" t="s">
-        <v>306</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2230,19 +2877,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>0.9504</v>
@@ -2263,22 +2910,22 @@
         <v>3960</v>
       </c>
       <c r="N11" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="R11">
         <v>511</v>
       </c>
       <c r="S11" t="s">
-        <v>307</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2289,19 +2936,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H12">
         <v>0.8153</v>
@@ -2322,22 +2969,22 @@
         <v>3960</v>
       </c>
       <c r="N12" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="R12">
         <v>142</v>
       </c>
       <c r="S12" t="s">
-        <v>308</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2348,19 +2995,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>0.9977</v>
@@ -2381,22 +3028,22 @@
         <v>3960</v>
       </c>
       <c r="N13" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R13">
         <v>141</v>
       </c>
       <c r="S13" t="s">
-        <v>309</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2407,19 +3054,19 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H14">
         <v>0.9456</v>
@@ -2440,22 +3087,22 @@
         <v>3960</v>
       </c>
       <c r="N14" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="R14">
         <v>511</v>
       </c>
       <c r="S14" t="s">
-        <v>310</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2466,19 +3113,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H15">
         <v>0.9933</v>
@@ -2499,22 +3146,22 @@
         <v>3960</v>
       </c>
       <c r="N15" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R15">
         <v>141</v>
       </c>
       <c r="S15" t="s">
-        <v>311</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2525,19 +3172,19 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H16">
         <v>0.9959</v>
@@ -2558,22 +3205,22 @@
         <v>7920</v>
       </c>
       <c r="N16" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R16">
         <v>141</v>
       </c>
       <c r="S16" t="s">
-        <v>312</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2584,19 +3231,19 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H17">
         <v>0.9354</v>
@@ -2617,22 +3264,22 @@
         <v>3960</v>
       </c>
       <c r="N17" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O17" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q17" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="R17">
         <v>511</v>
       </c>
       <c r="S17" t="s">
-        <v>313</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2643,19 +3290,19 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H18">
         <v>1.149</v>
@@ -2676,22 +3323,22 @@
         <v>3960</v>
       </c>
       <c r="N18" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O18" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q18" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="R18">
         <v>131</v>
       </c>
       <c r="S18" t="s">
-        <v>314</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2702,19 +3349,19 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H19">
         <v>0.9334</v>
@@ -2735,22 +3382,22 @@
         <v>3960</v>
       </c>
       <c r="N19" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q19" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="R19">
         <v>511</v>
       </c>
       <c r="S19" t="s">
-        <v>315</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2761,19 +3408,19 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="H20">
         <v>1.215</v>
@@ -2794,22 +3441,22 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q20" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="R20">
         <v>131</v>
       </c>
       <c r="S20" t="s">
-        <v>316</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2820,19 +3467,19 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <v>1.092</v>
@@ -2853,22 +3500,22 @@
         <v>20000</v>
       </c>
       <c r="N21" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P21" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q21" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="R21">
         <v>131</v>
       </c>
       <c r="S21" t="s">
-        <v>317</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2879,19 +3526,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>0.9688</v>
@@ -2912,22 +3559,22 @@
         <v>4070.21</v>
       </c>
       <c r="N22" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O22" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q22" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="R22">
         <v>511</v>
       </c>
       <c r="S22" t="s">
-        <v>318</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2938,19 +3585,19 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
         <v>110</v>
       </c>
-      <c r="E23" t="s">
-        <v>205</v>
-      </c>
       <c r="F23" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="G23" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H23">
         <v>1.173</v>
@@ -2971,22 +3618,22 @@
         <v>12800</v>
       </c>
       <c r="N23" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O23" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="Q23" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="R23">
         <v>521</v>
       </c>
       <c r="S23" t="s">
-        <v>319</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2997,19 +3644,19 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
         <v>111</v>
       </c>
-      <c r="E24" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" t="s">
-        <v>234</v>
-      </c>
       <c r="G24" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <v>1.173</v>
@@ -3030,22 +3677,22 @@
         <v>12800</v>
       </c>
       <c r="N24" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P24" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="Q24" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="R24">
         <v>521</v>
       </c>
       <c r="S24" t="s">
-        <v>320</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -3056,19 +3703,19 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="G25" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H25">
         <v>1.0365</v>
@@ -3089,22 +3736,22 @@
         <v>6400</v>
       </c>
       <c r="N25" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O25" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q25" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R25">
         <v>512</v>
       </c>
       <c r="S25" t="s">
-        <v>321</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -3115,19 +3762,19 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H26">
         <v>0.944</v>
@@ -3148,22 +3795,22 @@
         <v>6400</v>
       </c>
       <c r="N26" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O26" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q26" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
       <c r="R26">
         <v>147</v>
       </c>
       <c r="S26" t="s">
-        <v>322</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -3174,19 +3821,19 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H27">
         <v>1.004</v>
@@ -3207,22 +3854,22 @@
         <v>6400</v>
       </c>
       <c r="N27" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q27" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R27">
         <v>512</v>
       </c>
       <c r="S27" t="s">
-        <v>323</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -3233,19 +3880,19 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H28">
         <v>0.85</v>
@@ -3266,22 +3913,22 @@
         <v>6400</v>
       </c>
       <c r="N28" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O28" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q28" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
       <c r="R28">
         <v>147</v>
       </c>
       <c r="S28" t="s">
-        <v>324</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -3292,19 +3939,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H29">
         <v>1.026</v>
@@ -3325,22 +3972,22 @@
         <v>6400</v>
       </c>
       <c r="N29" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O29" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q29" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="R29">
         <v>131</v>
       </c>
       <c r="S29" t="s">
-        <v>325</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -3351,19 +3998,19 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H30">
         <v>0.9997</v>
@@ -3384,22 +4031,22 @@
         <v>6400</v>
       </c>
       <c r="N30" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O30" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q30" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R30">
         <v>141</v>
       </c>
       <c r="S30" t="s">
-        <v>326</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -3410,19 +4057,19 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H31">
         <v>1.01</v>
@@ -3443,22 +4090,22 @@
         <v>6400</v>
       </c>
       <c r="N31" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O31" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q31" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="R31">
         <v>131</v>
       </c>
       <c r="S31" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -3469,19 +4116,19 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>0.9937</v>
@@ -3502,22 +4149,22 @@
         <v>4174.83</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O32" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q32" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="R32">
         <v>511</v>
       </c>
       <c r="S32" t="s">
-        <v>328</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -3528,19 +4175,19 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H33">
         <v>1.197</v>
@@ -3561,22 +4208,22 @@
         <v>6400</v>
       </c>
       <c r="N33" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O33" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="Q33" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="R33">
         <v>321</v>
       </c>
       <c r="S33" t="s">
-        <v>329</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -3587,19 +4234,19 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <v>1.0019</v>
@@ -3620,22 +4267,22 @@
         <v>4209.25</v>
       </c>
       <c r="N34" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O34" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P34" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q34" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="R34">
         <v>511</v>
       </c>
       <c r="S34" t="s">
-        <v>330</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3646,19 +4293,19 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="F35" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="G35" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H35">
         <v>1.251</v>
@@ -3679,22 +4326,22 @@
         <v>6820.11</v>
       </c>
       <c r="N35" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O35" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P35" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="Q35" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="R35">
         <v>521</v>
       </c>
       <c r="S35" t="s">
-        <v>331</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3705,19 +4352,19 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H36">
         <v>1.008</v>
@@ -3738,22 +4385,22 @@
         <v>6400</v>
       </c>
       <c r="N36" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O36" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P36" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q36" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="R36">
         <v>131</v>
       </c>
       <c r="S36" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3764,19 +4411,19 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H37">
         <v>0.7642</v>
@@ -3797,22 +4444,22 @@
         <v>6400</v>
       </c>
       <c r="N37" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O37" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P37" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q37" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="R37">
         <v>142</v>
       </c>
       <c r="S37" t="s">
-        <v>333</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3823,19 +4470,19 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H38">
         <v>0.8976</v>
@@ -3856,22 +4503,22 @@
         <v>6400</v>
       </c>
       <c r="N38" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O38" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P38" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q38" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R38">
         <v>141</v>
       </c>
       <c r="S38" t="s">
-        <v>334</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3882,19 +4529,19 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H39">
         <v>0.8968</v>
@@ -3915,22 +4562,22 @@
         <v>6400</v>
       </c>
       <c r="N39" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O39" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P39" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q39" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R39">
         <v>141</v>
       </c>
       <c r="S39" t="s">
-        <v>335</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3941,19 +4588,19 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="G40" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H40">
         <v>1.0101</v>
@@ -3974,22 +4621,22 @@
         <v>6400</v>
       </c>
       <c r="N40" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O40" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P40" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q40" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R40">
         <v>512</v>
       </c>
       <c r="S40" t="s">
-        <v>336</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -4000,19 +4647,19 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H41">
         <v>1.713</v>
@@ -4033,22 +4680,22 @@
         <v>6400</v>
       </c>
       <c r="N41" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O41" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P41" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="Q41" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="R41">
         <v>113</v>
       </c>
       <c r="S41" t="s">
-        <v>337</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -4059,19 +4706,19 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="F42" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="G42" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H42">
         <v>0.9302</v>
@@ -4092,22 +4739,22 @@
         <v>6400</v>
       </c>
       <c r="N42" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O42" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P42" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q42" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
       <c r="R42">
         <v>147</v>
       </c>
       <c r="S42" t="s">
-        <v>338</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -4118,19 +4765,19 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F43" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H43">
         <v>0.9113</v>
@@ -4151,22 +4798,22 @@
         <v>6400</v>
       </c>
       <c r="N43" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O43" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P43" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q43" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R43">
         <v>141</v>
       </c>
       <c r="S43" t="s">
-        <v>339</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -4177,19 +4824,19 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H44">
         <v>0.699</v>
@@ -4198,7 +4845,7 @@
         <v>0.699</v>
       </c>
       <c r="J44">
-        <v>9144.959999999999</v>
+        <v>9144.96</v>
       </c>
       <c r="K44">
         <v>6392.33</v>
@@ -4210,22 +4857,22 @@
         <v>6400</v>
       </c>
       <c r="N44" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O44" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P44" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q44" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="R44">
         <v>142</v>
       </c>
       <c r="S44" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -4236,25 +4883,25 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H45">
-        <v>0.6951000000000001</v>
+        <v>0.6951</v>
       </c>
       <c r="I45">
-        <v>0.6951000000000001</v>
+        <v>0.6951</v>
       </c>
       <c r="J45">
         <v>9196.27</v>
@@ -4269,22 +4916,22 @@
         <v>6400</v>
       </c>
       <c r="N45" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O45" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P45" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q45" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="R45">
         <v>142</v>
       </c>
       <c r="S45" t="s">
-        <v>341</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -4295,19 +4942,19 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F46" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="G46" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H46">
         <v>0.4769</v>
@@ -4328,22 +4975,22 @@
         <v>6400</v>
       </c>
       <c r="N46" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O46" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P46" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q46" t="s">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="R46">
         <v>143</v>
       </c>
       <c r="S46" t="s">
-        <v>342</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -4354,19 +5001,19 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="F47" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="G47" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1.257</v>
@@ -4387,22 +5034,22 @@
         <v>6852.82</v>
       </c>
       <c r="N47" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O47" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P47" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="Q47" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="R47">
         <v>521</v>
       </c>
       <c r="S47" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -4413,19 +5060,19 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H48">
         <v>0.958</v>
@@ -4446,22 +5093,22 @@
         <v>6400</v>
       </c>
       <c r="N48" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O48" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P48" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q48" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="R48">
         <v>131</v>
       </c>
       <c r="S48" t="s">
-        <v>344</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -4472,19 +5119,19 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="E49" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="G49" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H49">
         <v>1.565</v>
@@ -4505,22 +5152,22 @@
         <v>6400</v>
       </c>
       <c r="N49" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O49" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P49" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="Q49" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="R49">
         <v>113</v>
       </c>
       <c r="S49" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -4531,19 +5178,19 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F50" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H50">
         <v>0.8037</v>
@@ -4564,22 +5211,22 @@
         <v>6400</v>
       </c>
       <c r="N50" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O50" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P50" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q50" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R50">
         <v>141</v>
       </c>
       <c r="S50" t="s">
-        <v>346</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4590,19 +5237,19 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="E51" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="G51" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H51">
         <v>1.713</v>
@@ -4623,22 +5270,22 @@
         <v>6400</v>
       </c>
       <c r="N51" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O51" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P51" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q51" t="s">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="R51">
         <v>148</v>
       </c>
       <c r="S51" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -4649,19 +5296,19 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="G52" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H52">
         <v>0.9808</v>
@@ -4682,22 +5329,22 @@
         <v>6400</v>
       </c>
       <c r="N52" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O52" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P52" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q52" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R52">
         <v>512</v>
       </c>
       <c r="S52" t="s">
-        <v>348</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -4708,19 +5355,19 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F53" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="G53" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H53">
         <v>1.3342</v>
@@ -4741,22 +5388,22 @@
         <v>6400</v>
       </c>
       <c r="N53" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O53" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P53" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q53" t="s">
-        <v>289</v>
+        <v>208</v>
       </c>
       <c r="R53">
         <v>124</v>
       </c>
       <c r="S53" t="s">
-        <v>349</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4767,19 +5414,19 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="E54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" t="s">
         <v>212</v>
       </c>
-      <c r="F54" t="s">
-        <v>241</v>
-      </c>
       <c r="G54" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H54">
         <v>1.636</v>
@@ -4800,22 +5447,22 @@
         <v>6400</v>
       </c>
       <c r="N54" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O54" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P54" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q54" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="R54">
         <v>121</v>
       </c>
       <c r="S54" t="s">
-        <v>350</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4826,19 +5473,19 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F55" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H55">
         <v>0.992</v>
@@ -4859,22 +5506,22 @@
         <v>6400</v>
       </c>
       <c r="N55" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O55" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P55" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q55" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="R55">
         <v>131</v>
       </c>
       <c r="S55" t="s">
-        <v>351</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4885,19 +5532,19 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F56" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G56" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H56">
         <v>1.158</v>
@@ -4918,22 +5565,22 @@
         <v>12800</v>
       </c>
       <c r="N56" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O56" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="P56" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="Q56" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="R56">
         <v>221</v>
       </c>
       <c r="S56" t="s">
-        <v>352</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4944,19 +5591,19 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="F57" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="G57" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="H57">
         <v>1.461</v>
@@ -4977,22 +5624,22 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O57" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P57" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="Q57" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="R57">
         <v>113</v>
       </c>
       <c r="S57" t="s">
-        <v>353</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -5003,19 +5650,19 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" t="s">
         <v>212</v>
       </c>
-      <c r="F58" t="s">
-        <v>241</v>
-      </c>
       <c r="G58" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="H58">
         <v>1.591</v>
@@ -5036,22 +5683,22 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O58" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P58" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q58" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="R58">
         <v>121</v>
       </c>
       <c r="S58" t="s">
-        <v>354</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -5062,19 +5709,19 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" t="s">
         <v>212</v>
       </c>
-      <c r="F59" t="s">
-        <v>241</v>
-      </c>
       <c r="G59" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H59">
         <v>1.518</v>
@@ -5095,22 +5742,22 @@
         <v>6400</v>
       </c>
       <c r="N59" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O59" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P59" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q59" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="R59">
         <v>121</v>
       </c>
       <c r="S59" t="s">
-        <v>355</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -5121,19 +5768,19 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F60" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G60" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H60">
         <v>1.4502</v>
@@ -5154,22 +5801,22 @@
         <v>6400</v>
       </c>
       <c r="N60" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O60" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="P60" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="Q60" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="R60">
         <v>211</v>
       </c>
       <c r="S60" t="s">
-        <v>356</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -5180,25 +5827,25 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="F61" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G61" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H61">
-        <v>0.5669999999999999</v>
+        <v>0.567</v>
       </c>
       <c r="I61">
-        <v>0.5669999999999999</v>
+        <v>0.567</v>
       </c>
       <c r="J61">
         <v>11270.56</v>
@@ -5213,22 +5860,22 @@
         <v>6400</v>
       </c>
       <c r="N61" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O61" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="P61" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="Q61" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="R61">
         <v>613</v>
       </c>
       <c r="S61" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -5239,19 +5886,19 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="G62" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H62">
         <v>1.0041</v>
@@ -5272,22 +5919,22 @@
         <v>6400</v>
       </c>
       <c r="N62" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O62" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P62" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q62" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R62">
         <v>512</v>
       </c>
       <c r="S62" t="s">
-        <v>358</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -5298,19 +5945,19 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="E63" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H63">
         <v>1.079</v>
@@ -5331,22 +5978,22 @@
         <v>6400</v>
       </c>
       <c r="N63" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O63" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P63" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="Q63" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="R63">
         <v>321</v>
       </c>
       <c r="S63" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -5357,19 +6004,19 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>1.0285</v>
@@ -5390,22 +6037,22 @@
         <v>4321.14</v>
       </c>
       <c r="N64" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O64" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P64" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q64" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="R64">
         <v>511</v>
       </c>
       <c r="S64" t="s">
-        <v>360</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -5416,19 +6063,19 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="D65" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F65" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H65">
         <v>0.958</v>
@@ -5449,22 +6096,22 @@
         <v>6400</v>
       </c>
       <c r="N65" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O65" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P65" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q65" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="R65">
         <v>131</v>
       </c>
       <c r="S65" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -5475,19 +6122,19 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="E66" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F66" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G66" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H66">
         <v>0.8126</v>
@@ -5508,22 +6155,22 @@
         <v>6400</v>
       </c>
       <c r="N66" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O66" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P66" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q66" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R66">
         <v>141</v>
       </c>
       <c r="S66" t="s">
-        <v>362</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -5534,19 +6181,19 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G67" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H67">
         <v>0.467</v>
@@ -5567,22 +6214,22 @@
         <v>6400</v>
       </c>
       <c r="N67" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O67" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="Q67" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="R67">
         <v>613</v>
       </c>
       <c r="S67" t="s">
-        <v>363</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5593,19 +6240,19 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="D68" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="F68" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G68" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H68">
         <v>1.2001</v>
@@ -5626,22 +6273,22 @@
         <v>6400</v>
       </c>
       <c r="N68" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O68" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P68" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q68" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R68">
         <v>512</v>
       </c>
       <c r="S68" t="s">
-        <v>364</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5652,19 +6299,19 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="D69" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="F69" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G69" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <v>1.244</v>
@@ -5685,22 +6332,22 @@
         <v>6781.95</v>
       </c>
       <c r="N69" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O69" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P69" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="Q69" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="R69">
         <v>521</v>
       </c>
       <c r="S69" t="s">
-        <v>365</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5711,19 +6358,19 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="E70" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="G70" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H70">
         <v>1.46</v>
@@ -5744,22 +6391,22 @@
         <v>6400</v>
       </c>
       <c r="N70" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O70" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P70" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="Q70" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="R70">
         <v>113</v>
       </c>
       <c r="S70" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5770,19 +6417,19 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="F71" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G71" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H71">
         <v>1.554</v>
@@ -5803,22 +6450,22 @@
         <v>6400</v>
       </c>
       <c r="N71" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O71" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P71" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q71" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R71">
         <v>512</v>
       </c>
       <c r="S71" t="s">
-        <v>367</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5829,19 +6476,19 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="D72" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H72">
         <v>1.052</v>
@@ -5862,22 +6509,22 @@
         <v>6400</v>
       </c>
       <c r="N72" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O72" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P72" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="Q72" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="R72">
         <v>321</v>
       </c>
       <c r="S72" t="s">
-        <v>368</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5888,19 +6535,19 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="F73" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G73" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H73">
         <v>0.519</v>
@@ -5921,22 +6568,22 @@
         <v>6400</v>
       </c>
       <c r="N73" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O73" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="Q73" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="R73">
         <v>613</v>
       </c>
       <c r="S73" t="s">
-        <v>369</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5947,19 +6594,19 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="D74" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E74" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="F74" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G74" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="H74">
         <v>1.649</v>
@@ -5980,22 +6627,22 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O74" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q74" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R74">
         <v>512</v>
       </c>
       <c r="S74" t="s">
-        <v>370</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -6006,25 +6653,25 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="E75" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="F75" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="G75" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H75">
-        <v>0.8139999999999999</v>
+        <v>0.814</v>
       </c>
       <c r="I75">
-        <v>0.8139999999999999</v>
+        <v>0.814</v>
       </c>
       <c r="J75">
         <v>7852.99</v>
@@ -6039,22 +6686,22 @@
         <v>6400</v>
       </c>
       <c r="N75" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O75" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P75" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q75" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="R75">
         <v>144</v>
       </c>
       <c r="S75" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -6065,19 +6712,19 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F76" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="G76" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>2.678</v>
@@ -6089,7 +6736,7 @@
         <v>3730.54</v>
       </c>
       <c r="K76">
-        <v>9940.440000000001</v>
+        <v>9940.44</v>
       </c>
       <c r="L76">
         <v>49.95</v>
@@ -6098,22 +6745,22 @@
         <v>9890.49</v>
       </c>
       <c r="N76" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O76" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P76" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q76" t="s">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="R76">
         <v>148</v>
       </c>
       <c r="S76" t="s">
-        <v>372</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -6124,19 +6771,19 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="F77" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G77" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H77">
         <v>1.622</v>
@@ -6157,22 +6804,22 @@
         <v>6400</v>
       </c>
       <c r="N77" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O77" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q77" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R77">
         <v>512</v>
       </c>
       <c r="S77" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -6183,19 +6830,19 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="E78" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F78" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G78" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H78">
         <v>1.114</v>
@@ -6216,22 +6863,22 @@
         <v>6400</v>
       </c>
       <c r="N78" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O78" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="P78" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="Q78" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="R78">
         <v>221</v>
       </c>
       <c r="S78" t="s">
-        <v>374</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -6242,19 +6889,19 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="F79" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G79" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H79">
         <v>1.594</v>
@@ -6275,22 +6922,22 @@
         <v>6400</v>
       </c>
       <c r="N79" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O79" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P79" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q79" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R79">
         <v>512</v>
       </c>
       <c r="S79" t="s">
-        <v>375</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -6301,19 +6948,19 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>294</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="F80" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G80" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H80">
         <v>1.582</v>
@@ -6334,22 +6981,22 @@
         <v>6400</v>
       </c>
       <c r="N80" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O80" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P80" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q80" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R80">
         <v>512</v>
       </c>
       <c r="S80" t="s">
-        <v>376</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -6360,19 +7007,19 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>297</v>
       </c>
       <c r="D81" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="F81" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="G81" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="H81">
         <v>1.0794</v>
@@ -6393,22 +7040,22 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O81" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P81" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q81" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R81">
         <v>512</v>
       </c>
       <c r="S81" t="s">
-        <v>377</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -6419,19 +7066,19 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="D82" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="F82" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G82" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -6452,22 +7099,22 @@
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O82" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P82" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="Q82" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="R82">
         <v>521</v>
       </c>
       <c r="S82" t="s">
-        <v>378</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -6478,19 +7125,19 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>302</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="F83" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G83" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H83">
         <v>1.645</v>
@@ -6511,22 +7158,22 @@
         <v>6400</v>
       </c>
       <c r="N83" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O83" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q83" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R83">
         <v>512</v>
       </c>
       <c r="S83" t="s">
-        <v>379</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6537,19 +7184,19 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>304</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>305</v>
       </c>
       <c r="E84" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="F84" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="G84" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H84">
         <v>0.8999</v>
@@ -6570,22 +7217,22 @@
         <v>3500</v>
       </c>
       <c r="N84" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O84" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P84" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q84" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="R84">
         <v>121</v>
       </c>
       <c r="S84" t="s">
-        <v>380</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6596,19 +7243,19 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>66</v>
+        <v>304</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="E85" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="F85" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="G85" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H85">
         <v>0.9776</v>
@@ -6629,22 +7276,22 @@
         <v>3500</v>
       </c>
       <c r="N85" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O85" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P85" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q85" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="R85">
         <v>123</v>
       </c>
       <c r="S85" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6655,19 +7302,19 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
+        <v>304</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c r="E86" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="F86" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="G86" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H86">
         <v>0.8999</v>
@@ -6688,22 +7335,22 @@
         <v>3500</v>
       </c>
       <c r="N86" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O86" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q86" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="R86">
         <v>121</v>
       </c>
       <c r="S86" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6714,19 +7361,19 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>316</v>
       </c>
       <c r="D87" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F87" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G87" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H87">
         <v>1.4623</v>
@@ -6747,22 +7394,22 @@
         <v>3500</v>
       </c>
       <c r="N87" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O87" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="Q87" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="R87">
         <v>211</v>
       </c>
       <c r="S87" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6773,19 +7420,19 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="E88" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F88" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="G88" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H88">
         <v>1.7296</v>
@@ -6803,25 +7450,25 @@
         <v>20.72</v>
       </c>
       <c r="M88">
-        <v>8245.299999999999</v>
+        <v>8245.3</v>
       </c>
       <c r="N88" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O88" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P88" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q88" t="s">
-        <v>289</v>
+        <v>208</v>
       </c>
       <c r="R88">
         <v>124</v>
       </c>
       <c r="S88" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6832,19 +7479,19 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="D89" t="s">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="E89" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="G89" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H89">
         <v>1.9367</v>
@@ -6865,22 +7512,22 @@
         <v>6400</v>
       </c>
       <c r="N89" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O89" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P89" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q89" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="R89">
         <v>121</v>
       </c>
       <c r="S89" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6891,19 +7538,19 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>327</v>
       </c>
       <c r="E90" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="F90" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="G90" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>1.0422</v>
@@ -6924,22 +7571,22 @@
         <v>3731.28</v>
       </c>
       <c r="N90" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O90" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q90" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="R90">
         <v>123</v>
       </c>
       <c r="S90" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6950,19 +7597,19 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="D91" t="s">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="E91" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="F91" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="G91" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>0.945</v>
@@ -6983,22 +7630,22 @@
         <v>3675.41</v>
       </c>
       <c r="N91" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O91" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P91" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q91" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="R91">
         <v>121</v>
       </c>
       <c r="S91" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -7009,19 +7656,19 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>332</v>
       </c>
       <c r="E92" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="F92" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="G92" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>0.9822</v>
@@ -7042,22 +7689,22 @@
         <v>3820.09</v>
       </c>
       <c r="N92" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O92" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P92" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="Q92" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="R92">
         <v>121</v>
       </c>
       <c r="S92" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -7068,19 +7715,19 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>71</v>
+        <v>334</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="E93" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="F93" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="G93" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H93">
         <v>1.0894</v>
@@ -7101,22 +7748,22 @@
         <v>6400</v>
       </c>
       <c r="N93" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O93" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P93" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q93" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
       <c r="R93">
         <v>147</v>
       </c>
       <c r="S93" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -7126,20 +7773,20 @@
       <c r="B94">
         <v>116</v>
       </c>
-      <c r="C94" t="s">
-        <v>72</v>
+      <c r="C94" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="D94" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E94" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F94" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="G94" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="H94">
         <v>0.984</v>
@@ -7160,19 +7807,19 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O94" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q94" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="S94" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -7183,25 +7830,25 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>340</v>
       </c>
       <c r="E95" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="F95" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="G95" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H95">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="I95">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="J95">
         <v>8925.34</v>
@@ -7216,22 +7863,22 @@
         <v>6400</v>
       </c>
       <c r="N95" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O95" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="Q95" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="R95">
         <v>613</v>
       </c>
       <c r="S95" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -7242,19 +7889,19 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="D96" t="s">
-        <v>177</v>
+        <v>344</v>
       </c>
       <c r="E96" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="F96" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="G96" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>0.8646</v>
@@ -7275,22 +7922,22 @@
         <v>6721.8</v>
       </c>
       <c r="N96" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O96" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q96" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="R96">
         <v>144</v>
       </c>
       <c r="S96" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -7301,19 +7948,19 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="D97" t="s">
-        <v>178</v>
+        <v>347</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="F97" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G97" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>1.319</v>
@@ -7334,22 +7981,22 @@
         <v>7399.31</v>
       </c>
       <c r="N97" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O97" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P97" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="Q97" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="R97">
         <v>521</v>
       </c>
       <c r="S97" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -7360,19 +8007,19 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="D98" t="s">
-        <v>179</v>
+        <v>349</v>
       </c>
       <c r="E98" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H98">
         <v>0.978</v>
@@ -7393,22 +8040,22 @@
         <v>6400</v>
       </c>
       <c r="N98" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O98" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="Q98" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="R98">
         <v>321</v>
       </c>
       <c r="S98" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -7419,19 +8066,19 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="D99" t="s">
-        <v>180</v>
+        <v>352</v>
       </c>
       <c r="E99" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F99" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G99" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H99">
         <v>1.3592</v>
@@ -7452,22 +8099,22 @@
         <v>6400</v>
       </c>
       <c r="N99" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O99" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="P99" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="Q99" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="R99">
         <v>211</v>
       </c>
       <c r="S99" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -7478,19 +8125,19 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="D100" t="s">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="E100" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H100">
         <v>0.913</v>
@@ -7511,22 +8158,22 @@
         <v>6400</v>
       </c>
       <c r="N100" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O100" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="Q100" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="R100">
         <v>321</v>
       </c>
       <c r="S100" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7537,19 +8184,19 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>357</v>
       </c>
       <c r="E101" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="G101" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H101">
         <v>0.867</v>
@@ -7570,22 +8217,22 @@
         <v>6400</v>
       </c>
       <c r="N101" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O101" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="Q101" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="R101">
         <v>321</v>
       </c>
       <c r="S101" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -7596,19 +8243,19 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>360</v>
       </c>
       <c r="E102" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="F102" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G102" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H102">
         <v>1.4364</v>
@@ -7629,22 +8276,22 @@
         <v>7577.49</v>
       </c>
       <c r="N102" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O102" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q102" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="R102">
         <v>512</v>
       </c>
       <c r="S102" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7655,19 +8302,19 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="D103" t="s">
-        <v>184</v>
+        <v>362</v>
       </c>
       <c r="E103" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F103" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G103" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H103">
         <v>1.2474</v>
@@ -7688,22 +8335,22 @@
         <v>6400</v>
       </c>
       <c r="N103" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O103" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="P103" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="Q103" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="R103">
         <v>211</v>
       </c>
       <c r="S103" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7714,19 +8361,19 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>364</v>
       </c>
       <c r="E104" t="s">
-        <v>223</v>
+        <v>365</v>
       </c>
       <c r="F104" t="s">
-        <v>253</v>
+        <v>366</v>
       </c>
       <c r="G104" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H104">
         <v>1.9434</v>
@@ -7747,25 +8394,25 @@
         <v>6400</v>
       </c>
       <c r="N104" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O104" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="Q104" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="R104">
         <v>313</v>
       </c>
       <c r="S104" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" ht="15" spans="1:19">
       <c r="A105" s="1">
         <v>116</v>
       </c>
@@ -7773,25 +8420,25 @@
         <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="D105" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E105" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="F105" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="G105" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="I105">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="J105">
         <v>8925</v>
@@ -7806,19 +8453,19 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O105" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="P105" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="Q105" t="s">
-        <v>293</v>
-      </c>
-      <c r="S105" s="2" t="s">
-        <v>401</v>
+        <v>241</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7829,19 +8476,19 @@
         <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="D106" t="s">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="F106" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="G106" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>0.9777</v>
@@ -7850,7 +8497,7 @@
         <v>0.9777</v>
       </c>
       <c r="J106">
-        <v>9457.639999999999</v>
+        <v>9457.64</v>
       </c>
       <c r="K106">
         <v>9246.73</v>
@@ -7862,22 +8509,22 @@
         <v>9246.73</v>
       </c>
       <c r="N106" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O106" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P106" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q106" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="R106">
         <v>142</v>
       </c>
       <c r="S106" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7888,19 +8535,19 @@
         <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>374</v>
       </c>
       <c r="E107" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="F107" t="s">
-        <v>254</v>
+        <v>375</v>
       </c>
       <c r="G107" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H107">
         <v>0.972</v>
@@ -7921,22 +8568,22 @@
         <v>6400</v>
       </c>
       <c r="N107" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O107" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="Q107" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="R107">
         <v>131</v>
       </c>
       <c r="S107" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -7947,19 +8594,19 @@
         <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="E108" t="s">
-        <v>223</v>
+        <v>365</v>
       </c>
       <c r="F108" t="s">
-        <v>253</v>
+        <v>366</v>
       </c>
       <c r="G108" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>2.3877</v>
@@ -7980,22 +8627,22 @@
         <v>7775.2</v>
       </c>
       <c r="N108" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O108" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="P108" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="Q108" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="R108">
         <v>313</v>
       </c>
       <c r="S108" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -8006,19 +8653,19 @@
         <v>106</v>
       </c>
       <c r="C109" t="s">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="D109" t="s">
-        <v>189</v>
+        <v>381</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F109" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G109" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>1.577</v>
@@ -8036,25 +8683,25 @@
         <v>17.41</v>
       </c>
       <c r="M109">
-        <v>8670.440000000001</v>
+        <v>8670.44</v>
       </c>
       <c r="N109" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O109" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="Q109" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="R109">
         <v>221</v>
       </c>
       <c r="S109" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -8065,19 +8712,19 @@
         <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="D110" t="s">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F110" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G110" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>1.1545</v>
@@ -8089,31 +8736,31 @@
         <v>7866.51</v>
       </c>
       <c r="K110">
-        <v>9081.889999999999</v>
+        <v>9081.89</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
       <c r="M110">
-        <v>9081.889999999999</v>
+        <v>9081.89</v>
       </c>
       <c r="N110" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O110" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q110" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R110">
         <v>141</v>
       </c>
       <c r="S110" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -8124,19 +8771,19 @@
         <v>108</v>
       </c>
       <c r="C111" t="s">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="D111" t="s">
-        <v>191</v>
+        <v>386</v>
       </c>
       <c r="E111" t="s">
-        <v>224</v>
+        <v>387</v>
       </c>
       <c r="F111" t="s">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="G111" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H111">
         <v>1.216</v>
@@ -8157,22 +8804,22 @@
         <v>6400</v>
       </c>
       <c r="N111" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O111" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q111" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="R111">
         <v>511</v>
       </c>
       <c r="S111" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -8183,19 +8830,19 @@
         <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>83</v>
+        <v>390</v>
       </c>
       <c r="D112" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E112" t="s">
-        <v>224</v>
+        <v>387</v>
       </c>
       <c r="F112" t="s">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="G112" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -8216,22 +8863,22 @@
         <v>94.66</v>
       </c>
       <c r="N112" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O112" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P112" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q112" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="R112">
         <v>511</v>
       </c>
       <c r="S112" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -8242,19 +8889,19 @@
         <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>84</v>
+        <v>392</v>
       </c>
       <c r="D113" t="s">
-        <v>192</v>
+        <v>393</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G113" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>1.765</v>
@@ -8266,7 +8913,7 @@
         <v>5629.17</v>
       </c>
       <c r="K113">
-        <v>9915.620000000001</v>
+        <v>9915.62</v>
       </c>
       <c r="L113">
         <v>19.87</v>
@@ -8275,22 +8922,22 @@
         <v>9895.75</v>
       </c>
       <c r="N113" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O113" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="P113" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="Q113" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="R113">
         <v>221</v>
       </c>
       <c r="S113" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -8301,19 +8948,19 @@
         <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>85</v>
+        <v>395</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>396</v>
       </c>
       <c r="E114" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F114" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G114" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>1.2856</v>
@@ -8334,22 +8981,22 @@
         <v>10225.19</v>
       </c>
       <c r="N114" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O114" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P114" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q114" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R114">
         <v>141</v>
       </c>
       <c r="S114" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -8360,19 +9007,19 @@
         <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D115" t="s">
-        <v>194</v>
+        <v>399</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="F115" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="G115" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H115">
         <v>1.171</v>
@@ -8393,22 +9040,22 @@
         <v>200</v>
       </c>
       <c r="N115" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O115" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q115" t="s">
-        <v>297</v>
+        <v>402</v>
       </c>
       <c r="R115">
         <v>146</v>
       </c>
       <c r="S115" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -8419,19 +9066,19 @@
         <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="D116" t="s">
-        <v>195</v>
+        <v>405</v>
       </c>
       <c r="E116" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="G116" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>1.3139</v>
@@ -8443,31 +9090,31 @@
         <v>7014.52</v>
       </c>
       <c r="K116">
-        <v>9216.379999999999</v>
+        <v>9216.38</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
       <c r="M116">
-        <v>9216.379999999999</v>
+        <v>9216.38</v>
       </c>
       <c r="N116" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O116" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q116" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="R116">
         <v>141</v>
       </c>
       <c r="S116" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -8478,19 +9125,19 @@
         <v>114</v>
       </c>
       <c r="C117" t="s">
-        <v>88</v>
+        <v>407</v>
       </c>
       <c r="D117" t="s">
-        <v>196</v>
+        <v>408</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="F117" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="G117" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H117">
         <v>1.1845</v>
@@ -8511,22 +9158,22 @@
         <v>600</v>
       </c>
       <c r="N117" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O117" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="Q117" t="s">
-        <v>297</v>
+        <v>402</v>
       </c>
       <c r="R117">
         <v>146</v>
       </c>
       <c r="S117" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -8537,19 +9184,19 @@
         <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="D118" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
       <c r="E118" t="s">
-        <v>226</v>
+        <v>412</v>
       </c>
       <c r="F118" t="s">
-        <v>257</v>
+        <v>413</v>
       </c>
       <c r="G118" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H118">
         <v>1.1004</v>
@@ -8570,16 +9217,16 @@
         <v>6400</v>
       </c>
       <c r="N118" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O118" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="Q118" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="R118">
         <v>511</v>
@@ -8590,8 +9237,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S105" r:id="rId1"/>
+    <hyperlink ref="S105" r:id="rId1" display="https://query.1234567.com.cn/Query/Detail?id=340c5c12b6734d8180fcbe9ecdb3e13d&amp;businType=26&amp;traceNo="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>